--- a/Översikt LILLA EDET.xlsx
+++ b/Översikt LILLA EDET.xlsx
@@ -575,7 +575,7 @@
         <v>45295</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,14 +670,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 318-2024</t>
+          <t>A 30285-2025</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45295</v>
+        <v>45827</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -689,23 +689,18 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G3" t="n">
-        <v>8.1</v>
+        <v>29.6</v>
       </c>
       <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J3" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="n">
-        <v>6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
@@ -719,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -728,6 +723,107 @@
         <v>8</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Dofttaggsvamp
+Spillkråka
+Blåmossa
+Klippfrullania
+Stor revmossa
+Västlig hakmossa
+Mattlummer
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 30285-2025 artfynd.xlsx", "A 30285-2025")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 30285-2025 karta.png", "A 30285-2025")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 30285-2025 FSC-klagomål.docx", "A 30285-2025")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 30285-2025 FSC-klagomål mail.docx", "A 30285-2025")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 30285-2025 tillsynsbegäran.docx", "A 30285-2025")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 30285-2025 tillsynsbegäran mail.docx", "A 30285-2025")</f>
+        <v/>
+      </c>
+      <c r="Z3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 30285-2025 prioriterade fågelarter.docx", "A 30285-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 318-2024</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45295</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>8</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Blåmossa
@@ -739,128 +835,32 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 318-2024 artfynd.xlsx", "A 318-2024")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 318-2024 karta.png", "A 318-2024")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 318-2024 FSC-klagomål.docx", "A 318-2024")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 318-2024 FSC-klagomål mail.docx", "A 318-2024")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 318-2024 tillsynsbegäran.docx", "A 318-2024")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 318-2024 tillsynsbegäran mail.docx", "A 318-2024")</f>
         <v/>
       </c>
-      <c r="Z3">
+      <c r="Z4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 318-2024 prioriterade fågelarter.docx", "A 318-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 30285-2025</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45827</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>8</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Dofttaggsvamp
-Spillkråka
-Blåmossa
-Klippfrullania
-Stor revmossa
-Västlig hakmossa
-Mattlummer
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 30285-2025 artfynd.xlsx", "A 30285-2025")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 30285-2025 karta.png", "A 30285-2025")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 30285-2025 FSC-klagomål.docx", "A 30285-2025")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 30285-2025 FSC-klagomål mail.docx", "A 30285-2025")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 30285-2025 tillsynsbegäran.docx", "A 30285-2025")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 30285-2025 tillsynsbegäran mail.docx", "A 30285-2025")</f>
-        <v/>
-      </c>
-      <c r="Z4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 30285-2025 prioriterade fågelarter.docx", "A 30285-2025")</f>
         <v/>
       </c>
     </row>
@@ -874,7 +874,7 @@
         <v>45272</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>45139</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,14 +1050,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 58567-2025</t>
+          <t>A 25298-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45986.36528935185</v>
+        <v>45462</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1069,17 +1069,22 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G7" t="n">
-        <v>17.9</v>
+        <v>5.9</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1094,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1103,6 +1108,278 @@
         <v>4</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Björksplintborre
+Västlig hakmossa
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 25298-2024 artfynd.xlsx", "A 25298-2024")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 25298-2024 karta.png", "A 25298-2024")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 25298-2024 FSC-klagomål.docx", "A 25298-2024")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 25298-2024 FSC-klagomål mail.docx", "A 25298-2024")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 25298-2024 tillsynsbegäran.docx", "A 25298-2024")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 25298-2024 tillsynsbegäran mail.docx", "A 25298-2024")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 25298-2024 prioriterade fågelarter.docx", "A 25298-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 43771-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Slåtterfibbla
+Vätteros
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 43771-2023 artfynd.xlsx", "A 43771-2023")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 43771-2023 karta.png", "A 43771-2023")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 43771-2023 FSC-klagomål.docx", "A 43771-2023")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 43771-2023 FSC-klagomål mail.docx", "A 43771-2023")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 43771-2023 tillsynsbegäran.docx", "A 43771-2023")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 43771-2023 tillsynsbegäran mail.docx", "A 43771-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 28512-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45819.48106481481</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa
+Västlig hakmossa
+Tjäder</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 28512-2025 artfynd.xlsx", "A 28512-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 28512-2025 karta.png", "A 28512-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 28512-2025 FSC-klagomål.docx", "A 28512-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 28512-2025 FSC-klagomål mail.docx", "A 28512-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 28512-2025 tillsynsbegäran.docx", "A 28512-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 28512-2025 tillsynsbegäran mail.docx", "A 28512-2025")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 28512-2025 prioriterade fågelarter.docx", "A 28512-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 58567-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45986.36528935185</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Skogshare
 Spillkråka
@@ -1110,323 +1387,46 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 58567-2025 artfynd.xlsx", "A 58567-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 58567-2025 karta.png", "A 58567-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 58567-2025 FSC-klagomål.docx", "A 58567-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 58567-2025 FSC-klagomål mail.docx", "A 58567-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 58567-2025 tillsynsbegäran.docx", "A 58567-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 58567-2025 tillsynsbegäran mail.docx", "A 58567-2025")</f>
         <v/>
       </c>
-      <c r="Z7">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 58567-2025 prioriterade fågelarter.docx", "A 58567-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 25298-2024</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45462</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Björksplintborre
-Västlig hakmossa
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 25298-2024 artfynd.xlsx", "A 25298-2024")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 25298-2024 karta.png", "A 25298-2024")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 25298-2024 FSC-klagomål.docx", "A 25298-2024")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 25298-2024 FSC-klagomål mail.docx", "A 25298-2024")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 25298-2024 tillsynsbegäran.docx", "A 25298-2024")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 25298-2024 tillsynsbegäran mail.docx", "A 25298-2024")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 25298-2024 prioriterade fågelarter.docx", "A 25298-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 43771-2023</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45187</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>4</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Slåtterfibbla
-Vätteros
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 43771-2023 artfynd.xlsx", "A 43771-2023")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 43771-2023 karta.png", "A 43771-2023")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 43771-2023 FSC-klagomål.docx", "A 43771-2023")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 43771-2023 FSC-klagomål mail.docx", "A 43771-2023")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 43771-2023 tillsynsbegäran.docx", "A 43771-2023")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 43771-2023 tillsynsbegäran mail.docx", "A 43771-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 28512-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45819.48106481481</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa
-Västlig hakmossa
-Tjäder</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 28512-2025 artfynd.xlsx", "A 28512-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 28512-2025 karta.png", "A 28512-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 28512-2025 FSC-klagomål.docx", "A 28512-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 28512-2025 FSC-klagomål mail.docx", "A 28512-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 28512-2025 tillsynsbegäran.docx", "A 28512-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 28512-2025 tillsynsbegäran mail.docx", "A 28512-2025")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 28512-2025 prioriterade fågelarter.docx", "A 28512-2025")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 4017-2026</t>
+          <t>A 23563-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>46044.42456018519</v>
+        <v>45072</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,14 +1438,19 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G11" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1472,130 +1477,125 @@
         <v>3</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Nordfladdermus
+Dvärgpipistrell
+Vattenfladdermus</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23563-2023 artfynd.xlsx", "A 23563-2023")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23563-2023 karta.png", "A 23563-2023")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23563-2023 FSC-klagomål.docx", "A 23563-2023")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23563-2023 FSC-klagomål mail.docx", "A 23563-2023")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23563-2023 tillsynsbegäran.docx", "A 23563-2023")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23563-2023 tillsynsbegäran mail.docx", "A 23563-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 4017-2026</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>46044.42456018519</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Stor revmossa
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 4017-2026 artfynd.xlsx", "A 4017-2026")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 4017-2026 karta.png", "A 4017-2026")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 4017-2026 FSC-klagomål.docx", "A 4017-2026")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 4017-2026 FSC-klagomål mail.docx", "A 4017-2026")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 4017-2026 tillsynsbegäran.docx", "A 4017-2026")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 4017-2026 tillsynsbegäran mail.docx", "A 4017-2026")</f>
         <v/>
       </c>
-      <c r="Z11">
+      <c r="Z12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 4017-2026 prioriterade fågelarter.docx", "A 4017-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 23563-2023</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45072</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Nordfladdermus
-Dvärgpipistrell
-Vattenfladdermus</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23563-2023 artfynd.xlsx", "A 23563-2023")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23563-2023 karta.png", "A 23563-2023")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23563-2023 FSC-klagomål.docx", "A 23563-2023")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23563-2023 FSC-klagomål mail.docx", "A 23563-2023")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23563-2023 tillsynsbegäran.docx", "A 23563-2023")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23563-2023 tillsynsbegäran mail.docx", "A 23563-2023")</f>
         <v/>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
         <v>45832.45538194444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,14 +1692,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 23559-2023</t>
+          <t>A 2437-2026</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45072</v>
+        <v>46036.9100925926</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,22 +1711,17 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>1.7</v>
+        <v>6.8</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>2</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1741,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1751,122 +1746,127 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
+          <t>Sårläka
+Vätteros</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 2437-2026 artfynd.xlsx", "A 2437-2026")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 2437-2026 karta.png", "A 2437-2026")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 2437-2026 FSC-klagomål.docx", "A 2437-2026")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 2437-2026 FSC-klagomål mail.docx", "A 2437-2026")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 2437-2026 tillsynsbegäran.docx", "A 2437-2026")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 2437-2026 tillsynsbegäran mail.docx", "A 2437-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 23559-2023</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45072</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Revlummer</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23559-2023 artfynd.xlsx", "A 23559-2023")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23559-2023 karta.png", "A 23559-2023")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23559-2023 FSC-klagomål.docx", "A 23559-2023")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23559-2023 FSC-klagomål mail.docx", "A 23559-2023")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23559-2023 tillsynsbegäran.docx", "A 23559-2023")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23559-2023 tillsynsbegäran mail.docx", "A 23559-2023")</f>
         <v/>
       </c>
-      <c r="Z14">
+      <c r="Z15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 23559-2023 prioriterade fågelarter.docx", "A 23559-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 2437-2026</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>46036.9100925926</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Sårläka
-Vätteros</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 2437-2026 artfynd.xlsx", "A 2437-2026")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 2437-2026 karta.png", "A 2437-2026")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 2437-2026 FSC-klagomål.docx", "A 2437-2026")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 2437-2026 FSC-klagomål mail.docx", "A 2437-2026")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 2437-2026 tillsynsbegäran.docx", "A 2437-2026")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 2437-2026 tillsynsbegäran mail.docx", "A 2437-2026")</f>
         <v/>
       </c>
     </row>
@@ -1880,7 +1880,7 @@
         <v>45296.57905092592</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>45390</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2054,14 +2054,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 30273-2022</t>
+          <t>A 23497-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44759</v>
+        <v>45072</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2073,17 +2073,22 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>12.5</v>
+        <v>1.6</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2098,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2108,49 +2113,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Ärtsångare</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 30273-2022 artfynd.xlsx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23497-2023 artfynd.xlsx", "A 23497-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 30273-2022 karta.png", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23497-2023 karta.png", "A 23497-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 30273-2022 FSC-klagomål.docx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23497-2023 FSC-klagomål.docx", "A 23497-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 30273-2022 FSC-klagomål mail.docx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23497-2023 FSC-klagomål mail.docx", "A 23497-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 30273-2022 tillsynsbegäran.docx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23497-2023 tillsynsbegäran.docx", "A 23497-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 30273-2022 tillsynsbegäran mail.docx", "A 30273-2022")</f>
-        <v/>
-      </c>
-      <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 30273-2022 prioriterade fågelarter.docx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23497-2023 tillsynsbegäran mail.docx", "A 23497-2023")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 25655-2023</t>
+          <t>A 23494-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45089</v>
+        <v>45072</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2162,11 +2163,16 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G19" t="n">
-        <v>5.1</v>
+        <v>1.3</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2197,45 +2203,49 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Bergjohannesört</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 25655-2023 artfynd.xlsx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23494-2023 artfynd.xlsx", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 25655-2023 karta.png", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23494-2023 karta.png", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 25655-2023 FSC-klagomål.docx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23494-2023 FSC-klagomål.docx", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 25655-2023 FSC-klagomål mail.docx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23494-2023 FSC-klagomål mail.docx", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 25655-2023 tillsynsbegäran.docx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23494-2023 tillsynsbegäran.docx", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 25655-2023 tillsynsbegäran mail.docx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23494-2023 tillsynsbegäran mail.docx", "A 23494-2023")</f>
+        <v/>
+      </c>
+      <c r="Z19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 23494-2023 prioriterade fågelarter.docx", "A 23494-2023")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 15351-2024</t>
+          <t>A 25655-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45400.8005787037</v>
+        <v>45089</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2247,13 +2257,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>5.1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2287,45 +2292,45 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Guldsandbi</t>
+          <t>Bergjohannesört</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 15351-2024 artfynd.xlsx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 25655-2023 artfynd.xlsx", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 15351-2024 karta.png", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 25655-2023 karta.png", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 15351-2024 FSC-klagomål.docx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 25655-2023 FSC-klagomål.docx", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 15351-2024 FSC-klagomål mail.docx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 25655-2023 FSC-klagomål mail.docx", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 15351-2024 tillsynsbegäran.docx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 25655-2023 tillsynsbegäran.docx", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 15351-2024 tillsynsbegäran mail.docx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 25655-2023 tillsynsbegäran mail.docx", "A 25655-2023")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 58568-2025</t>
+          <t>A 15351-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45986.36644675926</v>
+        <v>45400.8005787037</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2337,11 +2342,16 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2372,49 +2382,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Guldsandbi</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 58568-2025 artfynd.xlsx", "A 58568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 15351-2024 artfynd.xlsx", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 58568-2025 karta.png", "A 58568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 15351-2024 karta.png", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 58568-2025 FSC-klagomål.docx", "A 58568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 15351-2024 FSC-klagomål.docx", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 58568-2025 FSC-klagomål mail.docx", "A 58568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 15351-2024 FSC-klagomål mail.docx", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 58568-2025 tillsynsbegäran.docx", "A 58568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 15351-2024 tillsynsbegäran.docx", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 58568-2025 tillsynsbegäran mail.docx", "A 58568-2025")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 58568-2025 prioriterade fågelarter.docx", "A 58568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 15351-2024 tillsynsbegäran mail.docx", "A 15351-2024")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 45941-2025</t>
+          <t>A 30273-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45924.31385416666</v>
+        <v>44759</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2427,10 +2433,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.2</v>
+        <v>12.5</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2461,45 +2467,49 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Ärtsångare</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 45941-2025 artfynd.xlsx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 30273-2022 artfynd.xlsx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 45941-2025 karta.png", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 30273-2022 karta.png", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 45941-2025 FSC-klagomål.docx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 30273-2022 FSC-klagomål.docx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 45941-2025 FSC-klagomål mail.docx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 30273-2022 FSC-klagomål mail.docx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 45941-2025 tillsynsbegäran.docx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 30273-2022 tillsynsbegäran.docx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 45941-2025 tillsynsbegäran mail.docx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 30273-2022 tillsynsbegäran mail.docx", "A 30273-2022")</f>
+        <v/>
+      </c>
+      <c r="Z22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 30273-2022 prioriterade fågelarter.docx", "A 30273-2022")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 7062-2024</t>
+          <t>A 45941-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45343</v>
+        <v>45924.31385416666</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2512,17 +2522,17 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>9.1</v>
+        <v>1.2</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>1</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
@@ -2536,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2546,45 +2556,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 7062-2024 artfynd.xlsx", "A 7062-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 45941-2025 artfynd.xlsx", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 7062-2024 karta.png", "A 7062-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 45941-2025 karta.png", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 7062-2024 FSC-klagomål.docx", "A 7062-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 45941-2025 FSC-klagomål.docx", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 7062-2024 FSC-klagomål mail.docx", "A 7062-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 45941-2025 FSC-klagomål mail.docx", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 7062-2024 tillsynsbegäran.docx", "A 7062-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 45941-2025 tillsynsbegäran.docx", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 7062-2024 tillsynsbegäran mail.docx", "A 7062-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 45941-2025 tillsynsbegäran mail.docx", "A 45941-2025")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 23497-2023</t>
+          <t>A 54358-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45072</v>
+        <v>45617.40755787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2596,19 +2606,14 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2636,45 +2641,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23497-2023 artfynd.xlsx", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 54358-2024 artfynd.xlsx", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23497-2023 karta.png", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 54358-2024 karta.png", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23497-2023 FSC-klagomål.docx", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 54358-2024 FSC-klagomål.docx", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23497-2023 FSC-klagomål mail.docx", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 54358-2024 FSC-klagomål mail.docx", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23497-2023 tillsynsbegäran.docx", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 54358-2024 tillsynsbegäran.docx", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23497-2023 tillsynsbegäran mail.docx", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 54358-2024 tillsynsbegäran mail.docx", "A 54358-2024")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 54358-2024</t>
+          <t>A 7062-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45617.40755787037</v>
+        <v>45343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2687,7 +2692,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>9.1</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -2721,45 +2726,45 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 54358-2024 artfynd.xlsx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 7062-2024 artfynd.xlsx", "A 7062-2024")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 54358-2024 karta.png", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 7062-2024 karta.png", "A 7062-2024")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 54358-2024 FSC-klagomål.docx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 7062-2024 FSC-klagomål.docx", "A 7062-2024")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 54358-2024 FSC-klagomål mail.docx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 7062-2024 FSC-klagomål mail.docx", "A 7062-2024")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 54358-2024 tillsynsbegäran.docx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 7062-2024 tillsynsbegäran.docx", "A 7062-2024")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 54358-2024 tillsynsbegäran mail.docx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 7062-2024 tillsynsbegäran mail.docx", "A 7062-2024")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 23494-2023</t>
+          <t>A 58568-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45072</v>
+        <v>45986.36644675926</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2771,13 +2776,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -2815,31 +2815,31 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23494-2023 artfynd.xlsx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 58568-2025 artfynd.xlsx", "A 58568-2025")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23494-2023 karta.png", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 58568-2025 karta.png", "A 58568-2025")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23494-2023 FSC-klagomål.docx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 58568-2025 FSC-klagomål.docx", "A 58568-2025")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23494-2023 FSC-klagomål mail.docx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 58568-2025 FSC-klagomål mail.docx", "A 58568-2025")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23494-2023 tillsynsbegäran.docx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 58568-2025 tillsynsbegäran.docx", "A 58568-2025")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23494-2023 tillsynsbegäran mail.docx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 58568-2025 tillsynsbegäran mail.docx", "A 58568-2025")</f>
         <v/>
       </c>
       <c r="Z26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 23494-2023 prioriterade fågelarter.docx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 58568-2025 prioriterade fågelarter.docx", "A 58568-2025")</f>
         <v/>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
         <v>44812</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44309.35467592593</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44363</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44251</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>44581</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44875.56251157408</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>44637</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>44685.67520833333</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>44760</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44319.62640046296</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44720.45840277777</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>44365.70123842593</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>44365.70269675926</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>44627</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>44343.5096412037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>44298.46679398148</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44280</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44377.80355324074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>44425.45646990741</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>44476.53376157407</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>44467</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>44803.87314814814</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>44246</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>44812.72657407408</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44252</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>44363</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44363</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4390,14 +4390,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 41420-2022</t>
+          <t>A 10023-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44826.6478125</v>
+        <v>44256</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4447,14 +4447,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 10023-2021</t>
+          <t>A 41420-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44256</v>
+        <v>44826.6478125</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4511,7 +4511,7 @@
         <v>44337.31774305556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>44462</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44811.6625462963</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4675,14 +4675,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 296-2022</t>
+          <t>A 30284-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44565.47288194444</v>
+        <v>44760</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4732,14 +4732,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 30284-2022</t>
+          <t>A 30287-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
         <v>44760</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4789,14 +4789,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 30287-2022</t>
+          <t>A 296-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44760</v>
+        <v>44565.47288194444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4846,14 +4846,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 12784-2025</t>
+          <t>A 7832-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45733.59857638889</v>
+        <v>44242</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4903,14 +4903,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 7832-2021</t>
+          <t>A 10726-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44242</v>
+        <v>44627.32611111111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.5</v>
+        <v>0.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4960,14 +4960,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 37190-2025</t>
+          <t>A 58750-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45875.64939814815</v>
+        <v>44489</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5017,14 +5017,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 10726-2022</t>
+          <t>A 38442-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44627.32611111111</v>
+        <v>45162.39668981481</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5074,14 +5074,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 2867-2025</t>
+          <t>A 33527-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45677.67715277777</v>
+        <v>44377.79693287037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>10.7</v>
+        <v>2.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5131,14 +5131,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 35423-2025</t>
+          <t>A 12234-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45855.4134837963</v>
+        <v>45378.36106481482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5188,14 +5188,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 49384-2023</t>
+          <t>A 48904-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45205</v>
+        <v>45594.35560185185</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5207,13 +5207,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5250,14 +5245,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 37152-2025</t>
+          <t>A 4881-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45875</v>
+        <v>45329.44875</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5270,7 +5265,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5307,14 +5302,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 12234-2024</t>
+          <t>A 26443-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45378.36106481482</v>
+        <v>45092</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5327,7 +5322,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5364,14 +5359,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 38383-2022</t>
+          <t>A 43770-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44812</v>
+        <v>45187.50803240741</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5384,7 +5379,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5421,14 +5416,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 26886-2023</t>
+          <t>A 54681-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45093</v>
+        <v>44473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5441,7 +5436,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5478,14 +5473,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 35718-2025</t>
+          <t>A 19079-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45860.4315162037</v>
+        <v>45766.61758101852</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5498,7 +5493,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>7.6</v>
+        <v>2.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5535,14 +5530,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 16489-2025</t>
+          <t>A 406-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45751.58628472222</v>
+        <v>45296</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5555,7 +5550,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5592,14 +5587,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 28022-2023</t>
+          <t>A 7819-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45098.95484953704</v>
+        <v>45706.63945601852</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5612,7 +5607,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5649,14 +5644,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 26443-2023</t>
+          <t>A 49384-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45092</v>
+        <v>45205</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5668,8 +5663,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5706,14 +5706,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 17114-2023</t>
+          <t>A 20037-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45034.58234953704</v>
+        <v>45772</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5763,14 +5763,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 58750-2021</t>
+          <t>A 47511-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44489</v>
+        <v>45587.61174768519</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5820,14 +5820,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 61952-2024</t>
+          <t>A 61435-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45653.50980324074</v>
+        <v>45646.46203703704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5877,14 +5877,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 13887-2024</t>
+          <t>A 5740-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45391.61759259259</v>
+        <v>45694.5205324074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>11.3</v>
+        <v>1.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5934,14 +5934,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 7947-2024</t>
+          <t>A 6384-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45350</v>
+        <v>45699.42287037037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5991,14 +5991,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 41756-2025</t>
+          <t>A 36984-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45902.50689814815</v>
+        <v>45539.32334490741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6048,14 +6048,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 41758-2025</t>
+          <t>A 2867-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45902.51023148148</v>
+        <v>45677.67715277777</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.9</v>
+        <v>10.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6105,14 +6105,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 41760-2025</t>
+          <t>A 27222-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45902.51596064815</v>
+        <v>45812.42443287037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6162,14 +6162,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 41761-2025</t>
+          <t>A 27620-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45902.51922453703</v>
+        <v>45813.54954861111</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>6.6</v>
+        <v>2.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6219,14 +6219,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 61284-2022</t>
+          <t>A 5612-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44915</v>
+        <v>45693.60490740741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6276,14 +6276,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 41759-2025</t>
+          <t>A 28022-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45902.51219907407</v>
+        <v>45098.95484953704</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.2</v>
+        <v>5.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6333,14 +6333,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 52431-2023</t>
+          <t>A 37063-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45225.33118055556</v>
+        <v>45539.45819444444</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6390,14 +6390,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 35422-2025</t>
+          <t>A 587-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45855.41179398148</v>
+        <v>45664.58135416666</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6447,14 +6447,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 42857-2025</t>
+          <t>A 28515-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45908.6132175926</v>
+        <v>45819.48321759259</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6504,14 +6504,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 32107-2023</t>
+          <t>A 12628-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45119.61793981482</v>
+        <v>45000</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6561,14 +6561,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 11104-2024</t>
+          <t>A 41759-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45371.32724537037</v>
+        <v>45902.51219907407</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6618,14 +6618,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 43684-2025</t>
+          <t>A 41756-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45912.37804398148</v>
+        <v>45902.50689814815</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6675,14 +6675,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 55972-2022</t>
+          <t>A 41758-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44889</v>
+        <v>45902.51023148148</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6732,14 +6732,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 44104-2025</t>
+          <t>A 41760-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45915.56895833334</v>
+        <v>45902.51596064815</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6789,14 +6789,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 33993-2023</t>
+          <t>A 41761-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45134.92311342592</v>
+        <v>45902.51922453703</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.8</v>
+        <v>6.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6846,14 +6846,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 33996-2023</t>
+          <t>A 65619-2021</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45134.92869212963</v>
+        <v>44516.53974537037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6903,14 +6903,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 44914-2025</t>
+          <t>A 35422-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45918.54420138889</v>
+        <v>45855.41179398148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6960,14 +6960,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 44915-2025</t>
+          <t>A 42857-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45918.54668981482</v>
+        <v>45908.6132175926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7017,14 +7017,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 44918-2025</t>
+          <t>A 32107-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45918.5504050926</v>
+        <v>45119.61793981482</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>5.7</v>
+        <v>2.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7074,14 +7074,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 44916-2025</t>
+          <t>A 55972-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45918.54886574074</v>
+        <v>44889</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7131,14 +7131,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 65619-2021</t>
+          <t>A 44104-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44516.53974537037</v>
+        <v>45915.56895833334</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7188,14 +7188,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 2226-2026</t>
+          <t>A 41411-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>46036.51820601852</v>
+        <v>44826.63782407407</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7245,14 +7245,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 51488-2022</t>
+          <t>A 12647-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44869</v>
+        <v>45000</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7302,14 +7302,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 2438-2026</t>
+          <t>A 43684-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>46036.91210648148</v>
+        <v>45912.37804398148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7359,14 +7359,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 28910-2024</t>
+          <t>A 44916-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45480.65789351852</v>
+        <v>45918.54886574074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7416,14 +7416,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 11604-2024</t>
+          <t>A 8117-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45373.39337962963</v>
+        <v>44974</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7473,14 +7473,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 15567-2022</t>
+          <t>A 44918-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44662</v>
+        <v>45918.5504050926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.6</v>
+        <v>5.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7530,14 +7530,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 1382-2024</t>
+          <t>A 44914-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45303.56011574074</v>
+        <v>45918.54420138889</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7587,14 +7587,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 587-2025</t>
+          <t>A 44915-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45664.58135416666</v>
+        <v>45918.54668981482</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7644,14 +7644,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 61475-2025</t>
+          <t>A 32110-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>46001.61959490741</v>
+        <v>45119.61902777778</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7701,14 +7701,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 32110-2023</t>
+          <t>A 16489-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45119.61902777778</v>
+        <v>45751.58628472222</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7758,14 +7758,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 61695-2025</t>
+          <t>A 57381-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>46002.52787037037</v>
+        <v>44896</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7815,14 +7815,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 57381-2022</t>
+          <t>A 48730-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44896</v>
+        <v>45936.65984953703</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7879,7 +7879,7 @@
         <v>45936.65829861111</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7929,14 +7929,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 48730-2025</t>
+          <t>A 49188-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45936.65984953703</v>
+        <v>45938.40711805555</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7993,7 +7993,7 @@
         <v>45737</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8043,14 +8043,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 7912-2024</t>
+          <t>A 50349-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45350</v>
+        <v>45600.81916666667</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8100,14 +8100,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 49188-2025</t>
+          <t>A 11102-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45938.40711805555</v>
+        <v>45371.32438657407</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8157,14 +8157,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 13581-2023</t>
+          <t>A 56584-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45006.54443287037</v>
+        <v>45974</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8176,13 +8176,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8219,14 +8214,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 6323-2023</t>
+          <t>A 6193-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44960</v>
+        <v>44234</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8238,13 +8233,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8281,14 +8271,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 56584-2025</t>
+          <t>A 7912-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45974</v>
+        <v>45350</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8301,7 +8291,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8338,14 +8328,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 54804-2022</t>
+          <t>A 35416-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44883</v>
+        <v>45855.40481481481</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8358,7 +8348,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>22.6</v>
+        <v>3.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8395,14 +8385,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 5866-2026</t>
+          <t>A 35420-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>46052.3075925926</v>
+        <v>45855.41025462963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8414,13 +8404,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8457,14 +8442,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 5834-2026</t>
+          <t>A 35717-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>46052.33366898148</v>
+        <v>45860.42960648148</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8476,13 +8461,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>9.9</v>
+        <v>0.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8515,38 +8495,18 @@
         <v>0</v>
       </c>
       <c r="R125" s="2" t="inlineStr"/>
-      <c r="U125">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/knärot/A 5834-2026 karta knärot.png", "A 5834-2026")</f>
-        <v/>
-      </c>
-      <c r="V125">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 5834-2026 FSC-klagomål.docx", "A 5834-2026")</f>
-        <v/>
-      </c>
-      <c r="W125">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 5834-2026 FSC-klagomål mail.docx", "A 5834-2026")</f>
-        <v/>
-      </c>
-      <c r="X125">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 5834-2026 tillsynsbegäran.docx", "A 5834-2026")</f>
-        <v/>
-      </c>
-      <c r="Y125">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 5834-2026 tillsynsbegäran mail.docx", "A 5834-2026")</f>
-        <v/>
-      </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 8117-2023</t>
+          <t>A 13581-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44974</v>
+        <v>45006.54443287037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8558,8 +8518,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>11</v>
+        <v>3.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8596,14 +8561,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 63703-2025</t>
+          <t>A 8071-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>46014.60188657408</v>
+        <v>45351</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8616,7 +8581,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8653,14 +8618,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 55991-2022</t>
+          <t>A 13975-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44889</v>
+        <v>45008</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8673,7 +8638,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8710,14 +8675,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 12628-2023</t>
+          <t>A 16473-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45000</v>
+        <v>44671</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8730,7 +8695,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8767,14 +8732,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 50349-2024</t>
+          <t>A 6323-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45600.81916666667</v>
+        <v>44960</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8786,8 +8751,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8824,14 +8794,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 54681-2021</t>
+          <t>A 37190-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44473</v>
+        <v>45875.64939814815</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8844,7 +8814,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8881,14 +8851,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 11102-2024</t>
+          <t>A 40092-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45371.32438657407</v>
+        <v>45554.3884375</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8901,7 +8871,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8938,14 +8908,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 28903-2024</t>
+          <t>A 57754-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45480.54913194444</v>
+        <v>45246.79032407407</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8958,7 +8928,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8995,14 +8965,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 55324-2025</t>
+          <t>A 45469-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45971.33519675926</v>
+        <v>45576.73229166667</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9014,13 +8984,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>2.6</v>
+        <v>7.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9057,14 +9022,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 5811-2025</t>
+          <t>A 28021-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45694.7127662037</v>
+        <v>45098.95337962963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9077,7 +9042,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9114,14 +9079,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 12647-2023</t>
+          <t>A 37152-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45000</v>
+        <v>45875</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9134,7 +9099,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9171,14 +9136,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 56854-2025</t>
+          <t>A 26886-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45978.49476851852</v>
+        <v>45093</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9191,7 +9156,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>6.4</v>
+        <v>3.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9228,14 +9193,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 56855-2025</t>
+          <t>A 12784-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45978.4962962963</v>
+        <v>45733.59857638889</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9248,7 +9213,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9285,14 +9250,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 47511-2024</t>
+          <t>A 35718-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45587.61174768519</v>
+        <v>45860.4315162037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9305,7 +9270,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.3</v>
+        <v>7.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9342,14 +9307,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 43770-2023</t>
+          <t>A 55324-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45187.50803240741</v>
+        <v>45971.33519675926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9361,8 +9326,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9399,14 +9369,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 4881-2024</t>
+          <t>A 302-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45329.44875</v>
+        <v>45295</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9418,8 +9388,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9456,14 +9431,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 46561-2024</t>
+          <t>A 56854-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45582.67883101852</v>
+        <v>45978.49476851852</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9476,7 +9451,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>12.2</v>
+        <v>6.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9513,14 +9488,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 5328-2025</t>
+          <t>A 56855-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45692.53454861111</v>
+        <v>45978.4962962963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9533,7 +9508,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9570,14 +9545,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 37510-2023</t>
+          <t>A 35423-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45158</v>
+        <v>45855.4134837963</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9590,7 +9565,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9627,14 +9602,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 47509-2024</t>
+          <t>A 61952-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45587.60949074074</v>
+        <v>45653.50980324074</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9647,7 +9622,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9684,14 +9659,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 9046-2022</t>
+          <t>A 29066-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44615.44694444445</v>
+        <v>45481.69738425926</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9704,7 +9679,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>7.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9741,14 +9716,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 20031-2025</t>
+          <t>A 29067-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45772</v>
+        <v>45481.70640046296</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9761,7 +9736,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>6.2</v>
+        <v>10.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9798,14 +9773,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 61435-2024</t>
+          <t>A 29068-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45646.46203703704</v>
+        <v>45481.71290509259</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9818,7 +9793,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9855,14 +9830,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 14929-2024</t>
+          <t>A 4225-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45398.64460648148</v>
+        <v>45324.41422453704</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9875,7 +9850,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>5.1</v>
+        <v>1.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9912,14 +9887,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 21630-2024</t>
+          <t>A 4227-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45442.32711805555</v>
+        <v>45324.41612268519</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9932,7 +9907,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>4.6</v>
+        <v>1.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9969,14 +9944,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 43767-2023</t>
+          <t>A 38093-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45187.50667824074</v>
+        <v>44811.94373842593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9989,7 +9964,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10026,14 +10001,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 33991-2023</t>
+          <t>A 5420-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45134.90613425926</v>
+        <v>45692.68938657407</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10046,7 +10021,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10083,14 +10058,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 41411-2022</t>
+          <t>A 51488-2022</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44826.63782407407</v>
+        <v>44869</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10103,7 +10078,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10140,14 +10115,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 4225-2024</t>
+          <t>A 6489-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45324.41422453704</v>
+        <v>45699.62678240741</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10160,7 +10135,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10197,14 +10172,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 4227-2024</t>
+          <t>A 9046-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45324.41612268519</v>
+        <v>44615.44694444445</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10217,7 +10192,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10254,14 +10229,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 37508-2023</t>
+          <t>A 46561-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45158.42202546296</v>
+        <v>45582.67883101852</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10274,7 +10249,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>6.9</v>
+        <v>12.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10311,14 +10286,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 37509-2023</t>
+          <t>A 17510-2021</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45158.43357638889</v>
+        <v>44299</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10331,7 +10306,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10368,14 +10343,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 13382-2023</t>
+          <t>A 28903-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45005.50784722222</v>
+        <v>45480.54913194444</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10425,14 +10400,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 38093-2022</t>
+          <t>A 2226-2026</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44811.94373842593</v>
+        <v>46036.51820601852</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10445,7 +10420,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10482,14 +10457,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 38522-2024</t>
+          <t>A 2438-2026</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45546.56513888889</v>
+        <v>46036.91210648148</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10501,13 +10476,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>5.3</v>
+        <v>2.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10544,14 +10514,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 16473-2022</t>
+          <t>A 61284-2022</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44671</v>
+        <v>44915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10564,7 +10534,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10601,14 +10571,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 20037-2025</t>
+          <t>A 12760-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45772</v>
+        <v>45001</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10621,7 +10591,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10658,14 +10628,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 6193-2021</t>
+          <t>A 62730-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44234</v>
+        <v>45268</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10678,7 +10648,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10715,14 +10685,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 40092-2024</t>
+          <t>A 11604-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45554.3884375</v>
+        <v>45373.39337962963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10735,7 +10705,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10772,14 +10742,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 57754-2023</t>
+          <t>A 5324-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45246.79032407407</v>
+        <v>45692.5303125</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10792,7 +10762,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.7</v>
+        <v>5.1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10829,14 +10799,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 48904-2024</t>
+          <t>A 61475-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45594.35560185185</v>
+        <v>46001.61959490741</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10849,7 +10819,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10886,14 +10856,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 28021-2023</t>
+          <t>A 61695-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45098.95337962963</v>
+        <v>46002.52787037037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10906,7 +10876,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10943,14 +10913,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 17510-2021</t>
+          <t>A 5811-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44299</v>
+        <v>45694.7127662037</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10963,7 +10933,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11000,14 +10970,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 44445-2023</t>
+          <t>A 54804-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45189.37668981482</v>
+        <v>44883</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11020,7 +10990,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3.8</v>
+        <v>22.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11057,14 +11027,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 17116-2023</t>
+          <t>A 20031-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45034.58351851852</v>
+        <v>45772</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11077,7 +11047,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>6.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11114,14 +11084,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 12760-2023</t>
+          <t>A 52431-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45001</v>
+        <v>45225.33118055556</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11134,7 +11104,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11171,14 +11141,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 5612-2025</t>
+          <t>A 33993-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45693.60490740741</v>
+        <v>45134.92311342592</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11191,7 +11161,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11228,14 +11198,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 302-2024</t>
+          <t>A 33996-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45295</v>
+        <v>45134.92869212963</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11247,13 +11217,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11290,14 +11255,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 29066-2024</t>
+          <t>A 5834-2026</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45481.69738425926</v>
+        <v>46052.33366898148</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11309,8 +11274,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>7.9</v>
+        <v>9.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11343,18 +11313,38 @@
         <v>0</v>
       </c>
       <c r="R174" s="2" t="inlineStr"/>
+      <c r="U174">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/knärot/A 5834-2026 karta knärot.png", "A 5834-2026")</f>
+        <v/>
+      </c>
+      <c r="V174">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 5834-2026 FSC-klagomål.docx", "A 5834-2026")</f>
+        <v/>
+      </c>
+      <c r="W174">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 5834-2026 FSC-klagomål mail.docx", "A 5834-2026")</f>
+        <v/>
+      </c>
+      <c r="X174">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 5834-2026 tillsynsbegäran.docx", "A 5834-2026")</f>
+        <v/>
+      </c>
+      <c r="Y174">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 5834-2026 tillsynsbegäran mail.docx", "A 5834-2026")</f>
+        <v/>
+      </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 29067-2024</t>
+          <t>A 5866-2026</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45481.70640046296</v>
+        <v>46052.3075925926</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11366,8 +11356,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>10.4</v>
+        <v>3.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11404,14 +11399,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 29068-2024</t>
+          <t>A 63703-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45481.71290509259</v>
+        <v>46014.60188657408</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11424,7 +11419,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11461,14 +11456,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 38442-2023</t>
+          <t>A 7947-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45162.39668981481</v>
+        <v>45350</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11481,7 +11476,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11518,14 +11513,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 19079-2025</t>
+          <t>A 55991-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45766.61758101852</v>
+        <v>44889</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11538,7 +11533,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11575,14 +11570,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 5324-2025</t>
+          <t>A 17116-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45692.5303125</v>
+        <v>45034.58351851852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11595,7 +11590,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11632,14 +11627,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 13631-2024</t>
+          <t>A 15567-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45390.41417824074</v>
+        <v>44662</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11652,7 +11647,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>16.4</v>
+        <v>1.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11689,14 +11684,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 37063-2024</t>
+          <t>A 21630-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45539.45819444444</v>
+        <v>45442.32711805555</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11709,7 +11704,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>8.800000000000001</v>
+        <v>4.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11746,14 +11741,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 15159-2023</t>
+          <t>A 13382-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45016.58609953704</v>
+        <v>45005.50784722222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11765,13 +11760,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11815,7 +11805,7 @@
         <v>45299</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11865,14 +11855,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 13975-2023</t>
+          <t>A 13887-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45008</v>
+        <v>45391.61759259259</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11885,7 +11875,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.2</v>
+        <v>11.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11922,14 +11912,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 33527-2021</t>
+          <t>A 47509-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44377.79693287037</v>
+        <v>45587.60949074074</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11942,7 +11932,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11979,14 +11969,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 8071-2024</t>
+          <t>A 14929-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45351</v>
+        <v>45398.64460648148</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11999,7 +11989,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.6</v>
+        <v>5.1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12036,14 +12026,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 6489-2025</t>
+          <t>A 11104-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45699.62678240741</v>
+        <v>45371.32724537037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12056,7 +12046,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12093,14 +12083,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 45469-2024</t>
+          <t>A 28910-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45576.73229166667</v>
+        <v>45480.65789351852</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12113,7 +12103,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>7.2</v>
+        <v>1.7</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12150,14 +12140,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 406-2024</t>
+          <t>A 1382-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45296</v>
+        <v>45303.56011574074</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12170,7 +12160,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>4.8</v>
+        <v>1.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12207,14 +12197,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 62730-2023</t>
+          <t>A 17114-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45268</v>
+        <v>45034.58234953704</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12227,7 +12217,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12264,14 +12254,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 49879-2023</t>
+          <t>A 43767-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45213</v>
+        <v>45187.50667824074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12284,7 +12274,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12321,14 +12311,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 5420-2025</t>
+          <t>A 38522-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45692.68938657407</v>
+        <v>45546.56513888889</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12340,8 +12330,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>0.6</v>
+        <v>5.3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12378,14 +12373,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 21304-2025</t>
+          <t>A 13631-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45781.36851851852</v>
+        <v>45390.41417824074</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12398,7 +12393,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.3</v>
+        <v>16.4</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12435,14 +12430,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 3867-2025</t>
+          <t>A 38383-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45684</v>
+        <v>44812</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12455,7 +12450,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12492,14 +12487,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 21617-2024</t>
+          <t>A 37508-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45441.97630787037</v>
+        <v>45158.42202546296</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12512,7 +12507,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>9.699999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12549,14 +12544,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 30724-2024</t>
+          <t>A 37509-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45496</v>
+        <v>45158.43357638889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12569,7 +12564,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12606,14 +12601,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 22561-2025</t>
+          <t>A 15159-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45789.3449537037</v>
+        <v>45016.58609953704</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12625,8 +12620,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12663,14 +12663,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 11329-2025</t>
+          <t>A 37510-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45726.47752314815</v>
+        <v>45158</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>4.6</v>
+        <v>2.1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12720,14 +12720,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 23509-2025</t>
+          <t>A 49879-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45792.49081018518</v>
+        <v>45213</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12777,14 +12777,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 23374-2025</t>
+          <t>A 44445-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45791.77096064815</v>
+        <v>45189.37668981482</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12834,14 +12834,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 12790-2025</t>
+          <t>A 33991-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45733.60599537037</v>
+        <v>45134.90613425926</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12891,14 +12891,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 12782-2025</t>
+          <t>A 5328-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45733.59701388889</v>
+        <v>45692.53454861111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12948,14 +12948,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 12243-2025</t>
+          <t>A 21304-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45729</v>
+        <v>45781.36851851852</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>10.2</v>
+        <v>2.3</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13005,14 +13005,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 14891-2025</t>
+          <t>A 3867-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45743.47010416666</v>
+        <v>45684</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13062,14 +13062,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 24053-2025</t>
+          <t>A 21617-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45796</v>
+        <v>45441.97630787037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13082,7 +13082,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>11.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13119,14 +13119,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 5743-2025</t>
+          <t>A 22561-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45694.52391203704</v>
+        <v>45789.3449537037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13176,14 +13176,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 7819-2025</t>
+          <t>A 12782-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45706.63945601852</v>
+        <v>45733.59701388889</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>5.6</v>
+        <v>0.9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13233,14 +13233,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 5740-2025</t>
+          <t>A 12790-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45694.5205324074</v>
+        <v>45733.60599537037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13290,14 +13290,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 6384-2025</t>
+          <t>A 12243-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45699.42287037037</v>
+        <v>45729</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2</v>
+        <v>10.2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13347,14 +13347,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 36984-2024</t>
+          <t>A 11329-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45539.32334490741</v>
+        <v>45726.47752314815</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.7</v>
+        <v>4.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13404,14 +13404,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 27222-2025</t>
+          <t>A 14891-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45812.42443287037</v>
+        <v>45743.47010416666</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13461,14 +13461,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 27620-2025</t>
+          <t>A 30724-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45813.54954861111</v>
+        <v>45496</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13518,14 +13518,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 28515-2025</t>
+          <t>A 23374-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45819.48321759259</v>
+        <v>45791.77096064815</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13575,14 +13575,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 35420-2025</t>
+          <t>A 23509-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45855.41025462963</v>
+        <v>45792.49081018518</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13632,14 +13632,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 35416-2025</t>
+          <t>A 5743-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45855.40481481481</v>
+        <v>45694.52391203704</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13689,14 +13689,14 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 35717-2025</t>
+          <t>A 24053-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45860.42960648148</v>
+        <v>45796</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.6</v>
+        <v>11.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>

--- a/Översikt LILLA EDET.xlsx
+++ b/Översikt LILLA EDET.xlsx
@@ -575,7 +575,7 @@
         <v>45295</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45827</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>45295</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45272</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>45139</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>45462</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>45187</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>45819.48106481481</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
         <v>45986.36528935185</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>45072</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>46044.42456018519</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>45832.45538194444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>46036.9100925926</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>45072</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>45296.57905092592</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>45390</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>45072</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>45072</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>45089</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>45400.8005787037</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>44759</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>45924.31385416666</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>45617.40755787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>45343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>45986.36644675926</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44812</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44309.35467592593</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44363</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44251</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>44581</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44875.56251157408</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>44637</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>44685.67520833333</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>44760</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44319.62640046296</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44720.45840277777</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>44365.70123842593</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>44365.70269675926</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>44627</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>44343.5096412037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>44298.46679398148</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44280</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44377.80355324074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>44425.45646990741</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>44476.53376157407</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>44467</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>44803.87314814814</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>44246</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>44812.72657407408</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44252</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>44363</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44363</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>44256</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>44826.6478125</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>44337.31774305556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>44462</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44811.6625462963</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>44760</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>44760</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>44565.47288194444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>44242</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>44627.32611111111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>44489</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>45162.39668981481</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>44377.79693287037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>45378.36106481482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>45594.35560185185</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>45329.44875</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>45092</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>45187.50803240741</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>44473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>45766.61758101852</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>45296</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>45706.63945601852</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>45205</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>45772</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>45587.61174768519</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>45646.46203703704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>45694.5205324074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>45699.42287037037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>45539.32334490741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>45677.67715277777</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>45812.42443287037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>45813.54954861111</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>45693.60490740741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>45098.95484953704</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>45539.45819444444</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>45664.58135416666</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>45819.48321759259</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>45000</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>45902.51219907407</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>45902.50689814815</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>45902.51023148148</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>45902.51596064815</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>45902.51922453703</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44516.53974537037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>45855.41179398148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>45908.6132175926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>45119.61793981482</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>44889</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>45915.56895833334</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>44826.63782407407</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>45000</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>45912.37804398148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>45918.54886574074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>44974</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>45918.5504050926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>45918.54420138889</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>45918.54668981482</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>45119.61902777778</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>45751.58628472222</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>44896</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>45936.65984953703</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>45936.65829861111</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>45938.40711805555</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>45737</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>45600.81916666667</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>45371.32438657407</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>45974</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>44234</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>45350</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>45855.40481481481</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>45855.41025462963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>45860.42960648148</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>45006.54443287037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>45351</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>45008</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>44671</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44960</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>45875.64939814815</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>45554.3884375</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>45246.79032407407</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>45576.73229166667</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>45098.95337962963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>45875</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>45093</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>45733.59857638889</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>45860.4315162037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>45971.33519675926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>45295</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>45978.49476851852</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45978.4962962963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>45855.4134837963</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>45653.50980324074</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>45481.69738425926</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>45481.70640046296</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>45481.71290509259</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>45324.41422453704</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>45324.41612268519</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>44811.94373842593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>45692.68938657407</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>44869</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>45699.62678240741</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>44615.44694444445</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>45582.67883101852</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44299</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>45480.54913194444</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>46036.51820601852</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>46036.91210648148</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>44915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>45001</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>45268</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>45373.39337962963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>45692.5303125</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>46001.61959490741</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>46002.52787037037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>45694.7127662037</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>44883</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>45772</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>45225.33118055556</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>45134.92311342592</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>45134.92869212963</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>46052.33366898148</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>46052.3075925926</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>46014.60188657408</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>45350</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>44889</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>45034.58351851852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>44662</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>45442.32711805555</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>45005.50784722222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>45299</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>45391.61759259259</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>45587.60949074074</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>45398.64460648148</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>45371.32724537037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>45480.65789351852</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>45303.56011574074</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>45034.58234953704</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>45187.50667824074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         <v>45546.56513888889</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45390.41417824074</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>44812</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45158.42202546296</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>45158.43357638889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>45016.58609953704</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>45158</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>45213</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>45189.37668981482</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>45134.90613425926</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12898,7 +12898,7 @@
         <v>45692.53454861111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>45781.36851851852</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13012,7 +13012,7 @@
         <v>45684</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13069,7 +13069,7 @@
         <v>45441.97630787037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>45789.3449537037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13183,7 +13183,7 @@
         <v>45733.59701388889</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13240,7 +13240,7 @@
         <v>45733.60599537037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13297,7 +13297,7 @@
         <v>45729</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13354,7 +13354,7 @@
         <v>45726.47752314815</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         <v>45743.47010416666</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13468,7 +13468,7 @@
         <v>45496</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13525,7 +13525,7 @@
         <v>45791.77096064815</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         <v>45792.49081018518</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>45694.52391203704</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>45796</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>

--- a/Översikt LILLA EDET.xlsx
+++ b/Översikt LILLA EDET.xlsx
@@ -575,7 +575,7 @@
         <v>45295</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45827</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>45295</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45272</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>45139</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>45462</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>45187</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>45819.48106481481</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
         <v>45986.36528935185</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>45072</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>46044.42456018519</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>45832.45538194444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>46036.9100925926</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>45072</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>45296.57905092592</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>45390</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>45072</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>45072</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>45089</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>45400.8005787037</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>44759</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>45924.31385416666</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>45617.40755787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>45343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>45986.36644675926</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44812</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44309.35467592593</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44363</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44251</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>44581</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44875.56251157408</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>44637</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>44685.67520833333</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>44760</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44319.62640046296</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44720.45840277777</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>44365.70123842593</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>44365.70269675926</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>44627</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>44343.5096412037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>44298.46679398148</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44280</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44377.80355324074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>44425.45646990741</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>44476.53376157407</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>44467</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>44803.87314814814</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>44246</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>44812.72657407408</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44252</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>44363</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44363</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>44256</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>44826.6478125</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>44337.31774305556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>44462</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44811.6625462963</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>44760</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>44760</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>44565.47288194444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>44242</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>44627.32611111111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>44489</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>45162.39668981481</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>44377.79693287037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>45378.36106481482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>45594.35560185185</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>45329.44875</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>45092</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>45187.50803240741</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>44473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>45766.61758101852</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>45296</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>45706.63945601852</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>45205</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>45772</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>45587.61174768519</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>45646.46203703704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>45694.5205324074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>45699.42287037037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>45539.32334490741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>45677.67715277777</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>45812.42443287037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>45813.54954861111</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>45693.60490740741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>45098.95484953704</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>45539.45819444444</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>45664.58135416666</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>45819.48321759259</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>45000</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>45902.51219907407</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>45902.50689814815</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>45902.51023148148</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>45902.51596064815</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>45902.51922453703</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44516.53974537037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>45855.41179398148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>45908.6132175926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>45119.61793981482</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>44889</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>45915.56895833334</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>44826.63782407407</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>45000</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>45912.37804398148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>45918.54886574074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>44974</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>45918.5504050926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>45918.54420138889</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>45918.54668981482</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>45119.61902777778</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>45751.58628472222</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>44896</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>45936.65984953703</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>45936.65829861111</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>45938.40711805555</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>45737</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>45600.81916666667</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>45371.32438657407</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>45974</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>44234</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>45350</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>45855.40481481481</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>45855.41025462963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>45860.42960648148</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>45006.54443287037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>45351</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>45008</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>44671</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>44960</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>45875.64939814815</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>45554.3884375</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>45246.79032407407</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>45576.73229166667</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>45098.95337962963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>45875</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>45093</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>45733.59857638889</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>45860.4315162037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>45971.33519675926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>45295</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>45978.49476851852</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45978.4962962963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>45855.4134837963</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>45653.50980324074</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>45481.69738425926</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>45481.70640046296</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>45481.71290509259</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>45324.41422453704</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>45324.41612268519</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>44811.94373842593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>45692.68938657407</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>44869</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>45699.62678240741</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>44615.44694444445</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>45582.67883101852</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44299</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>45480.54913194444</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>46036.51820601852</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>46036.91210648148</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>44915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>45001</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>45268</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>45373.39337962963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>45692.5303125</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>46001.61959490741</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>46002.52787037037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>45694.7127662037</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>44883</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>45772</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>45225.33118055556</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>45134.92311342592</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>45134.92869212963</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>46052.33366898148</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>46052.3075925926</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>46014.60188657408</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>45350</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>44889</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>45034.58351851852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>44662</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>45442.32711805555</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>45005.50784722222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>45299</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>45391.61759259259</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>45587.60949074074</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>45398.64460648148</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>45371.32724537037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>45480.65789351852</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>45303.56011574074</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>45034.58234953704</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>45187.50667824074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         <v>45546.56513888889</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45390.41417824074</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>44812</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45158.42202546296</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>45158.43357638889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>45016.58609953704</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>45158</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>45213</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>45189.37668981482</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>45134.90613425926</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12898,7 +12898,7 @@
         <v>45692.53454861111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>45781.36851851852</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13012,7 +13012,7 @@
         <v>45684</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13069,7 +13069,7 @@
         <v>45441.97630787037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>45789.3449537037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13183,7 +13183,7 @@
         <v>45733.59701388889</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13240,7 +13240,7 @@
         <v>45733.60599537037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13297,7 +13297,7 @@
         <v>45729</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13354,7 +13354,7 @@
         <v>45726.47752314815</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         <v>45743.47010416666</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13468,7 +13468,7 @@
         <v>45496</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13525,7 +13525,7 @@
         <v>45791.77096064815</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         <v>45792.49081018518</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>45694.52391203704</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>45796</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>

--- a/Översikt LILLA EDET.xlsx
+++ b/Översikt LILLA EDET.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z216"/>
+  <dimension ref="A1:Z215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45295</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45827</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>45295</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45272</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>45139</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>45462</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1147,14 +1147,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 43771-2023</t>
+          <t>A 58567-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45187</v>
+        <v>45986.36528935185</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1167,22 +1167,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.7</v>
+        <v>17.9</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1194,12 +1194,196 @@
         <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>4</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Skogshare
+Spillkråka
+Kungsfågel
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 58567-2025 artfynd.xlsx", "A 58567-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 58567-2025 karta.png", "A 58567-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 58567-2025 FSC-klagomål.docx", "A 58567-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 58567-2025 FSC-klagomål mail.docx", "A 58567-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 58567-2025 tillsynsbegäran.docx", "A 58567-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 58567-2025 tillsynsbegäran mail.docx", "A 58567-2025")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 58567-2025 prioriterade fågelarter.docx", "A 58567-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 28512-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45819.48106481481</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa
+Västlig hakmossa
+Tjäder</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 28512-2025 artfynd.xlsx", "A 28512-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 28512-2025 karta.png", "A 28512-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 28512-2025 FSC-klagomål.docx", "A 28512-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 28512-2025 FSC-klagomål mail.docx", "A 28512-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 28512-2025 tillsynsbegäran.docx", "A 28512-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 28512-2025 tillsynsbegäran mail.docx", "A 28512-2025")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 28512-2025 prioriterade fågelarter.docx", "A 28512-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 43771-2023</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Ask
 Slåtterfibbla
@@ -1207,212 +1391,28 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 43771-2023 artfynd.xlsx", "A 43771-2023")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 43771-2023 karta.png", "A 43771-2023")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 43771-2023 FSC-klagomål.docx", "A 43771-2023")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 43771-2023 FSC-klagomål mail.docx", "A 43771-2023")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 43771-2023 tillsynsbegäran.docx", "A 43771-2023")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 43771-2023 tillsynsbegäran mail.docx", "A 43771-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 28512-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45819.48106481481</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>4</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa
-Västlig hakmossa
-Tjäder</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 28512-2025 artfynd.xlsx", "A 28512-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 28512-2025 karta.png", "A 28512-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 28512-2025 FSC-klagomål.docx", "A 28512-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 28512-2025 FSC-klagomål mail.docx", "A 28512-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 28512-2025 tillsynsbegäran.docx", "A 28512-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 28512-2025 tillsynsbegäran mail.docx", "A 28512-2025")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 28512-2025 prioriterade fågelarter.docx", "A 28512-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 58567-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45986.36528935185</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Skogshare
-Spillkråka
-Kungsfågel
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 58567-2025 artfynd.xlsx", "A 58567-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 58567-2025 karta.png", "A 58567-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 58567-2025 FSC-klagomål.docx", "A 58567-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 58567-2025 FSC-klagomål mail.docx", "A 58567-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 58567-2025 tillsynsbegäran.docx", "A 58567-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 58567-2025 tillsynsbegäran mail.docx", "A 58567-2025")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 58567-2025 prioriterade fågelarter.docx", "A 58567-2025")</f>
         <v/>
       </c>
     </row>
@@ -1426,7 +1426,7 @@
         <v>45072</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>46044.42456018519</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>45832.45538194444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,14 +1692,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 2437-2026</t>
+          <t>A 23559-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>46036.9100925926</v>
+        <v>45072</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,17 +1711,22 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>6.8</v>
+        <v>1.7</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1736,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1746,218 +1751,213 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23559-2023 artfynd.xlsx", "A 23559-2023")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23559-2023 karta.png", "A 23559-2023")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23559-2023 FSC-klagomål.docx", "A 23559-2023")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23559-2023 FSC-klagomål mail.docx", "A 23559-2023")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23559-2023 tillsynsbegäran.docx", "A 23559-2023")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23559-2023 tillsynsbegäran mail.docx", "A 23559-2023")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 23559-2023 prioriterade fågelarter.docx", "A 23559-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 434-2024</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45296.57905092592</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Västlig hakmossa
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 434-2024 artfynd.xlsx", "A 434-2024")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 434-2024 karta.png", "A 434-2024")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 434-2024 FSC-klagomål.docx", "A 434-2024")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 434-2024 FSC-klagomål mail.docx", "A 434-2024")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 434-2024 tillsynsbegäran.docx", "A 434-2024")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 434-2024 tillsynsbegäran mail.docx", "A 434-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 2437-2026</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>46036.9100925926</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
           <t>Sårläka
 Vätteros</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 2437-2026 artfynd.xlsx", "A 2437-2026")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 2437-2026 karta.png", "A 2437-2026")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 2437-2026 FSC-klagomål.docx", "A 2437-2026")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 2437-2026 FSC-klagomål mail.docx", "A 2437-2026")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 2437-2026 tillsynsbegäran.docx", "A 2437-2026")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 2437-2026 tillsynsbegäran mail.docx", "A 2437-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 23559-2023</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45072</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23559-2023 artfynd.xlsx", "A 23559-2023")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23559-2023 karta.png", "A 23559-2023")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23559-2023 FSC-klagomål.docx", "A 23559-2023")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23559-2023 FSC-klagomål mail.docx", "A 23559-2023")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23559-2023 tillsynsbegäran.docx", "A 23559-2023")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23559-2023 tillsynsbegäran mail.docx", "A 23559-2023")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 23559-2023 prioriterade fågelarter.docx", "A 23559-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 434-2024</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45296.57905092592</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Västlig hakmossa
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 434-2024 artfynd.xlsx", "A 434-2024")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 434-2024 karta.png", "A 434-2024")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 434-2024 FSC-klagomål.docx", "A 434-2024")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 434-2024 FSC-klagomål mail.docx", "A 434-2024")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 434-2024 tillsynsbegäran.docx", "A 434-2024")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 434-2024 tillsynsbegäran mail.docx", "A 434-2024")</f>
         <v/>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
         <v>45390</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2054,14 +2054,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 23497-2023</t>
+          <t>A 30273-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45072</v>
+        <v>44759</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2073,23 +2073,18 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>1.6</v>
+        <v>12.5</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
@@ -2103,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2113,45 +2108,49 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Ärtsångare</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23497-2023 artfynd.xlsx", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 30273-2022 artfynd.xlsx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23497-2023 karta.png", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 30273-2022 karta.png", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23497-2023 FSC-klagomål.docx", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 30273-2022 FSC-klagomål.docx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23497-2023 FSC-klagomål mail.docx", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 30273-2022 FSC-klagomål mail.docx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23497-2023 tillsynsbegäran.docx", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 30273-2022 tillsynsbegäran.docx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23497-2023 tillsynsbegäran mail.docx", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 30273-2022 tillsynsbegäran mail.docx", "A 30273-2022")</f>
+        <v/>
+      </c>
+      <c r="Z18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 30273-2022 prioriterade fågelarter.docx", "A 30273-2022")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 23494-2023</t>
+          <t>A 23497-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
         <v>45072</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2169,16 +2168,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2193,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2203,49 +2202,45 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23494-2023 artfynd.xlsx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23497-2023 artfynd.xlsx", "A 23497-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23494-2023 karta.png", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23497-2023 karta.png", "A 23497-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23494-2023 FSC-klagomål.docx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23497-2023 FSC-klagomål.docx", "A 23497-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23494-2023 FSC-klagomål mail.docx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23497-2023 FSC-klagomål mail.docx", "A 23497-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23494-2023 tillsynsbegäran.docx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23497-2023 tillsynsbegäran.docx", "A 23497-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23494-2023 tillsynsbegäran mail.docx", "A 23494-2023")</f>
-        <v/>
-      </c>
-      <c r="Z19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 23494-2023 prioriterade fågelarter.docx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23497-2023 tillsynsbegäran mail.docx", "A 23497-2023")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 25655-2023</t>
+          <t>A 54358-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45089</v>
+        <v>45617.40755787037</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,16 +2253,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5.1</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2282,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2292,45 +2287,45 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Bergjohannesört</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 25655-2023 artfynd.xlsx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 54358-2024 artfynd.xlsx", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 25655-2023 karta.png", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 54358-2024 karta.png", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 25655-2023 FSC-klagomål.docx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 54358-2024 FSC-klagomål.docx", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 25655-2023 FSC-klagomål mail.docx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 54358-2024 FSC-klagomål mail.docx", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 25655-2023 tillsynsbegäran.docx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 54358-2024 tillsynsbegäran.docx", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 25655-2023 tillsynsbegäran mail.docx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 54358-2024 tillsynsbegäran mail.docx", "A 54358-2024")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 15351-2024</t>
+          <t>A 23494-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45400.8005787037</v>
+        <v>45072</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2348,10 +2343,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2382,45 +2377,49 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Guldsandbi</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 15351-2024 artfynd.xlsx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23494-2023 artfynd.xlsx", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 15351-2024 karta.png", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23494-2023 karta.png", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 15351-2024 FSC-klagomål.docx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23494-2023 FSC-klagomål.docx", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 15351-2024 FSC-klagomål mail.docx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23494-2023 FSC-klagomål mail.docx", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 15351-2024 tillsynsbegäran.docx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23494-2023 tillsynsbegäran.docx", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 15351-2024 tillsynsbegäran mail.docx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23494-2023 tillsynsbegäran mail.docx", "A 23494-2023")</f>
+        <v/>
+      </c>
+      <c r="Z21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 23494-2023 prioriterade fågelarter.docx", "A 23494-2023")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 30273-2022</t>
+          <t>A 45941-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44759</v>
+        <v>45924.31385416666</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2433,10 +2432,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>12.5</v>
+        <v>1.2</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2467,49 +2466,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Ärtsångare</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 30273-2022 artfynd.xlsx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 45941-2025 artfynd.xlsx", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 30273-2022 karta.png", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 45941-2025 karta.png", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 30273-2022 FSC-klagomål.docx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 45941-2025 FSC-klagomål.docx", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 30273-2022 FSC-klagomål mail.docx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 45941-2025 FSC-klagomål mail.docx", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 30273-2022 tillsynsbegäran.docx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 45941-2025 tillsynsbegäran.docx", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 30273-2022 tillsynsbegäran mail.docx", "A 30273-2022")</f>
-        <v/>
-      </c>
-      <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 30273-2022 prioriterade fågelarter.docx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 45941-2025 tillsynsbegäran mail.docx", "A 45941-2025")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 45941-2025</t>
+          <t>A 25655-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45924.31385416666</v>
+        <v>45089</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2522,7 +2517,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.2</v>
+        <v>5.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2556,45 +2551,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Bergjohannesört</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 45941-2025 artfynd.xlsx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 25655-2023 artfynd.xlsx", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 45941-2025 karta.png", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 25655-2023 karta.png", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 45941-2025 FSC-klagomål.docx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 25655-2023 FSC-klagomål.docx", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 45941-2025 FSC-klagomål mail.docx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 25655-2023 FSC-klagomål mail.docx", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 45941-2025 tillsynsbegäran.docx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 25655-2023 tillsynsbegäran.docx", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 45941-2025 tillsynsbegäran mail.docx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 25655-2023 tillsynsbegäran mail.docx", "A 25655-2023")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 54358-2024</t>
+          <t>A 15351-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45617.40755787037</v>
+        <v>45400.8005787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2604,20 +2599,25 @@
       <c r="E24" t="inlineStr">
         <is>
           <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G24" t="n">
         <v>3</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2641,31 +2641,31 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Guldsandbi</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 54358-2024 artfynd.xlsx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 15351-2024 artfynd.xlsx", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 54358-2024 karta.png", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 15351-2024 karta.png", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 54358-2024 FSC-klagomål.docx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 15351-2024 FSC-klagomål.docx", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 54358-2024 FSC-klagomål mail.docx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 15351-2024 FSC-klagomål mail.docx", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 54358-2024 tillsynsbegäran.docx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 15351-2024 tillsynsbegäran.docx", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 54358-2024 tillsynsbegäran mail.docx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 15351-2024 tillsynsbegäran mail.docx", "A 15351-2024")</f>
         <v/>
       </c>
     </row>
@@ -2679,7 +2679,7 @@
         <v>45343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>45986.36644675926</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44812</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44309.35467592593</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44363</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44251</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>44581</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44875.56251157408</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>44637</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>44685.67520833333</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>44760</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44319.62640046296</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44720.45840277777</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>44365.70123842593</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>44365.70269675926</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>44627</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>44343.5096412037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>44298.46679398148</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44280</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44377.80355324074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>44425.45646990741</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>44476.53376157407</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>44467</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>44803.87314814814</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4105,14 +4105,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 8830-2021</t>
+          <t>A 38386-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44246</v>
+        <v>44812.72657407408</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4162,14 +4162,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 38386-2022</t>
+          <t>A 8830-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44812.72657407408</v>
+        <v>44246</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4226,7 +4226,7 @@
         <v>44252</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>44363</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44363</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>44256</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>44826.6478125</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>44337.31774305556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>44462</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44811.6625462963</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>44760</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>44760</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>44565.47288194444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>44242</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>44627.32611111111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4960,14 +4960,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 58750-2021</t>
+          <t>A 49384-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44489</v>
+        <v>45205</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4979,8 +4979,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5017,14 +5022,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 38442-2023</t>
+          <t>A 12234-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45162.39668981481</v>
+        <v>45378.36106481482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5037,7 +5042,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5074,14 +5079,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 33527-2021</t>
+          <t>A 13887-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44377.79693287037</v>
+        <v>45391.61759259259</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5094,7 +5099,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.3</v>
+        <v>11.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5131,14 +5136,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 12234-2024</t>
+          <t>A 61284-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45378.36106481482</v>
+        <v>44915</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5151,7 +5156,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5188,14 +5193,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 48904-2024</t>
+          <t>A 52431-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45594.35560185185</v>
+        <v>45225.33118055556</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5208,7 +5213,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5245,14 +5250,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 4881-2024</t>
+          <t>A 55972-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45329.44875</v>
+        <v>44889</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5265,7 +5270,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5302,14 +5307,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 26443-2023</t>
+          <t>A 33993-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45092</v>
+        <v>45134.92311342592</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5322,7 +5327,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5359,14 +5364,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 43770-2023</t>
+          <t>A 33996-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45187.50803240741</v>
+        <v>45134.92869212963</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5379,7 +5384,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5416,14 +5421,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 54681-2021</t>
+          <t>A 65619-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44473</v>
+        <v>44516.53974537037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5436,7 +5441,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5473,14 +5478,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 19079-2025</t>
+          <t>A 11104-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45766.61758101852</v>
+        <v>45371.32724537037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5493,7 +5498,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5530,14 +5535,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 406-2024</t>
+          <t>A 51488-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45296</v>
+        <v>44869</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5550,7 +5555,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5587,14 +5592,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 7819-2025</t>
+          <t>A 28910-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45706.63945601852</v>
+        <v>45480.65789351852</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5607,7 +5612,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5.6</v>
+        <v>1.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5644,14 +5649,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 49384-2023</t>
+          <t>A 11604-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45205</v>
+        <v>45373.39337962963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5663,13 +5668,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5706,14 +5706,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 20037-2025</t>
+          <t>A 15567-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45772</v>
+        <v>44662</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5763,14 +5763,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 47511-2024</t>
+          <t>A 1382-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45587.61174768519</v>
+        <v>45303.56011574074</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5820,14 +5820,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 61435-2024</t>
+          <t>A 587-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45646.46203703704</v>
+        <v>45664.58135416666</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5877,14 +5877,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 5740-2025</t>
+          <t>A 7912-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45694.5205324074</v>
+        <v>45350</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5934,14 +5934,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 6384-2025</t>
+          <t>A 28515-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45699.42287037037</v>
+        <v>45819.48321759259</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5991,14 +5991,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 36984-2024</t>
+          <t>A 6323-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45539.32334490741</v>
+        <v>44960</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6010,8 +6010,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6048,14 +6053,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 2867-2025</t>
+          <t>A 12784-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45677.67715277777</v>
+        <v>45733.59857638889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6068,7 +6073,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>10.7</v>
+        <v>1.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6105,14 +6110,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 27222-2025</t>
+          <t>A 54804-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45812.42443287037</v>
+        <v>44883</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6125,7 +6130,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.3</v>
+        <v>22.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6162,14 +6167,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 27620-2025</t>
+          <t>A 2867-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45813.54954861111</v>
+        <v>45677.67715277777</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6182,7 +6187,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.7</v>
+        <v>10.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6219,14 +6224,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 5612-2025</t>
+          <t>A 8117-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45693.60490740741</v>
+        <v>44974</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6239,7 +6244,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.2</v>
+        <v>11</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6276,14 +6281,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 28022-2023</t>
+          <t>A 35423-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45098.95484953704</v>
+        <v>45855.4134837963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6296,7 +6301,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>5.7</v>
+        <v>3.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6333,14 +6338,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 37063-2024</t>
+          <t>A 12628-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45539.45819444444</v>
+        <v>45000</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6353,7 +6358,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>8.800000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6390,14 +6395,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 587-2025</t>
+          <t>A 50349-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45664.58135416666</v>
+        <v>45600.81916666667</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6410,7 +6415,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6447,14 +6452,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 28515-2025</t>
+          <t>A 41756-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45819.48321759259</v>
+        <v>45902.50689814815</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6467,7 +6472,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6504,14 +6509,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 12628-2023</t>
+          <t>A 41758-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45000</v>
+        <v>45902.51023148148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6524,7 +6529,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6561,14 +6566,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 41759-2025</t>
+          <t>A 41760-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45902.51219907407</v>
+        <v>45902.51596064815</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6581,7 +6586,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6618,14 +6623,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 41756-2025</t>
+          <t>A 41761-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45902.50689814815</v>
+        <v>45902.51922453703</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6638,7 +6643,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>6.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6675,14 +6680,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 41758-2025</t>
+          <t>A 41759-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45902.51023148148</v>
+        <v>45902.51219907407</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6695,7 +6700,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6732,14 +6737,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 41760-2025</t>
+          <t>A 28903-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45902.51596064815</v>
+        <v>45480.54913194444</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6752,7 +6757,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6789,14 +6794,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 41761-2025</t>
+          <t>A 35420-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45902.51922453703</v>
+        <v>45855.41025462963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6809,7 +6814,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>6.6</v>
+        <v>1.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6846,14 +6851,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 65619-2021</t>
+          <t>A 35416-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44516.53974537037</v>
+        <v>45855.40481481481</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6866,7 +6871,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6903,14 +6908,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 35422-2025</t>
+          <t>A 35717-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45855.41179398148</v>
+        <v>45860.42960648148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6923,7 +6928,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6960,14 +6965,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 42857-2025</t>
+          <t>A 35422-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45908.6132175926</v>
+        <v>45855.41179398148</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6980,7 +6985,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7017,14 +7022,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 32107-2023</t>
+          <t>A 12647-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45119.61793981482</v>
+        <v>45000</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7037,7 +7042,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7074,14 +7079,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 55972-2022</t>
+          <t>A 42857-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44889</v>
+        <v>45908.6132175926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7094,7 +7099,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7131,14 +7136,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 44104-2025</t>
+          <t>A 32107-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45915.56895833334</v>
+        <v>45119.61793981482</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7151,7 +7156,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7188,14 +7193,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 41411-2022</t>
+          <t>A 43684-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44826.63782407407</v>
+        <v>45912.37804398148</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7208,7 +7213,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7245,14 +7250,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 12647-2023</t>
+          <t>A 5328-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45000</v>
+        <v>45692.53454861111</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7265,7 +7270,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7302,14 +7307,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 43684-2025</t>
+          <t>A 37510-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45912.37804398148</v>
+        <v>45158</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7322,7 +7327,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7359,14 +7364,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 44916-2025</t>
+          <t>A 44104-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45918.54886574074</v>
+        <v>45915.56895833334</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7379,7 +7384,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7416,14 +7421,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 8117-2023</t>
+          <t>A 37190-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44974</v>
+        <v>45875.64939814815</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7436,7 +7441,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>11</v>
+        <v>3.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7473,14 +7478,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 44918-2025</t>
+          <t>A 44914-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45918.5504050926</v>
+        <v>45918.54420138889</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7493,7 +7498,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>5.7</v>
+        <v>2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7530,14 +7535,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 44914-2025</t>
+          <t>A 44915-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45918.54420138889</v>
+        <v>45918.54668981482</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7550,7 +7555,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7587,14 +7592,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 44915-2025</t>
+          <t>A 44918-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45918.54668981482</v>
+        <v>45918.5504050926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7607,7 +7612,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.2</v>
+        <v>5.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7644,14 +7649,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 32110-2023</t>
+          <t>A 44916-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45119.61902777778</v>
+        <v>45918.54886574074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7664,7 +7669,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7701,14 +7706,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 16489-2025</t>
+          <t>A 37152-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45751.58628472222</v>
+        <v>45875</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7721,7 +7726,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7758,14 +7763,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 57381-2022</t>
+          <t>A 35718-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44896</v>
+        <v>45860.4315162037</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7778,7 +7783,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.7</v>
+        <v>7.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7815,14 +7820,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 48730-2025</t>
+          <t>A 61952-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45936.65984953703</v>
+        <v>45653.50980324074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7835,7 +7840,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7872,14 +7877,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 48727-2025</t>
+          <t>A 57381-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45936.65829861111</v>
+        <v>44896</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7892,7 +7897,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>6.1</v>
+        <v>2.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7929,14 +7934,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 49188-2025</t>
+          <t>A 48727-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45938.40711805555</v>
+        <v>45936.65829861111</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7949,7 +7954,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.7</v>
+        <v>6.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7986,14 +7991,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 13801-2025</t>
+          <t>A 48730-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45737</v>
+        <v>45936.65984953703</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8006,7 +8011,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8043,14 +8048,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 50349-2024</t>
+          <t>A 13801-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45600.81916666667</v>
+        <v>45737</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8063,7 +8068,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8100,14 +8105,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 11102-2024</t>
+          <t>A 49188-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45371.32438657407</v>
+        <v>45938.40711805555</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8120,7 +8125,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8164,7 +8169,7 @@
         <v>45974</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8214,14 +8219,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 6193-2021</t>
+          <t>A 38383-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44234</v>
+        <v>44812</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8234,7 +8239,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8271,14 +8276,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 7912-2024</t>
+          <t>A 26886-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45350</v>
+        <v>45093</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8291,7 +8296,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8328,14 +8333,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 35416-2025</t>
+          <t>A 16489-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45855.40481481481</v>
+        <v>45751.58628472222</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8385,14 +8390,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 35420-2025</t>
+          <t>A 28022-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45855.41025462963</v>
+        <v>45098.95484953704</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8405,7 +8410,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.6</v>
+        <v>5.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8442,14 +8447,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 35717-2025</t>
+          <t>A 26443-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45860.42960648148</v>
+        <v>45092</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8462,7 +8467,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8499,14 +8504,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 13581-2023</t>
+          <t>A 17114-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45006.54443287037</v>
+        <v>45034.58234953704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8518,13 +8523,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8561,14 +8561,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 8071-2024</t>
+          <t>A 58750-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45351</v>
+        <v>44489</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8618,14 +8618,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 13975-2023</t>
+          <t>A 7947-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45008</v>
+        <v>45350</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8675,14 +8675,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 16473-2022</t>
+          <t>A 32110-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44671</v>
+        <v>45119.61902777778</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8732,14 +8732,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 6323-2023</t>
+          <t>A 13581-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44960</v>
+        <v>45006.54443287037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8753,11 +8753,11 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8794,14 +8794,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 37190-2025</t>
+          <t>A 55324-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45875.64939814815</v>
+        <v>45971.33519675926</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8813,8 +8813,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8851,14 +8856,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 40092-2024</t>
+          <t>A 55991-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45554.3884375</v>
+        <v>44889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8871,7 +8876,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8908,14 +8913,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 57754-2023</t>
+          <t>A 54681-2021</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45246.79032407407</v>
+        <v>44473</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8928,7 +8933,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8965,14 +8970,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 45469-2024</t>
+          <t>A 11102-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45576.73229166667</v>
+        <v>45371.32438657407</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8985,7 +8990,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>7.2</v>
+        <v>2.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9022,14 +9027,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 28021-2023</t>
+          <t>A 5811-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45098.95337962963</v>
+        <v>45694.7127662037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9042,7 +9047,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9079,14 +9084,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 37152-2025</t>
+          <t>A 56854-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45875</v>
+        <v>45978.49476851852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9099,7 +9104,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.6</v>
+        <v>6.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9136,14 +9141,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 26886-2023</t>
+          <t>A 56855-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45093</v>
+        <v>45978.4962962963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9156,7 +9161,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9193,14 +9198,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 12784-2025</t>
+          <t>A 47511-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45733.59857638889</v>
+        <v>45587.61174768519</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9213,7 +9218,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9250,14 +9255,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 35718-2025</t>
+          <t>A 43770-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45860.4315162037</v>
+        <v>45187.50803240741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9270,7 +9275,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>7.6</v>
+        <v>0.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9307,14 +9312,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 55324-2025</t>
+          <t>A 4881-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45971.33519675926</v>
+        <v>45329.44875</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9326,13 +9331,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9369,14 +9369,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 302-2024</t>
+          <t>A 46561-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45295</v>
+        <v>45582.67883101852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9388,13 +9388,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>2.3</v>
+        <v>12.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9431,14 +9426,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 56854-2025</t>
+          <t>A 47509-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45978.49476851852</v>
+        <v>45587.60949074074</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9451,7 +9446,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>6.4</v>
+        <v>2.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9488,14 +9483,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 56855-2025</t>
+          <t>A 9046-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45978.4962962963</v>
+        <v>44615.44694444445</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9508,7 +9503,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9545,14 +9540,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 35423-2025</t>
+          <t>A 2226-2026</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45855.4134837963</v>
+        <v>46036.51820601852</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9565,7 +9560,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9602,14 +9597,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 61952-2024</t>
+          <t>A 20031-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45653.50980324074</v>
+        <v>45772</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9622,7 +9617,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4.2</v>
+        <v>6.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9659,14 +9654,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 29066-2024</t>
+          <t>A 2438-2026</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45481.69738425926</v>
+        <v>46036.91210648148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9679,7 +9674,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>7.9</v>
+        <v>2.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9716,14 +9711,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 29067-2024</t>
+          <t>A 61435-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45481.70640046296</v>
+        <v>45646.46203703704</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9736,7 +9731,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>10.4</v>
+        <v>0.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9773,14 +9768,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 29068-2024</t>
+          <t>A 61475-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45481.71290509259</v>
+        <v>46001.61959490741</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9793,7 +9788,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.8</v>
+        <v>4.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9830,14 +9825,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 4225-2024</t>
+          <t>A 61695-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45324.41422453704</v>
+        <v>46002.52787037037</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9850,7 +9845,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9887,14 +9882,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 4227-2024</t>
+          <t>A 14929-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45324.41612268519</v>
+        <v>45398.64460648148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9907,7 +9902,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.6</v>
+        <v>5.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9944,14 +9939,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 38093-2022</t>
+          <t>A 21630-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44811.94373842593</v>
+        <v>45442.32711805555</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9964,7 +9959,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.4</v>
+        <v>4.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10001,14 +9996,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 5420-2025</t>
+          <t>A 43767-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45692.68938657407</v>
+        <v>45187.50667824074</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10021,7 +10016,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10058,14 +10053,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 51488-2022</t>
+          <t>A 33991-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44869</v>
+        <v>45134.90613425926</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10078,7 +10073,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10115,14 +10110,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 6489-2025</t>
+          <t>A 5866-2026</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45699.62678240741</v>
+        <v>46052.3075925926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10134,8 +10129,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10172,14 +10172,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 9046-2022</t>
+          <t>A 5834-2026</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44615.44694444445</v>
+        <v>46052.33366898148</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10191,8 +10191,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>9.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10225,18 +10230,38 @@
         <v>0</v>
       </c>
       <c r="R155" s="2" t="inlineStr"/>
+      <c r="U155">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/knärot/A 5834-2026 karta knärot.png", "A 5834-2026")</f>
+        <v/>
+      </c>
+      <c r="V155">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 5834-2026 FSC-klagomål.docx", "A 5834-2026")</f>
+        <v/>
+      </c>
+      <c r="W155">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 5834-2026 FSC-klagomål mail.docx", "A 5834-2026")</f>
+        <v/>
+      </c>
+      <c r="X155">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 5834-2026 tillsynsbegäran.docx", "A 5834-2026")</f>
+        <v/>
+      </c>
+      <c r="Y155">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 5834-2026 tillsynsbegäran mail.docx", "A 5834-2026")</f>
+        <v/>
+      </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 46561-2024</t>
+          <t>A 41411-2022</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45582.67883101852</v>
+        <v>44826.63782407407</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10249,7 +10274,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>12.2</v>
+        <v>3.4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10286,14 +10311,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 17510-2021</t>
+          <t>A 63703-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44299</v>
+        <v>46014.60188657408</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10306,7 +10331,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.9</v>
+        <v>5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10343,14 +10368,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 28903-2024</t>
+          <t>A 4225-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45480.54913194444</v>
+        <v>45324.41422453704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10363,7 +10388,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10400,14 +10425,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 2226-2026</t>
+          <t>A 4227-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>46036.51820601852</v>
+        <v>45324.41612268519</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10420,7 +10445,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10457,14 +10482,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 2438-2026</t>
+          <t>A 37508-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>46036.91210648148</v>
+        <v>45158.42202546296</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10477,7 +10502,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.3</v>
+        <v>6.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10514,14 +10539,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 61284-2022</t>
+          <t>A 37509-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44915</v>
+        <v>45158.43357638889</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10534,7 +10559,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10571,14 +10596,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 12760-2023</t>
+          <t>A 13382-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45001</v>
+        <v>45005.50784722222</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10591,7 +10616,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10628,14 +10653,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 62730-2023</t>
+          <t>A 38093-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45268</v>
+        <v>44811.94373842593</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10648,7 +10673,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10685,14 +10710,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 11604-2024</t>
+          <t>A 38522-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45373.39337962963</v>
+        <v>45546.56513888889</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10704,8 +10729,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>2</v>
+        <v>5.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10742,14 +10772,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 5324-2025</t>
+          <t>A 16473-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45692.5303125</v>
+        <v>44671</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10762,7 +10792,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>5.1</v>
+        <v>1.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10799,14 +10829,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 61475-2025</t>
+          <t>A 20037-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46001.61959490741</v>
+        <v>45772</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10819,7 +10849,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10856,14 +10886,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 61695-2025</t>
+          <t>A 40092-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46002.52787037037</v>
+        <v>45554.3884375</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10876,7 +10906,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10913,14 +10943,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 5811-2025</t>
+          <t>A 57754-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45694.7127662037</v>
+        <v>45246.79032407407</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10933,7 +10963,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10970,14 +11000,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 54804-2022</t>
+          <t>A 48904-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44883</v>
+        <v>45594.35560185185</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10990,7 +11020,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>22.6</v>
+        <v>3.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11027,14 +11057,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 20031-2025</t>
+          <t>A 28021-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45772</v>
+        <v>45098.95337962963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11047,7 +11077,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>6.2</v>
+        <v>1.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11084,14 +11114,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 52431-2023</t>
+          <t>A 17510-2021</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45225.33118055556</v>
+        <v>44299</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11104,7 +11134,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11141,14 +11171,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 33993-2023</t>
+          <t>A 44445-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45134.92311342592</v>
+        <v>45189.37668981482</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11161,7 +11191,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11198,14 +11228,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 33996-2023</t>
+          <t>A 17116-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45134.92869212963</v>
+        <v>45034.58351851852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11218,7 +11248,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11255,14 +11285,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 5834-2026</t>
+          <t>A 12760-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>46052.33366898148</v>
+        <v>45001</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11274,13 +11304,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>9.9</v>
+        <v>1.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11313,38 +11338,18 @@
         <v>0</v>
       </c>
       <c r="R174" s="2" t="inlineStr"/>
-      <c r="U174">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/knärot/A 5834-2026 karta knärot.png", "A 5834-2026")</f>
-        <v/>
-      </c>
-      <c r="V174">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 5834-2026 FSC-klagomål.docx", "A 5834-2026")</f>
-        <v/>
-      </c>
-      <c r="W174">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 5834-2026 FSC-klagomål mail.docx", "A 5834-2026")</f>
-        <v/>
-      </c>
-      <c r="X174">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 5834-2026 tillsynsbegäran.docx", "A 5834-2026")</f>
-        <v/>
-      </c>
-      <c r="Y174">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 5834-2026 tillsynsbegäran mail.docx", "A 5834-2026")</f>
-        <v/>
-      </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 5866-2026</t>
+          <t>A 5612-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>46052.3075925926</v>
+        <v>45693.60490740741</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11356,13 +11361,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11399,14 +11399,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 63703-2025</t>
+          <t>A 302-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>46014.60188657408</v>
+        <v>45295</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11418,8 +11418,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11456,14 +11461,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 7947-2024</t>
+          <t>A 29066-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45350</v>
+        <v>45481.69738425926</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11476,7 +11481,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.8</v>
+        <v>7.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11513,14 +11518,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 55991-2022</t>
+          <t>A 29067-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44889</v>
+        <v>45481.70640046296</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11533,7 +11538,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.9</v>
+        <v>10.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11570,14 +11575,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 17116-2023</t>
+          <t>A 29068-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45034.58351851852</v>
+        <v>45481.71290509259</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11590,7 +11595,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11627,14 +11632,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 15567-2022</t>
+          <t>A 38442-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44662</v>
+        <v>45162.39668981481</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11647,7 +11652,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11684,14 +11689,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 21630-2024</t>
+          <t>A 19079-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45442.32711805555</v>
+        <v>45766.61758101852</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11704,7 +11709,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>4.6</v>
+        <v>2.1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11741,14 +11746,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 13382-2023</t>
+          <t>A 5324-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45005.50784722222</v>
+        <v>45692.5303125</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11761,7 +11766,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11798,14 +11803,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 550-2024</t>
+          <t>A 13631-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45299</v>
+        <v>45390.41417824074</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11818,7 +11823,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.3</v>
+        <v>16.4</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11855,14 +11860,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 13887-2024</t>
+          <t>A 37063-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45391.61759259259</v>
+        <v>45539.45819444444</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11875,7 +11880,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>11.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11912,14 +11917,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 47509-2024</t>
+          <t>A 15159-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45587.60949074074</v>
+        <v>45016.58609953704</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11931,8 +11936,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11969,14 +11979,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 14929-2024</t>
+          <t>A 550-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45398.64460648148</v>
+        <v>45299</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11989,7 +11999,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>5.1</v>
+        <v>2.3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12026,14 +12036,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 11104-2024</t>
+          <t>A 13975-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45371.32724537037</v>
+        <v>45008</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12046,7 +12056,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12083,14 +12093,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 28910-2024</t>
+          <t>A 33527-2021</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45480.65789351852</v>
+        <v>44377.79693287037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12103,7 +12113,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12140,14 +12150,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 1382-2024</t>
+          <t>A 8071-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45303.56011574074</v>
+        <v>45351</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12160,7 +12170,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12197,14 +12207,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 17114-2023</t>
+          <t>A 6489-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45034.58234953704</v>
+        <v>45699.62678240741</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12217,7 +12227,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12254,14 +12264,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 43767-2023</t>
+          <t>A 45469-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45187.50667824074</v>
+        <v>45576.73229166667</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12274,7 +12284,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.3</v>
+        <v>7.2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12311,14 +12321,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 38522-2024</t>
+          <t>A 406-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45546.56513888889</v>
+        <v>45296</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12330,13 +12340,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G192" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12373,14 +12378,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 13631-2024</t>
+          <t>A 62730-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45390.41417824074</v>
+        <v>45268</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12393,7 +12398,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>16.4</v>
+        <v>3.1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12430,14 +12435,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 38383-2022</t>
+          <t>A 49879-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44812</v>
+        <v>45213</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12450,7 +12455,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12487,14 +12492,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 37508-2023</t>
+          <t>A 5420-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45158.42202546296</v>
+        <v>45692.68938657407</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12507,7 +12512,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>6.9</v>
+        <v>0.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12544,14 +12549,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 37509-2023</t>
+          <t>A 21304-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45158.43357638889</v>
+        <v>45781.36851851852</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12564,7 +12569,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12601,14 +12606,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 15159-2023</t>
+          <t>A 3867-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45016.58609953704</v>
+        <v>45684</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12620,13 +12625,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12663,14 +12663,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 37510-2023</t>
+          <t>A 21617-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45158</v>
+        <v>45441.97630787037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12720,14 +12720,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 49879-2023</t>
+          <t>A 30724-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45213</v>
+        <v>45496</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12777,14 +12777,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 44445-2023</t>
+          <t>A 22561-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45189.37668981482</v>
+        <v>45789.3449537037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12834,14 +12834,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 33991-2023</t>
+          <t>A 11329-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45134.90613425926</v>
+        <v>45726.47752314815</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.5</v>
+        <v>4.6</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12891,14 +12891,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 5328-2025</t>
+          <t>A 23509-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45692.53454861111</v>
+        <v>45792.49081018518</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12948,14 +12948,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 21304-2025</t>
+          <t>A 23374-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45781.36851851852</v>
+        <v>45791.77096064815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13005,14 +13005,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 3867-2025</t>
+          <t>A 12790-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45684</v>
+        <v>45733.60599537037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13062,14 +13062,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 21617-2024</t>
+          <t>A 12782-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45441.97630787037</v>
+        <v>45733.59701388889</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13082,7 +13082,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>9.699999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13119,14 +13119,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 22561-2025</t>
+          <t>A 12243-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45789.3449537037</v>
+        <v>45729</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.2</v>
+        <v>10.2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13176,14 +13176,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 12782-2025</t>
+          <t>A 14891-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45733.59701388889</v>
+        <v>45743.47010416666</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13233,14 +13233,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 12790-2025</t>
+          <t>A 24053-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45733.60599537037</v>
+        <v>45796</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.9</v>
+        <v>11.1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13290,14 +13290,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 12243-2025</t>
+          <t>A 5743-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45729</v>
+        <v>45694.52391203704</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>10.2</v>
+        <v>0.8</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13347,14 +13347,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 11329-2025</t>
+          <t>A 7819-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45726.47752314815</v>
+        <v>45706.63945601852</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13404,14 +13404,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 14891-2025</t>
+          <t>A 5740-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45743.47010416666</v>
+        <v>45694.5205324074</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13461,14 +13461,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 30724-2024</t>
+          <t>A 6384-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45496</v>
+        <v>45699.42287037037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13518,14 +13518,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 23374-2025</t>
+          <t>A 36984-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45791.77096064815</v>
+        <v>45539.32334490741</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13575,14 +13575,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 23509-2025</t>
+          <t>A 27222-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45792.49081018518</v>
+        <v>45812.42443287037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13629,17 +13629,17 @@
       </c>
       <c r="R214" s="2" t="inlineStr"/>
     </row>
-    <row r="215" ht="15" customHeight="1">
+    <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 5743-2025</t>
+          <t>A 27620-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45694.52391203704</v>
+        <v>45813.54954861111</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13685,63 +13685,6 @@
         <v>0</v>
       </c>
       <c r="R215" s="2" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>A 24053-2025</t>
-        </is>
-      </c>
-      <c r="B216" s="1" t="n">
-        <v>45796</v>
-      </c>
-      <c r="C216" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="G216" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="n">
-        <v>0</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0</v>
-      </c>
-      <c r="L216" t="n">
-        <v>0</v>
-      </c>
-      <c r="M216" t="n">
-        <v>0</v>
-      </c>
-      <c r="N216" t="n">
-        <v>0</v>
-      </c>
-      <c r="O216" t="n">
-        <v>0</v>
-      </c>
-      <c r="P216" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q216" t="n">
-        <v>0</v>
-      </c>
-      <c r="R216" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt LILLA EDET.xlsx
+++ b/Översikt LILLA EDET.xlsx
@@ -575,7 +575,7 @@
         <v>45295</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,14 +670,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 30285-2025</t>
+          <t>A 318-2024</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45827</v>
+        <v>45295</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -689,17 +689,22 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G3" t="n">
-        <v>29.6</v>
+        <v>8.1</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -714,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -723,6 +728,102 @@
         <v>8</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa
+Fällmossa
+Kattfotslav
+Klippfrullania
+Stor revmossa
+Västlig hakmossa
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 318-2024 artfynd.xlsx", "A 318-2024")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 318-2024 karta.png", "A 318-2024")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 318-2024 FSC-klagomål.docx", "A 318-2024")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 318-2024 FSC-klagomål mail.docx", "A 318-2024")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 318-2024 tillsynsbegäran.docx", "A 318-2024")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 318-2024 tillsynsbegäran mail.docx", "A 318-2024")</f>
+        <v/>
+      </c>
+      <c r="Z3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 318-2024 prioriterade fågelarter.docx", "A 318-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 30285-2025</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45827</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>8</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Dofttaggsvamp
 Spillkråka
@@ -734,133 +835,32 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 30285-2025 artfynd.xlsx", "A 30285-2025")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 30285-2025 karta.png", "A 30285-2025")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 30285-2025 FSC-klagomål.docx", "A 30285-2025")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 30285-2025 FSC-klagomål mail.docx", "A 30285-2025")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 30285-2025 tillsynsbegäran.docx", "A 30285-2025")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 30285-2025 tillsynsbegäran mail.docx", "A 30285-2025")</f>
         <v/>
       </c>
-      <c r="Z3">
+      <c r="Z4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 30285-2025 prioriterade fågelarter.docx", "A 30285-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 318-2024</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45295</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>8</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa
-Fällmossa
-Kattfotslav
-Klippfrullania
-Stor revmossa
-Västlig hakmossa
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 318-2024 artfynd.xlsx", "A 318-2024")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 318-2024 karta.png", "A 318-2024")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 318-2024 FSC-klagomål.docx", "A 318-2024")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 318-2024 FSC-klagomål mail.docx", "A 318-2024")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 318-2024 tillsynsbegäran.docx", "A 318-2024")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 318-2024 tillsynsbegäran mail.docx", "A 318-2024")</f>
-        <v/>
-      </c>
-      <c r="Z4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 318-2024 prioriterade fågelarter.docx", "A 318-2024")</f>
         <v/>
       </c>
     </row>
@@ -874,7 +874,7 @@
         <v>45272</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>45139</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>45462</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1147,14 +1147,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 58567-2025</t>
+          <t>A 43771-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45986.36528935185</v>
+        <v>45187</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1167,22 +1167,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>17.9</v>
+        <v>1.7</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1194,12 +1194,100 @@
         <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
         <v>4</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Slåtterfibbla
+Vätteros
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 43771-2023 artfynd.xlsx", "A 43771-2023")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 43771-2023 karta.png", "A 43771-2023")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 43771-2023 FSC-klagomål.docx", "A 43771-2023")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 43771-2023 FSC-klagomål mail.docx", "A 43771-2023")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 43771-2023 tillsynsbegäran.docx", "A 43771-2023")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 43771-2023 tillsynsbegäran mail.docx", "A 43771-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 58567-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45986.36528935185</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Skogshare
 Spillkråka
@@ -1207,91 +1295,91 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 58567-2025 artfynd.xlsx", "A 58567-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 58567-2025 karta.png", "A 58567-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 58567-2025 FSC-klagomål.docx", "A 58567-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 58567-2025 FSC-klagomål mail.docx", "A 58567-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 58567-2025 tillsynsbegäran.docx", "A 58567-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 58567-2025 tillsynsbegäran mail.docx", "A 58567-2025")</f>
         <v/>
       </c>
-      <c r="Z8">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 58567-2025 prioriterade fågelarter.docx", "A 58567-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 28512-2025</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>45819.48106481481</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C10" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>10.9</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
         <v>2</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I10" t="n">
         <v>2</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>4</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Blåmossa
@@ -1299,120 +1387,32 @@
 Tjäder</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 28512-2025 artfynd.xlsx", "A 28512-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 28512-2025 karta.png", "A 28512-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 28512-2025 FSC-klagomål.docx", "A 28512-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 28512-2025 FSC-klagomål mail.docx", "A 28512-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 28512-2025 tillsynsbegäran.docx", "A 28512-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 28512-2025 tillsynsbegäran mail.docx", "A 28512-2025")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 28512-2025 prioriterade fågelarter.docx", "A 28512-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 43771-2023</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45187</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Slåtterfibbla
-Vätteros
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 43771-2023 artfynd.xlsx", "A 43771-2023")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 43771-2023 karta.png", "A 43771-2023")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 43771-2023 FSC-klagomål.docx", "A 43771-2023")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 43771-2023 FSC-klagomål mail.docx", "A 43771-2023")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 43771-2023 tillsynsbegäran.docx", "A 43771-2023")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 43771-2023 tillsynsbegäran mail.docx", "A 43771-2023")</f>
         <v/>
       </c>
     </row>
@@ -1426,7 +1426,7 @@
         <v>45072</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>46044.42456018519</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1602,14 +1602,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 30968-2025</t>
+          <t>A 13699-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45832.45538194444</v>
+        <v>45390</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>7.7</v>
+        <v>6.6</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1657,49 +1657,49 @@
       <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
-Blåmossa</t>
+Västlig hakmossa</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 30968-2025 artfynd.xlsx", "A 30968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 13699-2024 artfynd.xlsx", "A 13699-2024")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 30968-2025 karta.png", "A 30968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 13699-2024 karta.png", "A 13699-2024")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 30968-2025 FSC-klagomål.docx", "A 30968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 13699-2024 FSC-klagomål.docx", "A 13699-2024")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 30968-2025 FSC-klagomål mail.docx", "A 30968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 13699-2024 FSC-klagomål mail.docx", "A 13699-2024")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 30968-2025 tillsynsbegäran.docx", "A 30968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 13699-2024 tillsynsbegäran.docx", "A 13699-2024")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 30968-2025 tillsynsbegäran mail.docx", "A 30968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 13699-2024 tillsynsbegäran mail.docx", "A 13699-2024")</f>
         <v/>
       </c>
       <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 30968-2025 prioriterade fågelarter.docx", "A 30968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 13699-2024 prioriterade fågelarter.docx", "A 13699-2024")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 23559-2023</t>
+          <t>A 30968-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45072</v>
+        <v>45832.45538194444</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,19 +1711,14 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>1.7</v>
+        <v>7.7</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1752,49 +1747,49 @@
       <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
-Revlummer</t>
+Blåmossa</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23559-2023 artfynd.xlsx", "A 23559-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 30968-2025 artfynd.xlsx", "A 30968-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23559-2023 karta.png", "A 23559-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 30968-2025 karta.png", "A 30968-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23559-2023 FSC-klagomål.docx", "A 23559-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 30968-2025 FSC-klagomål.docx", "A 30968-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23559-2023 FSC-klagomål mail.docx", "A 23559-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 30968-2025 FSC-klagomål mail.docx", "A 30968-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23559-2023 tillsynsbegäran.docx", "A 23559-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 30968-2025 tillsynsbegäran.docx", "A 30968-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23559-2023 tillsynsbegäran mail.docx", "A 23559-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 30968-2025 tillsynsbegäran mail.docx", "A 30968-2025")</f>
         <v/>
       </c>
       <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 23559-2023 prioriterade fågelarter.docx", "A 23559-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 30968-2025 prioriterade fågelarter.docx", "A 30968-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 434-2024</t>
+          <t>A 2437-2026</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45296.57905092592</v>
+        <v>46036.9100925926</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1806,19 +1801,14 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1846,222 +1836,232 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
+          <t>Sårläka
+Vätteros</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 2437-2026 artfynd.xlsx", "A 2437-2026")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 2437-2026 karta.png", "A 2437-2026")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 2437-2026 FSC-klagomål.docx", "A 2437-2026")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 2437-2026 FSC-klagomål mail.docx", "A 2437-2026")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 2437-2026 tillsynsbegäran.docx", "A 2437-2026")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 2437-2026 tillsynsbegäran mail.docx", "A 2437-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 23559-2023</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45072</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23559-2023 artfynd.xlsx", "A 23559-2023")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23559-2023 karta.png", "A 23559-2023")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23559-2023 FSC-klagomål.docx", "A 23559-2023")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23559-2023 FSC-klagomål mail.docx", "A 23559-2023")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23559-2023 tillsynsbegäran.docx", "A 23559-2023")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23559-2023 tillsynsbegäran mail.docx", "A 23559-2023")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 23559-2023 prioriterade fågelarter.docx", "A 23559-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 434-2024</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45296.57905092592</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
           <t>Västlig hakmossa
 Revlummer</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 434-2024 artfynd.xlsx", "A 434-2024")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 434-2024 karta.png", "A 434-2024")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 434-2024 FSC-klagomål.docx", "A 434-2024")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 434-2024 FSC-klagomål mail.docx", "A 434-2024")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 434-2024 tillsynsbegäran.docx", "A 434-2024")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 434-2024 tillsynsbegäran mail.docx", "A 434-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 2437-2026</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>46036.9100925926</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Sårläka
-Vätteros</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 2437-2026 artfynd.xlsx", "A 2437-2026")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 2437-2026 karta.png", "A 2437-2026")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 2437-2026 FSC-klagomål.docx", "A 2437-2026")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 2437-2026 FSC-klagomål mail.docx", "A 2437-2026")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 2437-2026 tillsynsbegäran.docx", "A 2437-2026")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 2437-2026 tillsynsbegäran mail.docx", "A 2437-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 13699-2024</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45390</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 13699-2024 artfynd.xlsx", "A 13699-2024")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 13699-2024 karta.png", "A 13699-2024")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 13699-2024 FSC-klagomål.docx", "A 13699-2024")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 13699-2024 FSC-klagomål mail.docx", "A 13699-2024")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 13699-2024 tillsynsbegäran.docx", "A 13699-2024")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 13699-2024 tillsynsbegäran mail.docx", "A 13699-2024")</f>
-        <v/>
-      </c>
-      <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 13699-2024 prioriterade fågelarter.docx", "A 13699-2024")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 30273-2022</t>
+          <t>A 23497-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44759</v>
+        <v>45072</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2073,17 +2073,22 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>12.5</v>
+        <v>1.6</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2098,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2108,49 +2113,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Ärtsångare</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 30273-2022 artfynd.xlsx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23497-2023 artfynd.xlsx", "A 23497-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 30273-2022 karta.png", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23497-2023 karta.png", "A 23497-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 30273-2022 FSC-klagomål.docx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23497-2023 FSC-klagomål.docx", "A 23497-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 30273-2022 FSC-klagomål mail.docx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23497-2023 FSC-klagomål mail.docx", "A 23497-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 30273-2022 tillsynsbegäran.docx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23497-2023 tillsynsbegäran.docx", "A 23497-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 30273-2022 tillsynsbegäran mail.docx", "A 30273-2022")</f>
-        <v/>
-      </c>
-      <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 30273-2022 prioriterade fågelarter.docx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23497-2023 tillsynsbegäran mail.docx", "A 23497-2023")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 23497-2023</t>
+          <t>A 23494-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
         <v>45072</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2168,17 +2169,17 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>1</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
@@ -2192,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2202,45 +2203,49 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23497-2023 artfynd.xlsx", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23494-2023 artfynd.xlsx", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23497-2023 karta.png", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23494-2023 karta.png", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23497-2023 FSC-klagomål.docx", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23494-2023 FSC-klagomål.docx", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23497-2023 FSC-klagomål mail.docx", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23494-2023 FSC-klagomål mail.docx", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23497-2023 tillsynsbegäran.docx", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23494-2023 tillsynsbegäran.docx", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23497-2023 tillsynsbegäran mail.docx", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23494-2023 tillsynsbegäran mail.docx", "A 23494-2023")</f>
+        <v/>
+      </c>
+      <c r="Z19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 23494-2023 prioriterade fågelarter.docx", "A 23494-2023")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 54358-2024</t>
+          <t>A 45941-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45617.40755787037</v>
+        <v>45924.31385416666</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2253,17 +2258,17 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
@@ -2277,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2287,45 +2292,45 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 54358-2024 artfynd.xlsx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 45941-2025 artfynd.xlsx", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 54358-2024 karta.png", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 45941-2025 karta.png", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 54358-2024 FSC-klagomål.docx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 45941-2025 FSC-klagomål.docx", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 54358-2024 FSC-klagomål mail.docx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 45941-2025 FSC-klagomål mail.docx", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 54358-2024 tillsynsbegäran.docx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 45941-2025 tillsynsbegäran.docx", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 54358-2024 tillsynsbegäran mail.docx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 45941-2025 tillsynsbegäran mail.docx", "A 45941-2025")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 23494-2023</t>
+          <t>A 25655-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45072</v>
+        <v>45089</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2337,16 +2342,11 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>1.3</v>
+        <v>5.1</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2377,49 +2377,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Bergjohannesört</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23494-2023 artfynd.xlsx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 25655-2023 artfynd.xlsx", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23494-2023 karta.png", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 25655-2023 karta.png", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23494-2023 FSC-klagomål.docx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 25655-2023 FSC-klagomål.docx", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23494-2023 FSC-klagomål mail.docx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 25655-2023 FSC-klagomål mail.docx", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23494-2023 tillsynsbegäran.docx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 25655-2023 tillsynsbegäran.docx", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23494-2023 tillsynsbegäran mail.docx", "A 23494-2023")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 23494-2023 prioriterade fågelarter.docx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 25655-2023 tillsynsbegäran mail.docx", "A 25655-2023")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 45941-2025</t>
+          <t>A 15351-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45924.31385416666</v>
+        <v>45400.8005787037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2431,8 +2427,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2466,45 +2467,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Guldsandbi</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 45941-2025 artfynd.xlsx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 15351-2024 artfynd.xlsx", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 45941-2025 karta.png", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 15351-2024 karta.png", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 45941-2025 FSC-klagomål.docx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 15351-2024 FSC-klagomål.docx", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 45941-2025 FSC-klagomål mail.docx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 15351-2024 FSC-klagomål mail.docx", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 45941-2025 tillsynsbegäran.docx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 15351-2024 tillsynsbegäran.docx", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 45941-2025 tillsynsbegäran mail.docx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 15351-2024 tillsynsbegäran mail.docx", "A 15351-2024")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 25655-2023</t>
+          <t>A 30273-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45089</v>
+        <v>44759</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2517,10 +2518,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5.1</v>
+        <v>12.5</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2551,45 +2552,49 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Bergjohannesört</t>
+          <t>Ärtsångare</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 25655-2023 artfynd.xlsx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 30273-2022 artfynd.xlsx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 25655-2023 karta.png", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 30273-2022 karta.png", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 25655-2023 FSC-klagomål.docx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 30273-2022 FSC-klagomål.docx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 25655-2023 FSC-klagomål mail.docx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 30273-2022 FSC-klagomål mail.docx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 25655-2023 tillsynsbegäran.docx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 30273-2022 tillsynsbegäran.docx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 25655-2023 tillsynsbegäran mail.docx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 30273-2022 tillsynsbegäran mail.docx", "A 30273-2022")</f>
+        <v/>
+      </c>
+      <c r="Z23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 30273-2022 prioriterade fågelarter.docx", "A 30273-2022")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 15351-2024</t>
+          <t>A 54358-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45400.8005787037</v>
+        <v>45617.40755787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2599,24 +2604,19 @@
       <c r="E24" t="inlineStr">
         <is>
           <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G24" t="n">
         <v>3</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2641,31 +2641,31 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Guldsandbi</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 15351-2024 artfynd.xlsx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 54358-2024 artfynd.xlsx", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 15351-2024 karta.png", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 54358-2024 karta.png", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 15351-2024 FSC-klagomål.docx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 54358-2024 FSC-klagomål.docx", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 15351-2024 FSC-klagomål mail.docx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 54358-2024 FSC-klagomål mail.docx", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 15351-2024 tillsynsbegäran.docx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 54358-2024 tillsynsbegäran.docx", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 15351-2024 tillsynsbegäran mail.docx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 54358-2024 tillsynsbegäran mail.docx", "A 54358-2024")</f>
         <v/>
       </c>
     </row>
@@ -2679,7 +2679,7 @@
         <v>45343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>45986.36644675926</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44812</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44309.35467592593</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44363</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44251</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>44581</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44875.56251157408</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>44637</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>44685.67520833333</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>44760</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44319.62640046296</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44720.45840277777</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>44365.70123842593</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>44365.70269675926</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>44627</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>44343.5096412037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>44298.46679398148</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44280</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44377.80355324074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>44425.45646990741</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>44476.53376157407</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>44467</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>44803.87314814814</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4105,14 +4105,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 38386-2022</t>
+          <t>A 8830-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44812.72657407408</v>
+        <v>44246</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4162,14 +4162,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 8830-2021</t>
+          <t>A 38386-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44246</v>
+        <v>44812.72657407408</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4226,7 +4226,7 @@
         <v>44252</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>44363</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44363</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>44256</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>44826.6478125</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>44337.31774305556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>44462</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44811.6625462963</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4675,14 +4675,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 30284-2022</t>
+          <t>A 296-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44760</v>
+        <v>44565.47288194444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4732,14 +4732,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 30287-2022</t>
+          <t>A 30284-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
         <v>44760</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4789,14 +4789,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 296-2022</t>
+          <t>A 30287-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44565.47288194444</v>
+        <v>44760</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4853,7 +4853,7 @@
         <v>44242</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>44627.32611111111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4960,14 +4960,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 49384-2023</t>
+          <t>A 58750-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45205</v>
+        <v>44489</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4979,13 +4979,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5022,14 +5017,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 12234-2024</t>
+          <t>A 35423-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45378.36106481482</v>
+        <v>45855.4134837963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5042,7 +5037,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5079,14 +5074,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 13887-2024</t>
+          <t>A 61952-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45391.61759259259</v>
+        <v>45653.50980324074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5099,7 +5094,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>11.3</v>
+        <v>4.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5136,14 +5131,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 61284-2022</t>
+          <t>A 13631-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44915</v>
+        <v>45390.41417824074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5156,7 +5151,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>16.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5193,14 +5188,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 52431-2023</t>
+          <t>A 38383-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45225.33118055556</v>
+        <v>44812</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5213,7 +5208,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5250,14 +5245,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 55972-2022</t>
+          <t>A 33527-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44889</v>
+        <v>44377.79693287037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5270,7 +5265,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5307,14 +5302,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 33993-2023</t>
+          <t>A 12234-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45134.92311342592</v>
+        <v>45378.36106481482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5327,7 +5322,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5364,14 +5359,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 33996-2023</t>
+          <t>A 48904-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45134.92869212963</v>
+        <v>45594.35560185185</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5384,7 +5379,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5421,14 +5416,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 65619-2021</t>
+          <t>A 37508-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44516.53974537037</v>
+        <v>45158.42202546296</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5441,7 +5436,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.9</v>
+        <v>6.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5478,14 +5473,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 11104-2024</t>
+          <t>A 37509-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45371.32724537037</v>
+        <v>45158.43357638889</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5498,7 +5493,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5535,14 +5530,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 51488-2022</t>
+          <t>A 38442-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44869</v>
+        <v>45162.39668981481</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5555,7 +5550,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5592,14 +5587,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 28910-2024</t>
+          <t>A 15159-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45480.65789351852</v>
+        <v>45016.58609953704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5611,8 +5606,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5649,14 +5649,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 11604-2024</t>
+          <t>A 2867-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45373.39337962963</v>
+        <v>45677.67715277777</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>10.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5706,14 +5706,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 15567-2022</t>
+          <t>A 4881-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44662</v>
+        <v>45329.44875</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5763,14 +5763,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 1382-2024</t>
+          <t>A 37510-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45303.56011574074</v>
+        <v>45158</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5820,14 +5820,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 587-2025</t>
+          <t>A 26443-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45664.58135416666</v>
+        <v>45092</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5877,14 +5877,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 7912-2024</t>
+          <t>A 41759-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45350</v>
+        <v>45902.51219907407</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5934,14 +5934,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 28515-2025</t>
+          <t>A 43770-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45819.48321759259</v>
+        <v>45187.50803240741</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5991,14 +5991,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 6323-2023</t>
+          <t>A 49879-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44960</v>
+        <v>45213</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6010,13 +6010,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6053,14 +6048,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 12784-2025</t>
+          <t>A 44445-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45733.59857638889</v>
+        <v>45189.37668981482</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6073,7 +6068,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6110,14 +6105,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 54804-2022</t>
+          <t>A 41756-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44883</v>
+        <v>45902.50689814815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6130,7 +6125,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>22.6</v>
+        <v>2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6167,14 +6162,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 2867-2025</t>
+          <t>A 41758-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45677.67715277777</v>
+        <v>45902.51023148148</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6187,7 +6182,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>10.7</v>
+        <v>1.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6224,14 +6219,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 8117-2023</t>
+          <t>A 41760-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44974</v>
+        <v>45902.51596064815</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6244,7 +6239,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>11</v>
+        <v>1.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6281,14 +6276,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 35423-2025</t>
+          <t>A 41761-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45855.4134837963</v>
+        <v>45902.51922453703</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6301,7 +6296,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.4</v>
+        <v>6.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6338,14 +6333,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 12628-2023</t>
+          <t>A 33991-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45000</v>
+        <v>45134.90613425926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6358,7 +6353,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6395,14 +6390,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 50349-2024</t>
+          <t>A 54681-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45600.81916666667</v>
+        <v>44473</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6415,7 +6410,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.7</v>
+        <v>4.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6452,14 +6447,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 41756-2025</t>
+          <t>A 5328-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45902.50689814815</v>
+        <v>45692.53454861111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6472,7 +6467,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6509,14 +6504,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 41758-2025</t>
+          <t>A 35422-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45902.51023148148</v>
+        <v>45855.41179398148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6529,7 +6524,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6566,14 +6561,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 41760-2025</t>
+          <t>A 19079-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45902.51596064815</v>
+        <v>45766.61758101852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6586,7 +6581,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6623,14 +6618,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 41761-2025</t>
+          <t>A 42857-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45902.51922453703</v>
+        <v>45908.6132175926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6643,7 +6638,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>6.6</v>
+        <v>1.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6680,14 +6675,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 41759-2025</t>
+          <t>A 32107-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45902.51219907407</v>
+        <v>45119.61793981482</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6700,7 +6695,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6737,14 +6732,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 28903-2024</t>
+          <t>A 406-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45480.54913194444</v>
+        <v>45296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6757,7 +6752,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6794,14 +6789,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 35420-2025</t>
+          <t>A 21304-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45855.41025462963</v>
+        <v>45781.36851851852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6814,7 +6809,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6851,14 +6846,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 35416-2025</t>
+          <t>A 3867-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45855.40481481481</v>
+        <v>45684</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6871,7 +6866,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6908,14 +6903,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 35717-2025</t>
+          <t>A 21617-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45860.42960648148</v>
+        <v>45441.97630787037</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6928,7 +6923,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6965,14 +6960,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 35422-2025</t>
+          <t>A 22561-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45855.41179398148</v>
+        <v>45789.3449537037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6985,7 +6980,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7022,14 +7017,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 12647-2023</t>
+          <t>A 12782-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45000</v>
+        <v>45733.59701388889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7042,7 +7037,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7079,14 +7074,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 42857-2025</t>
+          <t>A 12790-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45908.6132175926</v>
+        <v>45733.60599537037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7099,7 +7094,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7136,14 +7131,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 32107-2023</t>
+          <t>A 12243-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45119.61793981482</v>
+        <v>45729</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7156,7 +7151,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.1</v>
+        <v>10.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7193,14 +7188,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 43684-2025</t>
+          <t>A 44104-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45912.37804398148</v>
+        <v>45915.56895833334</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7213,7 +7208,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7250,14 +7245,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 5328-2025</t>
+          <t>A 11329-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45692.53454861111</v>
+        <v>45726.47752314815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7270,7 +7265,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7307,14 +7302,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 37510-2023</t>
+          <t>A 14891-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45158</v>
+        <v>45743.47010416666</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7327,7 +7322,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7364,14 +7359,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 44104-2025</t>
+          <t>A 30724-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45915.56895833334</v>
+        <v>45496</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7384,7 +7379,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7421,14 +7416,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 37190-2025</t>
+          <t>A 43684-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45875.64939814815</v>
+        <v>45912.37804398148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7441,7 +7436,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7478,14 +7473,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 44914-2025</t>
+          <t>A 23374-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45918.54420138889</v>
+        <v>45791.77096064815</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7498,7 +7493,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7535,14 +7530,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 44915-2025</t>
+          <t>A 23509-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45918.54668981482</v>
+        <v>45792.49081018518</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7555,7 +7550,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7592,14 +7587,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 44918-2025</t>
+          <t>A 5743-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45918.5504050926</v>
+        <v>45694.52391203704</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7612,7 +7607,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>5.7</v>
+        <v>0.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7649,14 +7644,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 44916-2025</t>
+          <t>A 49384-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45918.54886574074</v>
+        <v>45205</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7668,8 +7663,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7706,14 +7706,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 37152-2025</t>
+          <t>A 20037-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45875</v>
+        <v>45772</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7763,14 +7763,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 35718-2025</t>
+          <t>A 47511-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45860.4315162037</v>
+        <v>45587.61174768519</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>7.6</v>
+        <v>1.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7820,14 +7820,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 61952-2024</t>
+          <t>A 24053-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45653.50980324074</v>
+        <v>45796</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4.2</v>
+        <v>11.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7877,14 +7877,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 57381-2022</t>
+          <t>A 61435-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44896</v>
+        <v>45646.46203703704</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7934,14 +7934,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 48727-2025</t>
+          <t>A 44916-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45936.65829861111</v>
+        <v>45918.54886574074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>6.1</v>
+        <v>1.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7991,14 +7991,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 48730-2025</t>
+          <t>A 44918-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45936.65984953703</v>
+        <v>45918.5504050926</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4</v>
+        <v>5.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8048,14 +8048,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 13801-2025</t>
+          <t>A 44914-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45737</v>
+        <v>45918.54420138889</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8105,14 +8105,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 49188-2025</t>
+          <t>A 7819-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45938.40711805555</v>
+        <v>45706.63945601852</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.7</v>
+        <v>5.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8162,14 +8162,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 56584-2025</t>
+          <t>A 44915-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45974</v>
+        <v>45918.54668981482</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8219,14 +8219,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 38383-2022</t>
+          <t>A 5612-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44812</v>
+        <v>45693.60490740741</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8276,14 +8276,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 26886-2023</t>
+          <t>A 28022-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45093</v>
+        <v>45098.95484953704</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.6</v>
+        <v>5.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8333,14 +8333,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 16489-2025</t>
+          <t>A 37063-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45751.58628472222</v>
+        <v>45539.45819444444</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8390,14 +8390,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 28022-2023</t>
+          <t>A 587-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45098.95484953704</v>
+        <v>45664.58135416666</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>5.7</v>
+        <v>0.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8447,14 +8447,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 26443-2023</t>
+          <t>A 12628-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45092</v>
+        <v>45000</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8504,14 +8504,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 17114-2023</t>
+          <t>A 5740-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45034.58234953704</v>
+        <v>45694.5205324074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8561,14 +8561,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 58750-2021</t>
+          <t>A 6384-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44489</v>
+        <v>45699.42287037037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8618,14 +8618,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 7947-2024</t>
+          <t>A 36984-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45350</v>
+        <v>45539.32334490741</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8675,14 +8675,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 32110-2023</t>
+          <t>A 27222-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45119.61902777778</v>
+        <v>45812.42443287037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8732,14 +8732,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 13581-2023</t>
+          <t>A 27620-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45006.54443287037</v>
+        <v>45813.54954861111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8751,13 +8751,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8794,14 +8789,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 55324-2025</t>
+          <t>A 65619-2021</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45971.33519675926</v>
+        <v>44516.53974537037</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8813,13 +8808,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8856,14 +8846,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 55991-2022</t>
+          <t>A 28515-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44889</v>
+        <v>45819.48321759259</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8876,7 +8866,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8913,14 +8903,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 54681-2021</t>
+          <t>A 55972-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44473</v>
+        <v>44889</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8933,7 +8923,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8970,14 +8960,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 11102-2024</t>
+          <t>A 41411-2022</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45371.32438657407</v>
+        <v>44826.63782407407</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8990,7 +8980,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9027,14 +9017,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 5811-2025</t>
+          <t>A 12647-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45694.7127662037</v>
+        <v>45000</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9047,7 +9037,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9084,14 +9074,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 56854-2025</t>
+          <t>A 8117-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45978.49476851852</v>
+        <v>44974</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9104,7 +9094,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>6.4</v>
+        <v>11</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9141,14 +9131,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 56855-2025</t>
+          <t>A 57381-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45978.4962962963</v>
+        <v>44896</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9161,7 +9151,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9198,14 +9188,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 47511-2024</t>
+          <t>A 32110-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45587.61174768519</v>
+        <v>45119.61902777778</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9218,7 +9208,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9255,14 +9245,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 43770-2023</t>
+          <t>A 48730-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45187.50803240741</v>
+        <v>45936.65984953703</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9275,7 +9265,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9312,14 +9302,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 4881-2024</t>
+          <t>A 16489-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45329.44875</v>
+        <v>45751.58628472222</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9332,7 +9322,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9369,14 +9359,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 46561-2024</t>
+          <t>A 48727-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45582.67883101852</v>
+        <v>45936.65829861111</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9389,7 +9379,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>12.2</v>
+        <v>6.1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9426,14 +9416,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 47509-2024</t>
+          <t>A 49188-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45587.60949074074</v>
+        <v>45938.40711805555</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9446,7 +9436,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9483,14 +9473,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 9046-2022</t>
+          <t>A 13801-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44615.44694444445</v>
+        <v>45737</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9503,7 +9493,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9540,14 +9530,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 2226-2026</t>
+          <t>A 35416-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>46036.51820601852</v>
+        <v>45855.40481481481</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9560,7 +9550,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9597,14 +9587,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 20031-2025</t>
+          <t>A 35420-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45772</v>
+        <v>45855.41025462963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9617,7 +9607,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>6.2</v>
+        <v>1.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9654,14 +9644,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 2438-2026</t>
+          <t>A 50349-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>46036.91210648148</v>
+        <v>45600.81916666667</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9674,7 +9664,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9711,14 +9701,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 61435-2024</t>
+          <t>A 11102-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45646.46203703704</v>
+        <v>45371.32438657407</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9731,7 +9721,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9768,14 +9758,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 61475-2025</t>
+          <t>A 35717-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>46001.61959490741</v>
+        <v>45860.42960648148</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9788,7 +9778,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>4.6</v>
+        <v>0.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9825,14 +9815,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 61695-2025</t>
+          <t>A 56584-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>46002.52787037037</v>
+        <v>45974</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9845,7 +9835,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9882,14 +9872,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 14929-2024</t>
+          <t>A 7912-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45398.64460648148</v>
+        <v>45350</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9902,7 +9892,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>5.1</v>
+        <v>1.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9939,14 +9929,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 21630-2024</t>
+          <t>A 13581-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45442.32711805555</v>
+        <v>45006.54443287037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9958,8 +9948,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9996,14 +9991,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 43767-2023</t>
+          <t>A 8071-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45187.50667824074</v>
+        <v>45351</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10016,7 +10011,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10053,14 +10048,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 33991-2023</t>
+          <t>A 37190-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45134.90613425926</v>
+        <v>45875.64939814815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10073,7 +10068,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10110,14 +10105,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 5866-2026</t>
+          <t>A 13975-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>46052.3075925926</v>
+        <v>45008</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10129,13 +10124,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10172,14 +10162,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 5834-2026</t>
+          <t>A 16473-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>46052.33366898148</v>
+        <v>44671</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10191,13 +10181,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>9.9</v>
+        <v>1.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10230,38 +10215,18 @@
         <v>0</v>
       </c>
       <c r="R155" s="2" t="inlineStr"/>
-      <c r="U155">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/knärot/A 5834-2026 karta knärot.png", "A 5834-2026")</f>
-        <v/>
-      </c>
-      <c r="V155">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 5834-2026 FSC-klagomål.docx", "A 5834-2026")</f>
-        <v/>
-      </c>
-      <c r="W155">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 5834-2026 FSC-klagomål mail.docx", "A 5834-2026")</f>
-        <v/>
-      </c>
-      <c r="X155">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 5834-2026 tillsynsbegäran.docx", "A 5834-2026")</f>
-        <v/>
-      </c>
-      <c r="Y155">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 5834-2026 tillsynsbegäran mail.docx", "A 5834-2026")</f>
-        <v/>
-      </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 41411-2022</t>
+          <t>A 37152-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44826.63782407407</v>
+        <v>45875</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10274,7 +10239,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10311,14 +10276,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 63703-2025</t>
+          <t>A 6323-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>46014.60188657408</v>
+        <v>44960</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10330,8 +10295,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10368,14 +10338,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 4225-2024</t>
+          <t>A 12784-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45324.41422453704</v>
+        <v>45733.59857638889</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10388,7 +10358,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10425,14 +10395,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 4227-2024</t>
+          <t>A 35718-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45324.41612268519</v>
+        <v>45860.4315162037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10445,7 +10415,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.6</v>
+        <v>7.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10482,14 +10452,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 37508-2023</t>
+          <t>A 40092-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45158.42202546296</v>
+        <v>45554.3884375</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10502,7 +10472,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>6.9</v>
+        <v>1.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10539,14 +10509,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 37509-2023</t>
+          <t>A 57754-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45158.43357638889</v>
+        <v>45246.79032407407</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10559,7 +10529,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10596,14 +10566,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 13382-2023</t>
+          <t>A 45469-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45005.50784722222</v>
+        <v>45576.73229166667</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10616,7 +10586,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.4</v>
+        <v>7.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10653,14 +10623,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 38093-2022</t>
+          <t>A 28021-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44811.94373842593</v>
+        <v>45098.95337962963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10673,7 +10643,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10710,14 +10680,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 38522-2024</t>
+          <t>A 26886-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45546.56513888889</v>
+        <v>45093</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10729,13 +10699,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>5.3</v>
+        <v>3.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10772,14 +10737,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 16473-2022</t>
+          <t>A 302-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44671</v>
+        <v>45295</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10791,8 +10756,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10829,14 +10799,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 20037-2025</t>
+          <t>A 29066-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45772</v>
+        <v>45481.69738425926</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10849,7 +10819,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>3.9</v>
+        <v>7.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10886,14 +10856,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 40092-2024</t>
+          <t>A 29067-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45554.3884375</v>
+        <v>45481.70640046296</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10906,7 +10876,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.7</v>
+        <v>10.4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10943,14 +10913,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 57754-2023</t>
+          <t>A 29068-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45246.79032407407</v>
+        <v>45481.71290509259</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10963,7 +10933,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11000,14 +10970,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 48904-2024</t>
+          <t>A 4225-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45594.35560185185</v>
+        <v>45324.41422453704</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11020,7 +10990,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11057,14 +11027,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 28021-2023</t>
+          <t>A 4227-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45098.95337962963</v>
+        <v>45324.41612268519</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11077,7 +11047,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11114,14 +11084,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 17510-2021</t>
+          <t>A 55324-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44299</v>
+        <v>45971.33519675926</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11133,8 +11103,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G171" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11171,14 +11146,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 44445-2023</t>
+          <t>A 38093-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45189.37668981482</v>
+        <v>44811.94373842593</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11191,7 +11166,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11228,14 +11203,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 17116-2023</t>
+          <t>A 56854-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45034.58351851852</v>
+        <v>45978.49476851852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11248,7 +11223,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>6.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11285,14 +11260,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 12760-2023</t>
+          <t>A 56855-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45001</v>
+        <v>45978.4962962963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11305,7 +11280,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11342,14 +11317,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 5612-2025</t>
+          <t>A 5420-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45693.60490740741</v>
+        <v>45692.68938657407</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11362,7 +11337,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11399,14 +11374,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 302-2024</t>
+          <t>A 51488-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45295</v>
+        <v>44869</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11418,13 +11393,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11461,14 +11431,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 29066-2024</t>
+          <t>A 6489-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45481.69738425926</v>
+        <v>45699.62678240741</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11481,7 +11451,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>7.9</v>
+        <v>0.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11518,14 +11488,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 29067-2024</t>
+          <t>A 9046-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45481.70640046296</v>
+        <v>44615.44694444445</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11538,7 +11508,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>10.4</v>
+        <v>1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11575,14 +11545,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 29068-2024</t>
+          <t>A 46561-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45481.71290509259</v>
+        <v>45582.67883101852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11595,7 +11565,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.8</v>
+        <v>12.2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11632,14 +11602,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 38442-2023</t>
+          <t>A 17510-2021</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45162.39668981481</v>
+        <v>44299</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11652,7 +11622,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11689,14 +11659,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 19079-2025</t>
+          <t>A 28903-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45766.61758101852</v>
+        <v>45480.54913194444</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11709,7 +11679,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11746,14 +11716,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 5324-2025</t>
+          <t>A 2226-2026</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45692.5303125</v>
+        <v>46036.51820601852</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11766,7 +11736,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>5.1</v>
+        <v>1.3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11803,14 +11773,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 13631-2024</t>
+          <t>A 61284-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45390.41417824074</v>
+        <v>44915</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11823,7 +11793,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>16.4</v>
+        <v>1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11860,14 +11830,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 37063-2024</t>
+          <t>A 12760-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45539.45819444444</v>
+        <v>45001</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11880,7 +11850,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>8.800000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11917,14 +11887,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 15159-2023</t>
+          <t>A 62730-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45016.58609953704</v>
+        <v>45268</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11936,13 +11906,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11979,14 +11944,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 550-2024</t>
+          <t>A 2438-2026</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45299</v>
+        <v>46036.91210648148</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12036,14 +12001,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 13975-2023</t>
+          <t>A 11604-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45008</v>
+        <v>45373.39337962963</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12056,7 +12021,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12093,14 +12058,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 33527-2021</t>
+          <t>A 5324-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44377.79693287037</v>
+        <v>45692.5303125</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12113,7 +12078,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.3</v>
+        <v>5.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12150,14 +12115,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 8071-2024</t>
+          <t>A 61475-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45351</v>
+        <v>46001.61959490741</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12170,7 +12135,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.6</v>
+        <v>4.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12207,14 +12172,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 6489-2025</t>
+          <t>A 61695-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45699.62678240741</v>
+        <v>46002.52787037037</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12227,7 +12192,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12264,14 +12229,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 45469-2024</t>
+          <t>A 5811-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45576.73229166667</v>
+        <v>45694.7127662037</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12284,7 +12249,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>7.2</v>
+        <v>1.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12321,14 +12286,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 406-2024</t>
+          <t>A 54804-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45296</v>
+        <v>44883</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12341,7 +12306,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>4.8</v>
+        <v>22.6</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12378,14 +12343,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 62730-2023</t>
+          <t>A 20031-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45268</v>
+        <v>45772</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12398,7 +12363,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3.1</v>
+        <v>6.2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12435,14 +12400,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 49879-2023</t>
+          <t>A 52431-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45213</v>
+        <v>45225.33118055556</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12455,7 +12420,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12492,14 +12457,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 5420-2025</t>
+          <t>A 33993-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45692.68938657407</v>
+        <v>45134.92311342592</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12512,7 +12477,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12549,14 +12514,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 21304-2025</t>
+          <t>A 33996-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45781.36851851852</v>
+        <v>45134.92869212963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12569,7 +12534,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12606,14 +12571,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 3867-2025</t>
+          <t>A 7947-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45684</v>
+        <v>45350</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12626,7 +12591,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12663,14 +12628,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 21617-2024</t>
+          <t>A 55991-2022</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45441.97630787037</v>
+        <v>44889</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12683,7 +12648,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>9.699999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12720,14 +12685,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 30724-2024</t>
+          <t>A 5834-2026</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45496</v>
+        <v>46052.33366898148</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12739,8 +12704,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>2.5</v>
+        <v>9.9</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12773,18 +12743,38 @@
         <v>0</v>
       </c>
       <c r="R199" s="2" t="inlineStr"/>
+      <c r="U199">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/knärot/A 5834-2026 karta knärot.png", "A 5834-2026")</f>
+        <v/>
+      </c>
+      <c r="V199">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 5834-2026 FSC-klagomål.docx", "A 5834-2026")</f>
+        <v/>
+      </c>
+      <c r="W199">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 5834-2026 FSC-klagomål mail.docx", "A 5834-2026")</f>
+        <v/>
+      </c>
+      <c r="X199">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 5834-2026 tillsynsbegäran.docx", "A 5834-2026")</f>
+        <v/>
+      </c>
+      <c r="Y199">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 5834-2026 tillsynsbegäran mail.docx", "A 5834-2026")</f>
+        <v/>
+      </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 22561-2025</t>
+          <t>A 17116-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45789.3449537037</v>
+        <v>45034.58351851852</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12797,7 +12787,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12834,14 +12824,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 11329-2025</t>
+          <t>A 5866-2026</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45726.47752314815</v>
+        <v>46052.3075925926</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12853,8 +12843,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G201" t="n">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12891,14 +12886,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 23509-2025</t>
+          <t>A 63703-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45792.49081018518</v>
+        <v>46014.60188657408</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12911,7 +12906,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12948,14 +12943,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 23374-2025</t>
+          <t>A 15567-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45791.77096064815</v>
+        <v>44662</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12968,7 +12963,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13005,14 +13000,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 12790-2025</t>
+          <t>A 21630-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45733.60599537037</v>
+        <v>45442.32711805555</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13025,7 +13020,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.9</v>
+        <v>4.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13062,14 +13057,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 12782-2025</t>
+          <t>A 13382-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45733.59701388889</v>
+        <v>45005.50784722222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13082,7 +13077,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13119,14 +13114,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 12243-2025</t>
+          <t>A 550-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45729</v>
+        <v>45299</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13139,7 +13134,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>10.2</v>
+        <v>2.3</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13176,14 +13171,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 14891-2025</t>
+          <t>A 13887-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45743.47010416666</v>
+        <v>45391.61759259259</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13196,7 +13191,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.7</v>
+        <v>11.3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13233,14 +13228,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 24053-2025</t>
+          <t>A 47509-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45796</v>
+        <v>45587.60949074074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13253,7 +13248,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>11.1</v>
+        <v>2.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13290,14 +13285,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 5743-2025</t>
+          <t>A 14929-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45694.52391203704</v>
+        <v>45398.64460648148</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13310,7 +13305,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.8</v>
+        <v>5.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13347,14 +13342,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 7819-2025</t>
+          <t>A 11104-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45706.63945601852</v>
+        <v>45371.32724537037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13367,7 +13362,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>5.6</v>
+        <v>3.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13404,14 +13399,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 5740-2025</t>
+          <t>A 28910-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45694.5205324074</v>
+        <v>45480.65789351852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13424,7 +13419,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13461,14 +13456,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 6384-2025</t>
+          <t>A 1382-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45699.42287037037</v>
+        <v>45303.56011574074</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13481,7 +13476,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13518,14 +13513,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 36984-2024</t>
+          <t>A 17114-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45539.32334490741</v>
+        <v>45034.58234953704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13538,7 +13533,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13575,14 +13570,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 27222-2025</t>
+          <t>A 43767-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45812.42443287037</v>
+        <v>45187.50667824074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13595,7 +13590,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13632,14 +13627,14 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 27620-2025</t>
+          <t>A 38522-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45813.54954861111</v>
+        <v>45546.56513888889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13651,8 +13646,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G215" t="n">
-        <v>2.7</v>
+        <v>5.3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>

--- a/Översikt LILLA EDET.xlsx
+++ b/Översikt LILLA EDET.xlsx
@@ -575,7 +575,7 @@
         <v>45295</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45295</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>45827</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45272</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>45139</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,14 +1050,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 25298-2024</t>
+          <t>A 43771-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45462</v>
+        <v>45187</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1069,19 +1069,14 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G7" t="n">
-        <v>5.9</v>
+        <v>1.7</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -1090,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1099,15 +1094,108 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
         <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>4</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Slåtterfibbla
+Vätteros
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 43771-2023 artfynd.xlsx", "A 43771-2023")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 43771-2023 karta.png", "A 43771-2023")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 43771-2023 FSC-klagomål.docx", "A 43771-2023")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 43771-2023 FSC-klagomål mail.docx", "A 43771-2023")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 43771-2023 tillsynsbegäran.docx", "A 43771-2023")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 43771-2023 tillsynsbegäran mail.docx", "A 43771-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 25298-2024</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45462</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Björksplintborre
@@ -1115,134 +1203,46 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 25298-2024 artfynd.xlsx", "A 25298-2024")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 25298-2024 karta.png", "A 25298-2024")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 25298-2024 FSC-klagomål.docx", "A 25298-2024")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 25298-2024 FSC-klagomål mail.docx", "A 25298-2024")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 25298-2024 tillsynsbegäran.docx", "A 25298-2024")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 25298-2024 tillsynsbegäran mail.docx", "A 25298-2024")</f>
         <v/>
       </c>
-      <c r="Z7">
+      <c r="Z8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 25298-2024 prioriterade fågelarter.docx", "A 25298-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 43771-2023</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45187</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Slåtterfibbla
-Vätteros
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 43771-2023 artfynd.xlsx", "A 43771-2023")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 43771-2023 karta.png", "A 43771-2023")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 43771-2023 FSC-klagomål.docx", "A 43771-2023")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 43771-2023 FSC-klagomål mail.docx", "A 43771-2023")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 43771-2023 tillsynsbegäran.docx", "A 43771-2023")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 43771-2023 tillsynsbegäran mail.docx", "A 43771-2023")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 58567-2025</t>
+          <t>A 28512-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45986.36528935185</v>
+        <v>45819.48106481481</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1255,16 +1255,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>17.9</v>
+        <v>10.9</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1288,6 +1288,98 @@
         <v>4</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa
+Västlig hakmossa
+Tjäder</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 28512-2025 artfynd.xlsx", "A 28512-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 28512-2025 karta.png", "A 28512-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 28512-2025 FSC-klagomål.docx", "A 28512-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 28512-2025 FSC-klagomål mail.docx", "A 28512-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 28512-2025 tillsynsbegäran.docx", "A 28512-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 28512-2025 tillsynsbegäran mail.docx", "A 28512-2025")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 28512-2025 prioriterade fågelarter.docx", "A 28512-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 58567-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45986.36528935185</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Skogshare
 Spillkråka
@@ -1295,124 +1387,32 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 58567-2025 artfynd.xlsx", "A 58567-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 58567-2025 karta.png", "A 58567-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 58567-2025 FSC-klagomål.docx", "A 58567-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 58567-2025 FSC-klagomål mail.docx", "A 58567-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 58567-2025 tillsynsbegäran.docx", "A 58567-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 58567-2025 tillsynsbegäran mail.docx", "A 58567-2025")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 58567-2025 prioriterade fågelarter.docx", "A 58567-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 28512-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45819.48106481481</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa
-Västlig hakmossa
-Tjäder</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 28512-2025 artfynd.xlsx", "A 28512-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 28512-2025 karta.png", "A 28512-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 28512-2025 FSC-klagomål.docx", "A 28512-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 28512-2025 FSC-klagomål mail.docx", "A 28512-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 28512-2025 tillsynsbegäran.docx", "A 28512-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 28512-2025 tillsynsbegäran mail.docx", "A 28512-2025")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 28512-2025 prioriterade fågelarter.docx", "A 28512-2025")</f>
         <v/>
       </c>
     </row>
@@ -1426,7 +1426,7 @@
         <v>45072</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>46044.42456018519</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1602,14 +1602,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 13699-2024</t>
+          <t>A 23559-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45390</v>
+        <v>45072</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,14 +1621,19 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>6.6</v>
+        <v>1.7</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1657,49 +1662,49 @@
       <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
-Västlig hakmossa</t>
+Revlummer</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 13699-2024 artfynd.xlsx", "A 13699-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23559-2023 artfynd.xlsx", "A 23559-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 13699-2024 karta.png", "A 13699-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23559-2023 karta.png", "A 23559-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 13699-2024 FSC-klagomål.docx", "A 13699-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23559-2023 FSC-klagomål.docx", "A 23559-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 13699-2024 FSC-klagomål mail.docx", "A 13699-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23559-2023 FSC-klagomål mail.docx", "A 23559-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 13699-2024 tillsynsbegäran.docx", "A 13699-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23559-2023 tillsynsbegäran.docx", "A 23559-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 13699-2024 tillsynsbegäran mail.docx", "A 13699-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23559-2023 tillsynsbegäran mail.docx", "A 23559-2023")</f>
         <v/>
       </c>
       <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 13699-2024 prioriterade fågelarter.docx", "A 13699-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 23559-2023 prioriterade fågelarter.docx", "A 23559-2023")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 30968-2025</t>
+          <t>A 434-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45832.45538194444</v>
+        <v>45296.57905092592</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,8 +1716,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>7.7</v>
+        <v>6.3</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -1721,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1736,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1746,322 +1756,312 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
+          <t>Västlig hakmossa
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 434-2024 artfynd.xlsx", "A 434-2024")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 434-2024 karta.png", "A 434-2024")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 434-2024 FSC-klagomål.docx", "A 434-2024")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 434-2024 FSC-klagomål mail.docx", "A 434-2024")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 434-2024 tillsynsbegäran.docx", "A 434-2024")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 434-2024 tillsynsbegäran mail.docx", "A 434-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 13699-2024</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 13699-2024 artfynd.xlsx", "A 13699-2024")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 13699-2024 karta.png", "A 13699-2024")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 13699-2024 FSC-klagomål.docx", "A 13699-2024")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 13699-2024 FSC-klagomål mail.docx", "A 13699-2024")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 13699-2024 tillsynsbegäran.docx", "A 13699-2024")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 13699-2024 tillsynsbegäran mail.docx", "A 13699-2024")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 13699-2024 prioriterade fågelarter.docx", "A 13699-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 30968-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45832.45538194444</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Blåmossa</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 30968-2025 artfynd.xlsx", "A 30968-2025")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 30968-2025 karta.png", "A 30968-2025")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 30968-2025 FSC-klagomål.docx", "A 30968-2025")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 30968-2025 FSC-klagomål mail.docx", "A 30968-2025")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 30968-2025 tillsynsbegäran.docx", "A 30968-2025")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 30968-2025 tillsynsbegäran mail.docx", "A 30968-2025")</f>
         <v/>
       </c>
-      <c r="Z14">
+      <c r="Z16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 30968-2025 prioriterade fågelarter.docx", "A 30968-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 2437-2026</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>46036.9100925926</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
+      <c r="C17" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>6.8</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>2</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>2</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Sårläka
 Vätteros</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 2437-2026 artfynd.xlsx", "A 2437-2026")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 2437-2026 karta.png", "A 2437-2026")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 2437-2026 FSC-klagomål.docx", "A 2437-2026")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 2437-2026 FSC-klagomål mail.docx", "A 2437-2026")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 2437-2026 tillsynsbegäran.docx", "A 2437-2026")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 2437-2026 tillsynsbegäran mail.docx", "A 2437-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 23559-2023</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45072</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23559-2023 artfynd.xlsx", "A 23559-2023")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23559-2023 karta.png", "A 23559-2023")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23559-2023 FSC-klagomål.docx", "A 23559-2023")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23559-2023 FSC-klagomål mail.docx", "A 23559-2023")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23559-2023 tillsynsbegäran.docx", "A 23559-2023")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23559-2023 tillsynsbegäran mail.docx", "A 23559-2023")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 23559-2023 prioriterade fågelarter.docx", "A 23559-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 434-2024</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45296.57905092592</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Västlig hakmossa
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 434-2024 artfynd.xlsx", "A 434-2024")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 434-2024 karta.png", "A 434-2024")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 434-2024 FSC-klagomål.docx", "A 434-2024")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 434-2024 FSC-klagomål mail.docx", "A 434-2024")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 434-2024 tillsynsbegäran.docx", "A 434-2024")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 434-2024 tillsynsbegäran mail.docx", "A 434-2024")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 23497-2023</t>
+          <t>A 25655-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45072</v>
+        <v>45089</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2073,23 +2073,18 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>1.6</v>
+        <v>5.1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
@@ -2103,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2113,45 +2108,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Bergjohannesört</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23497-2023 artfynd.xlsx", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 25655-2023 artfynd.xlsx", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23497-2023 karta.png", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 25655-2023 karta.png", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23497-2023 FSC-klagomål.docx", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 25655-2023 FSC-klagomål.docx", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23497-2023 FSC-klagomål mail.docx", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 25655-2023 FSC-klagomål mail.docx", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23497-2023 tillsynsbegäran.docx", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 25655-2023 tillsynsbegäran.docx", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23497-2023 tillsynsbegäran mail.docx", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 25655-2023 tillsynsbegäran mail.docx", "A 25655-2023")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 23494-2023</t>
+          <t>A 30273-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45072</v>
+        <v>44759</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2163,13 +2158,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G19" t="n">
-        <v>1.3</v>
+        <v>12.5</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2203,49 +2193,49 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ärtsångare</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23494-2023 artfynd.xlsx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 30273-2022 artfynd.xlsx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23494-2023 karta.png", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 30273-2022 karta.png", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23494-2023 FSC-klagomål.docx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 30273-2022 FSC-klagomål.docx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23494-2023 FSC-klagomål mail.docx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 30273-2022 FSC-klagomål mail.docx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23494-2023 tillsynsbegäran.docx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 30273-2022 tillsynsbegäran.docx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23494-2023 tillsynsbegäran mail.docx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 30273-2022 tillsynsbegäran mail.docx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="Z19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 23494-2023 prioriterade fågelarter.docx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 30273-2022 prioriterade fågelarter.docx", "A 30273-2022")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 45941-2025</t>
+          <t>A 15351-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45924.31385416666</v>
+        <v>45400.8005787037</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2257,8 +2247,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2292,45 +2287,45 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Guldsandbi</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 45941-2025 artfynd.xlsx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 15351-2024 artfynd.xlsx", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 45941-2025 karta.png", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 15351-2024 karta.png", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 45941-2025 FSC-klagomål.docx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 15351-2024 FSC-klagomål.docx", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 45941-2025 FSC-klagomål mail.docx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 15351-2024 FSC-klagomål mail.docx", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 45941-2025 tillsynsbegäran.docx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 15351-2024 tillsynsbegäran.docx", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 45941-2025 tillsynsbegäran mail.docx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 15351-2024 tillsynsbegäran mail.docx", "A 15351-2024")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 25655-2023</t>
+          <t>A 7062-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45089</v>
+        <v>45343</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2343,16 +2338,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5.1</v>
+        <v>9.1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2367,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2377,45 +2372,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Bergjohannesört</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 25655-2023 artfynd.xlsx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 7062-2024 artfynd.xlsx", "A 7062-2024")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 25655-2023 karta.png", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 7062-2024 karta.png", "A 7062-2024")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 25655-2023 FSC-klagomål.docx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 7062-2024 FSC-klagomål.docx", "A 7062-2024")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 25655-2023 FSC-klagomål mail.docx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 7062-2024 FSC-klagomål mail.docx", "A 7062-2024")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 25655-2023 tillsynsbegäran.docx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 7062-2024 tillsynsbegäran.docx", "A 7062-2024")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 25655-2023 tillsynsbegäran mail.docx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 7062-2024 tillsynsbegäran mail.docx", "A 7062-2024")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 15351-2024</t>
+          <t>A 23497-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45400.8005787037</v>
+        <v>45072</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2433,16 +2428,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2457,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2467,45 +2462,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Guldsandbi</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 15351-2024 artfynd.xlsx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23497-2023 artfynd.xlsx", "A 23497-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 15351-2024 karta.png", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23497-2023 karta.png", "A 23497-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 15351-2024 FSC-klagomål.docx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23497-2023 FSC-klagomål.docx", "A 23497-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 15351-2024 FSC-klagomål mail.docx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23497-2023 FSC-klagomål mail.docx", "A 23497-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 15351-2024 tillsynsbegäran.docx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23497-2023 tillsynsbegäran.docx", "A 23497-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 15351-2024 tillsynsbegäran mail.docx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23497-2023 tillsynsbegäran mail.docx", "A 23497-2023")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 30273-2022</t>
+          <t>A 54358-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44759</v>
+        <v>45617.40755787037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2518,7 +2513,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>12.5</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -2527,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2542,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2552,49 +2547,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Ärtsångare</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 30273-2022 artfynd.xlsx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 54358-2024 artfynd.xlsx", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 30273-2022 karta.png", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 54358-2024 karta.png", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 30273-2022 FSC-klagomål.docx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 54358-2024 FSC-klagomål.docx", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 30273-2022 FSC-klagomål mail.docx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 54358-2024 FSC-klagomål mail.docx", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 30273-2022 tillsynsbegäran.docx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 54358-2024 tillsynsbegäran.docx", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 30273-2022 tillsynsbegäran mail.docx", "A 30273-2022")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 30273-2022 prioriterade fågelarter.docx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 54358-2024 tillsynsbegäran mail.docx", "A 54358-2024")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 54358-2024</t>
+          <t>A 23494-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45617.40755787037</v>
+        <v>45072</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2606,8 +2597,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -2616,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2631,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2641,45 +2637,49 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 54358-2024 artfynd.xlsx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23494-2023 artfynd.xlsx", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 54358-2024 karta.png", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23494-2023 karta.png", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 54358-2024 FSC-klagomål.docx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23494-2023 FSC-klagomål.docx", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 54358-2024 FSC-klagomål mail.docx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23494-2023 FSC-klagomål mail.docx", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 54358-2024 tillsynsbegäran.docx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23494-2023 tillsynsbegäran.docx", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 54358-2024 tillsynsbegäran mail.docx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23494-2023 tillsynsbegäran mail.docx", "A 23494-2023")</f>
+        <v/>
+      </c>
+      <c r="Z24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 23494-2023 prioriterade fågelarter.docx", "A 23494-2023")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 7062-2024</t>
+          <t>A 45941-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45343</v>
+        <v>45924.31385416666</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2692,17 +2692,17 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>9.1</v>
+        <v>1.2</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2726,31 +2726,31 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 7062-2024 artfynd.xlsx", "A 7062-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 45941-2025 artfynd.xlsx", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 7062-2024 karta.png", "A 7062-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 45941-2025 karta.png", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 7062-2024 FSC-klagomål.docx", "A 7062-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 45941-2025 FSC-klagomål.docx", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 7062-2024 FSC-klagomål mail.docx", "A 7062-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 45941-2025 FSC-klagomål mail.docx", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 7062-2024 tillsynsbegäran.docx", "A 7062-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 45941-2025 tillsynsbegäran.docx", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 7062-2024 tillsynsbegäran mail.docx", "A 7062-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 45941-2025 tillsynsbegäran mail.docx", "A 45941-2025")</f>
         <v/>
       </c>
     </row>
@@ -2764,7 +2764,7 @@
         <v>45986.36644675926</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44812</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44309.35467592593</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2960,14 +2960,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 30046-2021</t>
+          <t>A 9541-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44363</v>
+        <v>44251</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -3017,14 +3017,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 9541-2021</t>
+          <t>A 30046-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44251</v>
+        <v>44363</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>44581</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44875.56251157408</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>44637</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>44685.67520833333</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>44760</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44319.62640046296</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44720.45840277777</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>44365.70123842593</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>44365.70269675926</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>44627</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>44343.5096412037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>44298.46679398148</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44280</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3820,14 +3820,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 33528-2021</t>
+          <t>A 8830-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44377.80355324074</v>
+        <v>44246</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3877,14 +3877,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 41630-2021</t>
+          <t>A 38386-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44425.45646990741</v>
+        <v>44812.72657407408</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.1</v>
+        <v>0.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3934,14 +3934,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 55768-2021</t>
+          <t>A 9801-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44476.53376157407</v>
+        <v>44252</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3991,14 +3991,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 52953-2021</t>
+          <t>A 33528-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44467</v>
+        <v>44377.80355324074</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4048,14 +4048,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 36359-2022</t>
+          <t>A 55768-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44803.87314814814</v>
+        <v>44476.53376157407</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4105,14 +4105,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 8830-2021</t>
+          <t>A 41420-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44246</v>
+        <v>44826.6478125</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4162,14 +4162,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 38386-2022</t>
+          <t>A 10023-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44812.72657407408</v>
+        <v>44256</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4219,14 +4219,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 9801-2021</t>
+          <t>A 41630-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44252</v>
+        <v>44425.45646990741</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4283,7 +4283,7 @@
         <v>44363</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44363</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4390,14 +4390,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 10023-2021</t>
+          <t>A 24291-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44256</v>
+        <v>44337.31774305556</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>5.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4447,14 +4447,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 41420-2022</t>
+          <t>A 52953-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44826.6478125</v>
+        <v>44467</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4504,14 +4504,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 24291-2021</t>
+          <t>A 51569-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44337.31774305556</v>
+        <v>44462</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>5.9</v>
+        <v>4.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4561,14 +4561,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 51569-2021</t>
+          <t>A 38059-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44462</v>
+        <v>44811.6625462963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.1</v>
+        <v>0.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4618,14 +4618,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 38059-2022</t>
+          <t>A 296-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44811.6625462963</v>
+        <v>44565.47288194444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4675,14 +4675,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 296-2022</t>
+          <t>A 30284-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44565.47288194444</v>
+        <v>44760</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4732,14 +4732,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 30284-2022</t>
+          <t>A 30287-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
         <v>44760</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4789,14 +4789,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 30287-2022</t>
+          <t>A 7832-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44760</v>
+        <v>44242</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.4</v>
+        <v>3.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4846,14 +4846,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 7832-2021</t>
+          <t>A 55972-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44242</v>
+        <v>44889</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4903,14 +4903,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 10726-2022</t>
+          <t>A 33993-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44627.32611111111</v>
+        <v>45134.92311342592</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4960,14 +4960,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 58750-2021</t>
+          <t>A 33996-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44489</v>
+        <v>45134.92869212963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5017,14 +5017,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 35423-2025</t>
+          <t>A 10726-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45855.4134837963</v>
+        <v>44627.32611111111</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5074,14 +5074,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 61952-2024</t>
+          <t>A 36359-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45653.50980324074</v>
+        <v>44803.87314814814</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5131,14 +5131,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 13631-2024</t>
+          <t>A 38383-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45390.41417824074</v>
+        <v>44812</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>16.4</v>
+        <v>1.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5188,14 +5188,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 38383-2022</t>
+          <t>A 65619-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44812</v>
+        <v>44516.53974537037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5245,14 +5245,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 33527-2021</t>
+          <t>A 49384-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44377.79693287037</v>
+        <v>45205</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5264,8 +5264,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5302,14 +5307,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 12234-2024</t>
+          <t>A 51488-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45378.36106481482</v>
+        <v>44869</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5322,7 +5327,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5359,14 +5364,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 48904-2024</t>
+          <t>A 12234-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45594.35560185185</v>
+        <v>45378.36106481482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5379,7 +5384,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5416,14 +5421,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 37508-2023</t>
+          <t>A 28910-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45158.42202546296</v>
+        <v>45480.65789351852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5436,7 +5441,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>6.9</v>
+        <v>1.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5473,14 +5478,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 37509-2023</t>
+          <t>A 11604-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45158.43357638889</v>
+        <v>45373.39337962963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5493,7 +5498,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5530,14 +5535,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 38442-2023</t>
+          <t>A 26886-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45162.39668981481</v>
+        <v>45093</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5550,7 +5555,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5587,14 +5592,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 15159-2023</t>
+          <t>A 15567-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45016.58609953704</v>
+        <v>44662</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5606,13 +5611,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5649,14 +5649,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 2867-2025</t>
+          <t>A 16489-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45677.67715277777</v>
+        <v>45751.58628472222</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>10.7</v>
+        <v>3.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5706,14 +5706,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 4881-2024</t>
+          <t>A 1382-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45329.44875</v>
+        <v>45303.56011574074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5763,14 +5763,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 37510-2023</t>
+          <t>A 28022-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45158</v>
+        <v>45098.95484953704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.1</v>
+        <v>5.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5827,7 +5827,7 @@
         <v>45092</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5877,14 +5877,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 41759-2025</t>
+          <t>A 17114-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45902.51219907407</v>
+        <v>45034.58234953704</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5934,14 +5934,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 43770-2023</t>
+          <t>A 58750-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45187.50803240741</v>
+        <v>44489</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5991,14 +5991,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 49879-2023</t>
+          <t>A 7947-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45213</v>
+        <v>45350</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6048,14 +6048,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 44445-2023</t>
+          <t>A 587-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45189.37668981482</v>
+        <v>45664.58135416666</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.8</v>
+        <v>0.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6105,14 +6105,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 41756-2025</t>
+          <t>A 13887-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45902.50689814815</v>
+        <v>45391.61759259259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>11.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6162,14 +6162,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 41758-2025</t>
+          <t>A 32110-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45902.51023148148</v>
+        <v>45119.61902777778</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6219,14 +6219,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 41760-2025</t>
+          <t>A 61284-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45902.51596064815</v>
+        <v>44915</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6276,14 +6276,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 41761-2025</t>
+          <t>A 52431-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45902.51922453703</v>
+        <v>45225.33118055556</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>6.6</v>
+        <v>0.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6333,14 +6333,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 33991-2023</t>
+          <t>A 13581-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45134.90613425926</v>
+        <v>45006.54443287037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6352,8 +6352,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6390,14 +6395,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 54681-2021</t>
+          <t>A 7912-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44473</v>
+        <v>45350</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6410,7 +6415,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6447,14 +6452,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 5328-2025</t>
+          <t>A 55991-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45692.53454861111</v>
+        <v>44889</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6467,7 +6472,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6504,14 +6509,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 35422-2025</t>
+          <t>A 54681-2021</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45855.41179398148</v>
+        <v>44473</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6524,7 +6529,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6561,14 +6566,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 19079-2025</t>
+          <t>A 6323-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45766.61758101852</v>
+        <v>44960</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6580,8 +6585,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6618,14 +6628,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 42857-2025</t>
+          <t>A 11104-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45908.6132175926</v>
+        <v>45371.32724537037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6638,7 +6648,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6675,14 +6685,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 32107-2023</t>
+          <t>A 11102-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45119.61793981482</v>
+        <v>45371.32438657407</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6695,7 +6705,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6732,14 +6742,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 406-2024</t>
+          <t>A 54804-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45296</v>
+        <v>44883</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6752,7 +6762,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.8</v>
+        <v>22.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6789,14 +6799,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 21304-2025</t>
+          <t>A 5811-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45781.36851851852</v>
+        <v>45694.7127662037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6809,7 +6819,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6846,14 +6856,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 3867-2025</t>
+          <t>A 5740-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45684</v>
+        <v>45694.5205324074</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6866,7 +6876,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6903,14 +6913,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 21617-2024</t>
+          <t>A 6384-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45441.97630787037</v>
+        <v>45699.42287037037</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6923,7 +6933,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>9.699999999999999</v>
+        <v>2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6960,14 +6970,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 22561-2025</t>
+          <t>A 13382-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45789.3449537037</v>
+        <v>45005.50784722222</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6980,7 +6990,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7017,14 +7027,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 12782-2025</t>
+          <t>A 36984-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45733.59701388889</v>
+        <v>45539.32334490741</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7037,7 +7047,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7074,14 +7084,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 12790-2025</t>
+          <t>A 47511-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45733.60599537037</v>
+        <v>45587.61174768519</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7094,7 +7104,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7131,14 +7141,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 12243-2025</t>
+          <t>A 43770-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45729</v>
+        <v>45187.50803240741</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7151,7 +7161,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>10.2</v>
+        <v>0.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7188,14 +7198,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 44104-2025</t>
+          <t>A 8117-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45915.56895833334</v>
+        <v>44974</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7208,7 +7218,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7245,14 +7255,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 11329-2025</t>
+          <t>A 4881-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45726.47752314815</v>
+        <v>45329.44875</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7265,7 +7275,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7302,14 +7312,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 14891-2025</t>
+          <t>A 27222-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45743.47010416666</v>
+        <v>45812.42443287037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7322,7 +7332,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7359,14 +7369,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 30724-2024</t>
+          <t>A 46561-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45496</v>
+        <v>45582.67883101852</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7379,7 +7389,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.5</v>
+        <v>12.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7416,14 +7426,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 43684-2025</t>
+          <t>A 27620-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45912.37804398148</v>
+        <v>45813.54954861111</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7436,7 +7446,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7473,14 +7483,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 23374-2025</t>
+          <t>A 38093-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45791.77096064815</v>
+        <v>44811.94373842593</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7493,7 +7503,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7530,14 +7540,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 23509-2025</t>
+          <t>A 12628-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45792.49081018518</v>
+        <v>45000</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7550,7 +7560,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7587,14 +7597,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 5743-2025</t>
+          <t>A 28515-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45694.52391203704</v>
+        <v>45819.48321759259</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7607,7 +7617,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7644,14 +7654,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 49384-2023</t>
+          <t>A 38522-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45205</v>
+        <v>45546.56513888889</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7669,7 +7679,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.2</v>
+        <v>5.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7706,14 +7716,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 20037-2025</t>
+          <t>A 50349-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45772</v>
+        <v>45600.81916666667</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7726,7 +7736,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7763,14 +7773,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 47511-2024</t>
+          <t>A 47509-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45587.61174768519</v>
+        <v>45587.60949074074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7783,7 +7793,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7820,14 +7830,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 24053-2025</t>
+          <t>A 16473-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45796</v>
+        <v>44671</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7840,7 +7850,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>11.1</v>
+        <v>1.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7877,14 +7887,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 61435-2024</t>
+          <t>A 28903-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45646.46203703704</v>
+        <v>45480.54913194444</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7897,7 +7907,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7934,14 +7944,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 44916-2025</t>
+          <t>A 20037-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45918.54886574074</v>
+        <v>45772</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7954,7 +7964,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.6</v>
+        <v>3.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7991,14 +8001,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 44918-2025</t>
+          <t>A 9046-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45918.5504050926</v>
+        <v>44615.44694444445</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8011,7 +8021,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>5.7</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8048,14 +8058,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 44914-2025</t>
+          <t>A 12647-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45918.54420138889</v>
+        <v>45000</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8068,7 +8078,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8105,14 +8115,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 7819-2025</t>
+          <t>A 20031-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45706.63945601852</v>
+        <v>45772</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8125,7 +8135,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8162,14 +8172,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 44915-2025</t>
+          <t>A 40092-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45918.54668981482</v>
+        <v>45554.3884375</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8182,7 +8192,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8219,14 +8229,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 5612-2025</t>
+          <t>A 57754-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45693.60490740741</v>
+        <v>45246.79032407407</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8239,7 +8249,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8276,14 +8286,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 28022-2023</t>
+          <t>A 61435-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45098.95484953704</v>
+        <v>45646.46203703704</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8296,7 +8306,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>5.7</v>
+        <v>0.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8333,14 +8343,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 37063-2024</t>
+          <t>A 48904-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45539.45819444444</v>
+        <v>45594.35560185185</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8353,7 +8363,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>8.800000000000001</v>
+        <v>3.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8390,14 +8400,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 587-2025</t>
+          <t>A 28021-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45664.58135416666</v>
+        <v>45098.95337962963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8410,7 +8420,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8447,14 +8457,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 12628-2023</t>
+          <t>A 17510-2021</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45000</v>
+        <v>44299</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8467,7 +8477,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8504,14 +8514,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 5740-2025</t>
+          <t>A 14929-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45694.5205324074</v>
+        <v>45398.64460648148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8524,7 +8534,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.4</v>
+        <v>5.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8561,14 +8571,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 6384-2025</t>
+          <t>A 21630-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45699.42287037037</v>
+        <v>45442.32711805555</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8581,7 +8591,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2</v>
+        <v>4.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8618,14 +8628,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 36984-2024</t>
+          <t>A 5328-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45539.32334490741</v>
+        <v>45692.53454861111</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8638,7 +8648,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8675,14 +8685,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 27222-2025</t>
+          <t>A 37510-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45812.42443287037</v>
+        <v>45158</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8695,7 +8705,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8732,14 +8742,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 27620-2025</t>
+          <t>A 35420-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45813.54954861111</v>
+        <v>45855.41025462963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8752,7 +8762,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8789,14 +8799,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 65619-2021</t>
+          <t>A 35416-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44516.53974537037</v>
+        <v>45855.40481481481</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8809,7 +8819,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8846,14 +8856,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 28515-2025</t>
+          <t>A 43767-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45819.48321759259</v>
+        <v>45187.50667824074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8866,7 +8876,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8903,14 +8913,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 55972-2022</t>
+          <t>A 35717-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44889</v>
+        <v>45860.42960648148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8923,7 +8933,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8960,14 +8970,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 41411-2022</t>
+          <t>A 33991-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44826.63782407407</v>
+        <v>45134.90613425926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8980,7 +8990,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9017,14 +9027,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 12647-2023</t>
+          <t>A 44445-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45000</v>
+        <v>45189.37668981482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9037,7 +9047,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9074,14 +9084,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 8117-2023</t>
+          <t>A 37190-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44974</v>
+        <v>45875.64939814815</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9094,7 +9104,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>11</v>
+        <v>3.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9131,14 +9141,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 57381-2022</t>
+          <t>A 41411-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44896</v>
+        <v>44826.63782407407</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9151,7 +9161,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9188,14 +9198,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 32110-2023</t>
+          <t>A 17116-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45119.61902777778</v>
+        <v>45034.58351851852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9208,7 +9218,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9245,14 +9255,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 48730-2025</t>
+          <t>A 37152-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45936.65984953703</v>
+        <v>45875</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9265,7 +9275,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9302,14 +9312,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 16489-2025</t>
+          <t>A 4225-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45751.58628472222</v>
+        <v>45324.41422453704</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9322,7 +9332,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9359,14 +9369,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 48727-2025</t>
+          <t>A 4227-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45936.65829861111</v>
+        <v>45324.41612268519</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9379,7 +9389,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>6.1</v>
+        <v>1.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9416,14 +9426,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 49188-2025</t>
+          <t>A 37508-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45938.40711805555</v>
+        <v>45158.42202546296</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9436,7 +9446,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.7</v>
+        <v>6.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9473,14 +9483,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 13801-2025</t>
+          <t>A 37509-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45737</v>
+        <v>45158.43357638889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9493,7 +9503,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9530,14 +9540,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 35416-2025</t>
+          <t>A 35718-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45855.40481481481</v>
+        <v>45860.4315162037</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9550,7 +9560,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.8</v>
+        <v>7.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9587,14 +9597,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 35420-2025</t>
+          <t>A 12760-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45855.41025462963</v>
+        <v>45001</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9607,7 +9617,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9644,14 +9654,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 50349-2024</t>
+          <t>A 61952-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45600.81916666667</v>
+        <v>45653.50980324074</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9664,7 +9674,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9701,14 +9711,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 11102-2024</t>
+          <t>A 12784-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45371.32438657407</v>
+        <v>45733.59857638889</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9721,7 +9731,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9758,14 +9768,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 35717-2025</t>
+          <t>A 5612-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45860.42960648148</v>
+        <v>45693.60490740741</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9778,7 +9788,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9815,14 +9825,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 56584-2025</t>
+          <t>A 2867-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45974</v>
+        <v>45677.67715277777</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9835,7 +9845,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.8</v>
+        <v>10.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9872,14 +9882,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 7912-2024</t>
+          <t>A 302-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45350</v>
+        <v>45295</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9891,8 +9901,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9929,14 +9944,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 13581-2023</t>
+          <t>A 35423-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45006.54443287037</v>
+        <v>45855.4134837963</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9948,13 +9963,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9991,14 +10001,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 8071-2024</t>
+          <t>A 29066-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45351</v>
+        <v>45481.69738425926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10011,7 +10021,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.6</v>
+        <v>7.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10048,14 +10058,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 37190-2025</t>
+          <t>A 29067-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45875.64939814815</v>
+        <v>45481.70640046296</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10068,7 +10078,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3.3</v>
+        <v>10.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10105,14 +10115,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 13975-2023</t>
+          <t>A 29068-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45008</v>
+        <v>45481.71290509259</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10125,7 +10135,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10162,14 +10172,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 16473-2022</t>
+          <t>A 38442-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44671</v>
+        <v>45162.39668981481</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10182,7 +10192,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10219,14 +10229,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 37152-2025</t>
+          <t>A 19079-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45875</v>
+        <v>45766.61758101852</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10239,7 +10249,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10276,14 +10286,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 6323-2023</t>
+          <t>A 5324-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44960</v>
+        <v>45692.5303125</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10295,13 +10305,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>0.5</v>
+        <v>5.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10338,14 +10343,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 12784-2025</t>
+          <t>A 13631-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45733.59857638889</v>
+        <v>45390.41417824074</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10358,7 +10363,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.2</v>
+        <v>16.4</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10395,14 +10400,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 35718-2025</t>
+          <t>A 37063-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45860.4315162037</v>
+        <v>45539.45819444444</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10415,7 +10420,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10452,14 +10457,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 40092-2024</t>
+          <t>A 15159-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45554.3884375</v>
+        <v>45016.58609953704</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10471,8 +10476,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10509,14 +10519,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 57754-2023</t>
+          <t>A 550-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45246.79032407407</v>
+        <v>45299</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10529,7 +10539,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10566,14 +10576,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 45469-2024</t>
+          <t>A 13975-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45576.73229166667</v>
+        <v>45008</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10586,7 +10596,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>7.2</v>
+        <v>2.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10623,14 +10633,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 28021-2023</t>
+          <t>A 41756-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45098.95337962963</v>
+        <v>45902.50689814815</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10643,7 +10653,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10680,14 +10690,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 26886-2023</t>
+          <t>A 41758-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45093</v>
+        <v>45902.51023148148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10700,7 +10710,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.6</v>
+        <v>1.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10737,14 +10747,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 302-2024</t>
+          <t>A 41760-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45295</v>
+        <v>45902.51596064815</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10756,13 +10766,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10799,14 +10804,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 29066-2024</t>
+          <t>A 41761-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45481.69738425926</v>
+        <v>45902.51922453703</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10819,7 +10824,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>7.9</v>
+        <v>6.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10856,14 +10861,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 29067-2024</t>
+          <t>A 41759-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45481.70640046296</v>
+        <v>45902.51219907407</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10876,7 +10881,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>10.4</v>
+        <v>1.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10913,14 +10918,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 29068-2024</t>
+          <t>A 33527-2021</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45481.71290509259</v>
+        <v>44377.79693287037</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10933,7 +10938,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10970,14 +10975,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 4225-2024</t>
+          <t>A 8071-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45324.41422453704</v>
+        <v>45351</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10990,7 +10995,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11027,14 +11032,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 4227-2024</t>
+          <t>A 6489-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45324.41612268519</v>
+        <v>45699.62678240741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11047,7 +11052,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11084,14 +11089,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 55324-2025</t>
+          <t>A 45469-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45971.33519675926</v>
+        <v>45576.73229166667</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11103,13 +11108,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>2.6</v>
+        <v>7.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11146,14 +11146,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 38093-2022</t>
+          <t>A 35422-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44811.94373842593</v>
+        <v>45855.41179398148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11203,14 +11203,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 56854-2025</t>
+          <t>A 42857-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45978.49476851852</v>
+        <v>45908.6132175926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>6.4</v>
+        <v>1.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11260,14 +11260,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 56855-2025</t>
+          <t>A 406-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45978.4962962963</v>
+        <v>45296</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11317,14 +11317,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 5420-2025</t>
+          <t>A 32107-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45692.68938657407</v>
+        <v>45119.61793981482</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11374,14 +11374,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 51488-2022</t>
+          <t>A 62730-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44869</v>
+        <v>45268</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11431,14 +11431,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 6489-2025</t>
+          <t>A 43684-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45699.62678240741</v>
+        <v>45912.37804398148</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11488,14 +11488,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 9046-2022</t>
+          <t>A 49879-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44615.44694444445</v>
+        <v>45213</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11545,14 +11545,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 46561-2024</t>
+          <t>A 44104-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45582.67883101852</v>
+        <v>45915.56895833334</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>12.2</v>
+        <v>1.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11602,14 +11602,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 17510-2021</t>
+          <t>A 44914-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44299</v>
+        <v>45918.54420138889</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11659,14 +11659,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 28903-2024</t>
+          <t>A 44915-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45480.54913194444</v>
+        <v>45918.54668981482</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11716,14 +11716,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 2226-2026</t>
+          <t>A 44918-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46036.51820601852</v>
+        <v>45918.5504050926</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.3</v>
+        <v>5.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11773,14 +11773,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 61284-2022</t>
+          <t>A 44916-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44915</v>
+        <v>45918.54886574074</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11830,14 +11830,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 12760-2023</t>
+          <t>A 5420-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45001</v>
+        <v>45692.68938657407</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11887,14 +11887,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 62730-2023</t>
+          <t>A 21304-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45268</v>
+        <v>45781.36851851852</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11944,14 +11944,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 2438-2026</t>
+          <t>A 3867-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>46036.91210648148</v>
+        <v>45684</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12001,14 +12001,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 11604-2024</t>
+          <t>A 57381-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45373.39337962963</v>
+        <v>44896</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12058,14 +12058,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 5324-2025</t>
+          <t>A 48727-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45692.5303125</v>
+        <v>45936.65829861111</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>5.1</v>
+        <v>6.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12115,14 +12115,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 61475-2025</t>
+          <t>A 48730-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46001.61959490741</v>
+        <v>45936.65984953703</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12172,14 +12172,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 61695-2025</t>
+          <t>A 21617-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>46002.52787037037</v>
+        <v>45441.97630787037</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>3.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12229,14 +12229,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 5811-2025</t>
+          <t>A 13801-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45694.7127662037</v>
+        <v>45737</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12286,14 +12286,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 54804-2022</t>
+          <t>A 49188-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44883</v>
+        <v>45938.40711805555</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>22.6</v>
+        <v>1.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12343,14 +12343,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 20031-2025</t>
+          <t>A 56584-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45772</v>
+        <v>45974</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>6.2</v>
+        <v>1.8</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12400,14 +12400,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 52431-2023</t>
+          <t>A 30724-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45225.33118055556</v>
+        <v>45496</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12457,14 +12457,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 33993-2023</t>
+          <t>A 22561-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45134.92311342592</v>
+        <v>45789.3449537037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12514,14 +12514,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 33996-2023</t>
+          <t>A 11329-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45134.92869212963</v>
+        <v>45726.47752314815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.6</v>
+        <v>4.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12571,14 +12571,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 7947-2024</t>
+          <t>A 23509-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45350</v>
+        <v>45792.49081018518</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12628,14 +12628,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 55991-2022</t>
+          <t>A 23374-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44889</v>
+        <v>45791.77096064815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12685,14 +12685,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 5834-2026</t>
+          <t>A 12790-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>46052.33366898148</v>
+        <v>45733.60599537037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12704,13 +12704,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>9.9</v>
+        <v>2.9</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12743,38 +12738,18 @@
         <v>0</v>
       </c>
       <c r="R199" s="2" t="inlineStr"/>
-      <c r="U199">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/knärot/A 5834-2026 karta knärot.png", "A 5834-2026")</f>
-        <v/>
-      </c>
-      <c r="V199">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 5834-2026 FSC-klagomål.docx", "A 5834-2026")</f>
-        <v/>
-      </c>
-      <c r="W199">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 5834-2026 FSC-klagomål mail.docx", "A 5834-2026")</f>
-        <v/>
-      </c>
-      <c r="X199">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 5834-2026 tillsynsbegäran.docx", "A 5834-2026")</f>
-        <v/>
-      </c>
-      <c r="Y199">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 5834-2026 tillsynsbegäran mail.docx", "A 5834-2026")</f>
-        <v/>
-      </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 17116-2023</t>
+          <t>A 12782-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45034.58351851852</v>
+        <v>45733.59701388889</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12787,7 +12762,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12824,14 +12799,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 5866-2026</t>
+          <t>A 12243-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>46052.3075925926</v>
+        <v>45729</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12843,13 +12818,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G201" t="n">
-        <v>3.1</v>
+        <v>10.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12886,14 +12856,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 63703-2025</t>
+          <t>A 14891-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>46014.60188657408</v>
+        <v>45743.47010416666</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12906,7 +12876,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12943,14 +12913,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 15567-2022</t>
+          <t>A 24053-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44662</v>
+        <v>45796</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12963,7 +12933,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.6</v>
+        <v>11.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13000,14 +12970,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 21630-2024</t>
+          <t>A 5743-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45442.32711805555</v>
+        <v>45694.52391203704</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13020,7 +12990,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>4.6</v>
+        <v>0.8</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13057,14 +13027,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 13382-2023</t>
+          <t>A 7819-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45005.50784722222</v>
+        <v>45706.63945601852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13077,7 +13047,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>3.4</v>
+        <v>5.6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13114,14 +13084,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 550-2024</t>
+          <t>A 55324-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45299</v>
+        <v>45971.33519675926</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13133,8 +13103,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G206" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13171,14 +13146,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 13887-2024</t>
+          <t>A 56854-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45391.61759259259</v>
+        <v>45978.49476851852</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13191,7 +13166,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>11.3</v>
+        <v>6.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13228,14 +13203,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 47509-2024</t>
+          <t>A 56855-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45587.60949074074</v>
+        <v>45978.4962962963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13248,7 +13223,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13285,14 +13260,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 14929-2024</t>
+          <t>A 2226-2026</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45398.64460648148</v>
+        <v>46036.51820601852</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13305,7 +13280,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>5.1</v>
+        <v>1.3</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13342,14 +13317,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 11104-2024</t>
+          <t>A 2438-2026</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45371.32724537037</v>
+        <v>46036.91210648148</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13362,7 +13337,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13399,14 +13374,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 28910-2024</t>
+          <t>A 61475-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45480.65789351852</v>
+        <v>46001.61959490741</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13419,7 +13394,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.7</v>
+        <v>4.6</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13456,14 +13431,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 1382-2024</t>
+          <t>A 61695-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45303.56011574074</v>
+        <v>46002.52787037037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13476,7 +13451,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13513,14 +13488,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 17114-2023</t>
+          <t>A 5866-2026</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45034.58234953704</v>
+        <v>46052.3075925926</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13532,8 +13507,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13570,14 +13550,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 43767-2023</t>
+          <t>A 5834-2026</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45187.50667824074</v>
+        <v>46052.33366898148</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13589,8 +13569,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>2.3</v>
+        <v>9.9</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13623,18 +13608,38 @@
         <v>0</v>
       </c>
       <c r="R214" s="2" t="inlineStr"/>
+      <c r="U214">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/knärot/A 5834-2026 karta knärot.png", "A 5834-2026")</f>
+        <v/>
+      </c>
+      <c r="V214">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 5834-2026 FSC-klagomål.docx", "A 5834-2026")</f>
+        <v/>
+      </c>
+      <c r="W214">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 5834-2026 FSC-klagomål mail.docx", "A 5834-2026")</f>
+        <v/>
+      </c>
+      <c r="X214">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 5834-2026 tillsynsbegäran.docx", "A 5834-2026")</f>
+        <v/>
+      </c>
+      <c r="Y214">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 5834-2026 tillsynsbegäran mail.docx", "A 5834-2026")</f>
+        <v/>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 38522-2024</t>
+          <t>A 63703-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45546.56513888889</v>
+        <v>46014.60188657408</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13646,13 +13651,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G215" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>

--- a/Översikt LILLA EDET.xlsx
+++ b/Översikt LILLA EDET.xlsx
@@ -575,7 +575,7 @@
         <v>45295</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,14 +670,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 318-2024</t>
+          <t>A 30285-2025</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45295</v>
+        <v>45827</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -689,23 +689,18 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G3" t="n">
-        <v>8.1</v>
+        <v>29.6</v>
       </c>
       <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J3" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="n">
-        <v>6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
@@ -719,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -728,6 +723,107 @@
         <v>8</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Dofttaggsvamp
+Spillkråka
+Blåmossa
+Klippfrullania
+Stor revmossa
+Västlig hakmossa
+Mattlummer
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 30285-2025 artfynd.xlsx", "A 30285-2025")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 30285-2025 karta.png", "A 30285-2025")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 30285-2025 FSC-klagomål.docx", "A 30285-2025")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 30285-2025 FSC-klagomål mail.docx", "A 30285-2025")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 30285-2025 tillsynsbegäran.docx", "A 30285-2025")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 30285-2025 tillsynsbegäran mail.docx", "A 30285-2025")</f>
+        <v/>
+      </c>
+      <c r="Z3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 30285-2025 prioriterade fågelarter.docx", "A 30285-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 318-2024</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45295</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>8</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Blåmossa
@@ -739,128 +835,32 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 318-2024 artfynd.xlsx", "A 318-2024")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 318-2024 karta.png", "A 318-2024")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 318-2024 FSC-klagomål.docx", "A 318-2024")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 318-2024 FSC-klagomål mail.docx", "A 318-2024")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 318-2024 tillsynsbegäran.docx", "A 318-2024")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 318-2024 tillsynsbegäran mail.docx", "A 318-2024")</f>
         <v/>
       </c>
-      <c r="Z3">
+      <c r="Z4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 318-2024 prioriterade fågelarter.docx", "A 318-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 30285-2025</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45827</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>8</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Dofttaggsvamp
-Spillkråka
-Blåmossa
-Klippfrullania
-Stor revmossa
-Västlig hakmossa
-Mattlummer
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 30285-2025 artfynd.xlsx", "A 30285-2025")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 30285-2025 karta.png", "A 30285-2025")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 30285-2025 FSC-klagomål.docx", "A 30285-2025")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 30285-2025 FSC-klagomål mail.docx", "A 30285-2025")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 30285-2025 tillsynsbegäran.docx", "A 30285-2025")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 30285-2025 tillsynsbegäran mail.docx", "A 30285-2025")</f>
-        <v/>
-      </c>
-      <c r="Z4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 30285-2025 prioriterade fågelarter.docx", "A 30285-2025")</f>
         <v/>
       </c>
     </row>
@@ -874,7 +874,7 @@
         <v>45272</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>45139</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,14 +1050,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 43771-2023</t>
+          <t>A 25298-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45187</v>
+        <v>45462</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1069,14 +1069,19 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G7" t="n">
-        <v>1.7</v>
+        <v>5.9</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -1085,24 +1090,208 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>1</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>4</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Björksplintborre
+Västlig hakmossa
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 25298-2024 artfynd.xlsx", "A 25298-2024")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 25298-2024 karta.png", "A 25298-2024")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 25298-2024 FSC-klagomål.docx", "A 25298-2024")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 25298-2024 FSC-klagomål mail.docx", "A 25298-2024")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 25298-2024 tillsynsbegäran.docx", "A 25298-2024")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 25298-2024 tillsynsbegäran mail.docx", "A 25298-2024")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 25298-2024 prioriterade fågelarter.docx", "A 25298-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 28512-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45819.48106481481</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa
+Västlig hakmossa
+Tjäder</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 28512-2025 artfynd.xlsx", "A 28512-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 28512-2025 karta.png", "A 28512-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 28512-2025 FSC-klagomål.docx", "A 28512-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 28512-2025 FSC-klagomål mail.docx", "A 28512-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 28512-2025 tillsynsbegäran.docx", "A 28512-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 28512-2025 tillsynsbegäran mail.docx", "A 28512-2025")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 28512-2025 prioriterade fågelarter.docx", "A 28512-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 43771-2023</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Ask
 Slåtterfibbla
@@ -1110,217 +1299,28 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 43771-2023 artfynd.xlsx", "A 43771-2023")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 43771-2023 karta.png", "A 43771-2023")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 43771-2023 FSC-klagomål.docx", "A 43771-2023")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 43771-2023 FSC-klagomål mail.docx", "A 43771-2023")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 43771-2023 tillsynsbegäran.docx", "A 43771-2023")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 43771-2023 tillsynsbegäran mail.docx", "A 43771-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 25298-2024</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45462</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Björksplintborre
-Västlig hakmossa
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 25298-2024 artfynd.xlsx", "A 25298-2024")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 25298-2024 karta.png", "A 25298-2024")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 25298-2024 FSC-klagomål.docx", "A 25298-2024")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 25298-2024 FSC-klagomål mail.docx", "A 25298-2024")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 25298-2024 tillsynsbegäran.docx", "A 25298-2024")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 25298-2024 tillsynsbegäran mail.docx", "A 25298-2024")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 25298-2024 prioriterade fågelarter.docx", "A 25298-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 28512-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45819.48106481481</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>4</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa
-Västlig hakmossa
-Tjäder</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 28512-2025 artfynd.xlsx", "A 28512-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 28512-2025 karta.png", "A 28512-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 28512-2025 FSC-klagomål.docx", "A 28512-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 28512-2025 FSC-klagomål mail.docx", "A 28512-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 28512-2025 tillsynsbegäran.docx", "A 28512-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 28512-2025 tillsynsbegäran mail.docx", "A 28512-2025")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 28512-2025 prioriterade fågelarter.docx", "A 28512-2025")</f>
         <v/>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
         <v>45986.36528935185</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>45072</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>46044.42456018519</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1602,14 +1602,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 23559-2023</t>
+          <t>A 30968-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45072</v>
+        <v>45832.45538194444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,19 +1621,14 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G13" t="n">
-        <v>1.7</v>
+        <v>7.7</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1662,49 +1657,49 @@
       <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
-Revlummer</t>
+Blåmossa</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23559-2023 artfynd.xlsx", "A 23559-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 30968-2025 artfynd.xlsx", "A 30968-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23559-2023 karta.png", "A 23559-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 30968-2025 karta.png", "A 30968-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23559-2023 FSC-klagomål.docx", "A 23559-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 30968-2025 FSC-klagomål.docx", "A 30968-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23559-2023 FSC-klagomål mail.docx", "A 23559-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 30968-2025 FSC-klagomål mail.docx", "A 30968-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23559-2023 tillsynsbegäran.docx", "A 23559-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 30968-2025 tillsynsbegäran.docx", "A 30968-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23559-2023 tillsynsbegäran mail.docx", "A 23559-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 30968-2025 tillsynsbegäran mail.docx", "A 30968-2025")</f>
         <v/>
       </c>
       <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 23559-2023 prioriterade fågelarter.docx", "A 23559-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 30968-2025 prioriterade fågelarter.docx", "A 30968-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 434-2024</t>
+          <t>A 23559-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45296.57905092592</v>
+        <v>45072</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,35 +1713,35 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>6.3</v>
+        <v>1.7</v>
       </c>
       <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1756,312 +1751,317 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23559-2023 artfynd.xlsx", "A 23559-2023")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23559-2023 karta.png", "A 23559-2023")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23559-2023 FSC-klagomål.docx", "A 23559-2023")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23559-2023 FSC-klagomål mail.docx", "A 23559-2023")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23559-2023 tillsynsbegäran.docx", "A 23559-2023")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23559-2023 tillsynsbegäran mail.docx", "A 23559-2023")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 23559-2023 prioriterade fågelarter.docx", "A 23559-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 2437-2026</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>46036.9100925926</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Sårläka
+Vätteros</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 2437-2026 artfynd.xlsx", "A 2437-2026")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 2437-2026 karta.png", "A 2437-2026")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 2437-2026 FSC-klagomål.docx", "A 2437-2026")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 2437-2026 FSC-klagomål mail.docx", "A 2437-2026")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 2437-2026 tillsynsbegäran.docx", "A 2437-2026")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 2437-2026 tillsynsbegäran mail.docx", "A 2437-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 434-2024</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45296.57905092592</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
           <t>Västlig hakmossa
 Revlummer</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 434-2024 artfynd.xlsx", "A 434-2024")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 434-2024 karta.png", "A 434-2024")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 434-2024 FSC-klagomål.docx", "A 434-2024")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 434-2024 FSC-klagomål mail.docx", "A 434-2024")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 434-2024 tillsynsbegäran.docx", "A 434-2024")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 434-2024 tillsynsbegäran mail.docx", "A 434-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 13699-2024</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>45390</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
+      <c r="C17" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>6.6</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>2</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 13699-2024 artfynd.xlsx", "A 13699-2024")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 13699-2024 karta.png", "A 13699-2024")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 13699-2024 FSC-klagomål.docx", "A 13699-2024")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 13699-2024 FSC-klagomål mail.docx", "A 13699-2024")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 13699-2024 tillsynsbegäran.docx", "A 13699-2024")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 13699-2024 tillsynsbegäran mail.docx", "A 13699-2024")</f>
         <v/>
       </c>
-      <c r="Z15">
+      <c r="Z17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 13699-2024 prioriterade fågelarter.docx", "A 13699-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 30968-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45832.45538194444</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 30968-2025 artfynd.xlsx", "A 30968-2025")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 30968-2025 karta.png", "A 30968-2025")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 30968-2025 FSC-klagomål.docx", "A 30968-2025")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 30968-2025 FSC-klagomål mail.docx", "A 30968-2025")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 30968-2025 tillsynsbegäran.docx", "A 30968-2025")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 30968-2025 tillsynsbegäran mail.docx", "A 30968-2025")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 30968-2025 prioriterade fågelarter.docx", "A 30968-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 2437-2026</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>46036.9100925926</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Sårläka
-Vätteros</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 2437-2026 artfynd.xlsx", "A 2437-2026")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 2437-2026 karta.png", "A 2437-2026")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 2437-2026 FSC-klagomål.docx", "A 2437-2026")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 2437-2026 FSC-klagomål mail.docx", "A 2437-2026")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 2437-2026 tillsynsbegäran.docx", "A 2437-2026")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 2437-2026 tillsynsbegäran mail.docx", "A 2437-2026")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 25655-2023</t>
+          <t>A 23497-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45089</v>
+        <v>45072</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2073,17 +2073,22 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>5.1</v>
+        <v>1.6</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2098,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2108,45 +2113,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Bergjohannesört</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 25655-2023 artfynd.xlsx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23497-2023 artfynd.xlsx", "A 23497-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 25655-2023 karta.png", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23497-2023 karta.png", "A 23497-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 25655-2023 FSC-klagomål.docx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23497-2023 FSC-klagomål.docx", "A 23497-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 25655-2023 FSC-klagomål mail.docx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23497-2023 FSC-klagomål mail.docx", "A 23497-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 25655-2023 tillsynsbegäran.docx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23497-2023 tillsynsbegäran.docx", "A 23497-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 25655-2023 tillsynsbegäran mail.docx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23497-2023 tillsynsbegäran mail.docx", "A 23497-2023")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 30273-2022</t>
+          <t>A 23494-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44759</v>
+        <v>45072</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2158,8 +2163,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G19" t="n">
-        <v>12.5</v>
+        <v>1.3</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2193,49 +2203,49 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Ärtsångare</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 30273-2022 artfynd.xlsx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23494-2023 artfynd.xlsx", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 30273-2022 karta.png", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23494-2023 karta.png", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 30273-2022 FSC-klagomål.docx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23494-2023 FSC-klagomål.docx", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 30273-2022 FSC-klagomål mail.docx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23494-2023 FSC-klagomål mail.docx", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 30273-2022 tillsynsbegäran.docx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23494-2023 tillsynsbegäran.docx", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 30273-2022 tillsynsbegäran mail.docx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23494-2023 tillsynsbegäran mail.docx", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="Z19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 30273-2022 prioriterade fågelarter.docx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 23494-2023 prioriterade fågelarter.docx", "A 23494-2023")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 15351-2024</t>
+          <t>A 25655-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45400.8005787037</v>
+        <v>45089</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2247,13 +2257,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>5.1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2287,45 +2292,45 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Guldsandbi</t>
+          <t>Bergjohannesört</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 15351-2024 artfynd.xlsx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 25655-2023 artfynd.xlsx", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 15351-2024 karta.png", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 25655-2023 karta.png", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 15351-2024 FSC-klagomål.docx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 25655-2023 FSC-klagomål.docx", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 15351-2024 FSC-klagomål mail.docx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 25655-2023 FSC-klagomål mail.docx", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 15351-2024 tillsynsbegäran.docx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 25655-2023 tillsynsbegäran.docx", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 15351-2024 tillsynsbegäran mail.docx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 25655-2023 tillsynsbegäran mail.docx", "A 25655-2023")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 7062-2024</t>
+          <t>A 15351-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45343</v>
+        <v>45400.8005787037</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2337,18 +2342,23 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>9.1</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
@@ -2362,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2372,45 +2382,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Guldsandbi</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 7062-2024 artfynd.xlsx", "A 7062-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 15351-2024 artfynd.xlsx", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 7062-2024 karta.png", "A 7062-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 15351-2024 karta.png", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 7062-2024 FSC-klagomål.docx", "A 7062-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 15351-2024 FSC-klagomål.docx", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 7062-2024 FSC-klagomål mail.docx", "A 7062-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 15351-2024 FSC-klagomål mail.docx", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 7062-2024 tillsynsbegäran.docx", "A 7062-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 15351-2024 tillsynsbegäran.docx", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 7062-2024 tillsynsbegäran mail.docx", "A 7062-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 15351-2024 tillsynsbegäran mail.docx", "A 15351-2024")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 23497-2023</t>
+          <t>A 30273-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45072</v>
+        <v>44759</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2422,23 +2432,18 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>1.6</v>
+        <v>12.5</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>1</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
@@ -2452,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2462,31 +2467,35 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Ärtsångare</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23497-2023 artfynd.xlsx", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 30273-2022 artfynd.xlsx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23497-2023 karta.png", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 30273-2022 karta.png", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23497-2023 FSC-klagomål.docx", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 30273-2022 FSC-klagomål.docx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23497-2023 FSC-klagomål mail.docx", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 30273-2022 FSC-klagomål mail.docx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23497-2023 tillsynsbegäran.docx", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 30273-2022 tillsynsbegäran.docx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23497-2023 tillsynsbegäran mail.docx", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 30273-2022 tillsynsbegäran mail.docx", "A 30273-2022")</f>
+        <v/>
+      </c>
+      <c r="Z22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 30273-2022 prioriterade fågelarter.docx", "A 30273-2022")</f>
         <v/>
       </c>
     </row>
@@ -2500,7 +2509,7 @@
         <v>45617.40755787037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2578,14 +2587,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 23494-2023</t>
+          <t>A 45941-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45072</v>
+        <v>45924.31385416666</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2597,16 +2606,11 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2637,49 +2641,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23494-2023 artfynd.xlsx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 45941-2025 artfynd.xlsx", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23494-2023 karta.png", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 45941-2025 karta.png", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23494-2023 FSC-klagomål.docx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 45941-2025 FSC-klagomål.docx", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23494-2023 FSC-klagomål mail.docx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 45941-2025 FSC-klagomål mail.docx", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23494-2023 tillsynsbegäran.docx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 45941-2025 tillsynsbegäran.docx", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23494-2023 tillsynsbegäran mail.docx", "A 23494-2023")</f>
-        <v/>
-      </c>
-      <c r="Z24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 23494-2023 prioriterade fågelarter.docx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 45941-2025 tillsynsbegäran mail.docx", "A 45941-2025")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 45941-2025</t>
+          <t>A 7062-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45924.31385416666</v>
+        <v>45343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.2</v>
+        <v>9.1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2726,31 +2726,31 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 45941-2025 artfynd.xlsx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 7062-2024 artfynd.xlsx", "A 7062-2024")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 45941-2025 karta.png", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 7062-2024 karta.png", "A 7062-2024")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 45941-2025 FSC-klagomål.docx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 7062-2024 FSC-klagomål.docx", "A 7062-2024")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 45941-2025 FSC-klagomål mail.docx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 7062-2024 FSC-klagomål mail.docx", "A 7062-2024")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 45941-2025 tillsynsbegäran.docx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 7062-2024 tillsynsbegäran.docx", "A 7062-2024")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 45941-2025 tillsynsbegäran mail.docx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 7062-2024 tillsynsbegäran mail.docx", "A 7062-2024")</f>
         <v/>
       </c>
     </row>
@@ -2764,7 +2764,7 @@
         <v>45986.36644675926</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44812</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44309.35467592593</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2960,14 +2960,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 9541-2021</t>
+          <t>A 30046-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44251</v>
+        <v>44363</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -3017,14 +3017,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 30046-2021</t>
+          <t>A 9541-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44363</v>
+        <v>44251</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>44581</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44875.56251157408</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>44637</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>44685.67520833333</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>44760</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44319.62640046296</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44720.45840277777</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>44365.70123842593</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>44365.70269675926</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>44627</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>44343.5096412037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>44298.46679398148</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44280</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3820,14 +3820,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 8830-2021</t>
+          <t>A 41630-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44246</v>
+        <v>44425.45646990741</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3877,14 +3877,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 38386-2022</t>
+          <t>A 33528-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44812.72657407408</v>
+        <v>44377.80355324074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3934,14 +3934,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 9801-2021</t>
+          <t>A 55768-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44252</v>
+        <v>44476.53376157407</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3991,14 +3991,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 33528-2021</t>
+          <t>A 52953-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44377.80355324074</v>
+        <v>44467</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4048,14 +4048,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 55768-2021</t>
+          <t>A 36359-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44476.53376157407</v>
+        <v>44803.87314814814</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4105,14 +4105,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 41420-2022</t>
+          <t>A 8830-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44826.6478125</v>
+        <v>44246</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4162,14 +4162,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 10023-2021</t>
+          <t>A 38386-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44256</v>
+        <v>44812.72657407408</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4219,14 +4219,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 41630-2021</t>
+          <t>A 9801-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44425.45646990741</v>
+        <v>44252</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4283,7 +4283,7 @@
         <v>44363</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44363</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4390,14 +4390,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 24291-2021</t>
+          <t>A 10023-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44337.31774305556</v>
+        <v>44256</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5.9</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4447,14 +4447,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 52953-2021</t>
+          <t>A 41420-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44467</v>
+        <v>44826.6478125</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4504,14 +4504,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 51569-2021</t>
+          <t>A 24291-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44462</v>
+        <v>44337.31774305556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.1</v>
+        <v>5.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4561,14 +4561,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 38059-2022</t>
+          <t>A 51569-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44811.6625462963</v>
+        <v>44462</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.4</v>
+        <v>4.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4618,14 +4618,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 296-2022</t>
+          <t>A 38059-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44565.47288194444</v>
+        <v>44811.6625462963</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4682,7 +4682,7 @@
         <v>44760</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>44760</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4789,14 +4789,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 7832-2021</t>
+          <t>A 296-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44242</v>
+        <v>44565.47288194444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4846,14 +4846,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 55972-2022</t>
+          <t>A 7832-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44889</v>
+        <v>44242</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4903,14 +4903,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 33993-2023</t>
+          <t>A 10726-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45134.92311342592</v>
+        <v>44627.32611111111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4960,14 +4960,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 33996-2023</t>
+          <t>A 58750-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45134.92869212963</v>
+        <v>44489</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5017,14 +5017,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 10726-2022</t>
+          <t>A 33527-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44627.32611111111</v>
+        <v>44377.79693287037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5074,14 +5074,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 36359-2022</t>
+          <t>A 12234-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44803.87314814814</v>
+        <v>45378.36106481482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5131,14 +5131,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 38383-2022</t>
+          <t>A 48904-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44812</v>
+        <v>45594.35560185185</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5188,14 +5188,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 65619-2021</t>
+          <t>A 38442-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44516.53974537037</v>
+        <v>45162.39668981481</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5245,14 +5245,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 49384-2023</t>
+          <t>A 4881-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45205</v>
+        <v>45329.44875</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5264,13 +5264,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5307,14 +5302,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 51488-2022</t>
+          <t>A 26443-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44869</v>
+        <v>45092</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5327,7 +5322,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5364,14 +5359,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 12234-2024</t>
+          <t>A 43770-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45378.36106481482</v>
+        <v>45187.50803240741</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5384,7 +5379,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5421,14 +5416,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 28910-2024</t>
+          <t>A 54681-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45480.65789351852</v>
+        <v>44473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5441,7 +5436,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.7</v>
+        <v>4.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5478,14 +5473,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 11604-2024</t>
+          <t>A 19079-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45373.39337962963</v>
+        <v>45766.61758101852</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5498,7 +5493,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5535,14 +5530,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 26886-2023</t>
+          <t>A 406-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45093</v>
+        <v>45296</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5555,7 +5550,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5592,14 +5587,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 15567-2022</t>
+          <t>A 5743-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44662</v>
+        <v>45694.52391203704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5612,7 +5607,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5649,14 +5644,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 16489-2025</t>
+          <t>A 24053-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45751.58628472222</v>
+        <v>45796</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5669,7 +5664,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.8</v>
+        <v>11.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5706,14 +5701,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 1382-2024</t>
+          <t>A 7819-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45303.56011574074</v>
+        <v>45706.63945601852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5726,7 +5721,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.4</v>
+        <v>5.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5763,14 +5758,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 28022-2023</t>
+          <t>A 49384-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45098.95484953704</v>
+        <v>45205</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5782,8 +5777,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>5.7</v>
+        <v>1.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5820,14 +5820,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 26443-2023</t>
+          <t>A 20037-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45092</v>
+        <v>45772</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5877,14 +5877,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 17114-2023</t>
+          <t>A 47511-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45034.58234953704</v>
+        <v>45587.61174768519</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5934,14 +5934,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 58750-2021</t>
+          <t>A 5740-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44489</v>
+        <v>45694.5205324074</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5991,14 +5991,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 7947-2024</t>
+          <t>A 61435-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45350</v>
+        <v>45646.46203703704</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6048,14 +6048,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 587-2025</t>
+          <t>A 6384-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45664.58135416666</v>
+        <v>45699.42287037037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6105,14 +6105,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 13887-2024</t>
+          <t>A 36984-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45391.61759259259</v>
+        <v>45539.32334490741</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>11.3</v>
+        <v>1.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6162,14 +6162,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 32110-2023</t>
+          <t>A 27222-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45119.61902777778</v>
+        <v>45812.42443287037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6219,14 +6219,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 61284-2022</t>
+          <t>A 27620-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44915</v>
+        <v>45813.54954861111</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6276,14 +6276,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 52431-2023</t>
+          <t>A 28515-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45225.33118055556</v>
+        <v>45819.48321759259</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6333,14 +6333,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 13581-2023</t>
+          <t>A 2867-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45006.54443287037</v>
+        <v>45677.67715277777</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6352,13 +6352,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>3.8</v>
+        <v>10.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6395,14 +6390,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 7912-2024</t>
+          <t>A 5612-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45350</v>
+        <v>45693.60490740741</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6415,7 +6410,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6452,14 +6447,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 55991-2022</t>
+          <t>A 28022-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44889</v>
+        <v>45098.95484953704</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6472,7 +6467,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.9</v>
+        <v>5.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6509,14 +6504,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 54681-2021</t>
+          <t>A 37063-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44473</v>
+        <v>45539.45819444444</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6529,7 +6524,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6566,14 +6561,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 6323-2023</t>
+          <t>A 587-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44960</v>
+        <v>45664.58135416666</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6585,13 +6580,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6628,14 +6618,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 11104-2024</t>
+          <t>A 12628-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45371.32724537037</v>
+        <v>45000</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6648,7 +6638,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6685,14 +6675,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 11102-2024</t>
+          <t>A 65619-2021</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45371.32438657407</v>
+        <v>44516.53974537037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6705,7 +6695,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6742,14 +6732,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 54804-2022</t>
+          <t>A 55972-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44883</v>
+        <v>44889</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6762,7 +6752,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>22.6</v>
+        <v>4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6799,14 +6789,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 5811-2025</t>
+          <t>A 41411-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45694.7127662037</v>
+        <v>44826.63782407407</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6819,7 +6809,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6856,14 +6846,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 5740-2025</t>
+          <t>A 12647-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45694.5205324074</v>
+        <v>45000</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6876,7 +6866,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6913,14 +6903,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 6384-2025</t>
+          <t>A 8117-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45699.42287037037</v>
+        <v>44974</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6933,7 +6923,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6970,14 +6960,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 13382-2023</t>
+          <t>A 41759-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45005.50784722222</v>
+        <v>45902.51219907407</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6990,7 +6980,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7027,14 +7017,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 36984-2024</t>
+          <t>A 35416-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45539.32334490741</v>
+        <v>45855.40481481481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7047,7 +7037,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7084,14 +7074,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 47511-2024</t>
+          <t>A 41756-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45587.61174768519</v>
+        <v>45902.50689814815</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7104,7 +7094,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7141,14 +7131,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 43770-2023</t>
+          <t>A 41758-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45187.50803240741</v>
+        <v>45902.51023148148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7161,7 +7151,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7198,14 +7188,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 8117-2023</t>
+          <t>A 41760-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44974</v>
+        <v>45902.51596064815</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7218,7 +7208,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>11</v>
+        <v>1.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7255,14 +7245,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 4881-2024</t>
+          <t>A 41761-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45329.44875</v>
+        <v>45902.51922453703</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7275,7 +7265,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.5</v>
+        <v>6.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7312,14 +7302,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 27222-2025</t>
+          <t>A 35420-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45812.42443287037</v>
+        <v>45855.41025462963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7332,7 +7322,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7369,14 +7359,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 46561-2024</t>
+          <t>A 32110-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45582.67883101852</v>
+        <v>45119.61902777778</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7389,7 +7379,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>12.2</v>
+        <v>4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7426,14 +7416,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 27620-2025</t>
+          <t>A 16489-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45813.54954861111</v>
+        <v>45751.58628472222</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7446,7 +7436,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7483,14 +7473,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 38093-2022</t>
+          <t>A 35717-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44811.94373842593</v>
+        <v>45860.42960648148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7503,7 +7493,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7540,14 +7530,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 12628-2023</t>
+          <t>A 35422-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45000</v>
+        <v>45855.41179398148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7560,7 +7550,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7597,14 +7587,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 28515-2025</t>
+          <t>A 42857-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45819.48321759259</v>
+        <v>45908.6132175926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7617,7 +7607,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7654,14 +7644,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 38522-2024</t>
+          <t>A 32107-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45546.56513888889</v>
+        <v>45119.61793981482</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7673,13 +7663,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>5.3</v>
+        <v>2.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7716,14 +7701,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 50349-2024</t>
+          <t>A 37190-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45600.81916666667</v>
+        <v>45875.64939814815</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7736,7 +7721,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7773,14 +7758,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 47509-2024</t>
+          <t>A 37152-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45587.60949074074</v>
+        <v>45875</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7830,14 +7815,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 16473-2022</t>
+          <t>A 50349-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44671</v>
+        <v>45600.81916666667</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7887,14 +7872,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 28903-2024</t>
+          <t>A 44104-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45480.54913194444</v>
+        <v>45915.56895833334</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7907,7 +7892,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7944,14 +7929,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 20037-2025</t>
+          <t>A 12784-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45772</v>
+        <v>45733.59857638889</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7964,7 +7949,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8001,14 +7986,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 9046-2022</t>
+          <t>A 35718-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44615.44694444445</v>
+        <v>45860.4315162037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8021,7 +8006,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>7.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8058,14 +8043,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 12647-2023</t>
+          <t>A 11102-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45000</v>
+        <v>45371.32438657407</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8078,7 +8063,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8115,14 +8100,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 20031-2025</t>
+          <t>A 43684-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45772</v>
+        <v>45912.37804398148</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8135,7 +8120,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>6.2</v>
+        <v>1.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8172,14 +8157,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 40092-2024</t>
+          <t>A 7912-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45554.3884375</v>
+        <v>45350</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8192,7 +8177,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8229,14 +8214,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 57754-2023</t>
+          <t>A 44916-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45246.79032407407</v>
+        <v>45918.54886574074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8249,7 +8234,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8286,14 +8271,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 61435-2024</t>
+          <t>A 13581-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45646.46203703704</v>
+        <v>45006.54443287037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8305,8 +8290,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8343,14 +8333,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 48904-2024</t>
+          <t>A 44918-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45594.35560185185</v>
+        <v>45918.5504050926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8363,7 +8353,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.9</v>
+        <v>5.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8400,14 +8390,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 28021-2023</t>
+          <t>A 44914-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45098.95337962963</v>
+        <v>45918.54420138889</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8420,7 +8410,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8457,14 +8447,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 17510-2021</t>
+          <t>A 35423-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44299</v>
+        <v>45855.4134837963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8477,7 +8467,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8514,14 +8504,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 14929-2024</t>
+          <t>A 8071-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45398.64460648148</v>
+        <v>45351</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8534,7 +8524,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>5.1</v>
+        <v>1.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8571,14 +8561,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 21630-2024</t>
+          <t>A 61952-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45442.32711805555</v>
+        <v>45653.50980324074</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8591,7 +8581,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8628,14 +8618,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 5328-2025</t>
+          <t>A 44915-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45692.53454861111</v>
+        <v>45918.54668981482</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8648,7 +8638,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8685,14 +8675,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 37510-2023</t>
+          <t>A 13975-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45158</v>
+        <v>45008</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8705,7 +8695,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8742,14 +8732,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 35420-2025</t>
+          <t>A 16473-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45855.41025462963</v>
+        <v>44671</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8762,7 +8752,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8799,14 +8789,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 35416-2025</t>
+          <t>A 6323-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45855.40481481481</v>
+        <v>44960</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8818,8 +8808,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8856,14 +8851,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 43767-2023</t>
+          <t>A 40092-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45187.50667824074</v>
+        <v>45554.3884375</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8876,7 +8871,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8913,14 +8908,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 35717-2025</t>
+          <t>A 57754-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45860.42960648148</v>
+        <v>45246.79032407407</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8933,7 +8928,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8970,14 +8965,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 33991-2023</t>
+          <t>A 45469-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45134.90613425926</v>
+        <v>45576.73229166667</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8990,7 +8985,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.5</v>
+        <v>7.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9027,14 +9022,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 44445-2023</t>
+          <t>A 57381-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45189.37668981482</v>
+        <v>44896</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9047,7 +9042,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9084,14 +9079,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 37190-2025</t>
+          <t>A 28021-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45875.64939814815</v>
+        <v>45098.95337962963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9104,7 +9099,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9141,14 +9136,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 41411-2022</t>
+          <t>A 26886-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44826.63782407407</v>
+        <v>45093</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9161,7 +9156,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9198,14 +9193,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 17116-2023</t>
+          <t>A 48730-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45034.58351851852</v>
+        <v>45936.65984953703</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9218,7 +9213,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9255,14 +9250,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 37152-2025</t>
+          <t>A 48727-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45875</v>
+        <v>45936.65829861111</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9275,7 +9270,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.6</v>
+        <v>6.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9312,14 +9307,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 4225-2024</t>
+          <t>A 49188-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45324.41422453704</v>
+        <v>45938.40711805555</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9332,7 +9327,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9369,14 +9364,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 4227-2024</t>
+          <t>A 13801-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45324.41612268519</v>
+        <v>45737</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9389,7 +9384,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9426,14 +9421,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 37508-2023</t>
+          <t>A 302-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45158.42202546296</v>
+        <v>45295</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9445,8 +9440,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>6.9</v>
+        <v>2.3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9483,14 +9483,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 37509-2023</t>
+          <t>A 56584-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45158.43357638889</v>
+        <v>45974</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9540,14 +9540,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 35718-2025</t>
+          <t>A 29066-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45860.4315162037</v>
+        <v>45481.69738425926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9597,14 +9597,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 12760-2023</t>
+          <t>A 29067-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45001</v>
+        <v>45481.70640046296</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.1</v>
+        <v>10.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9654,14 +9654,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 61952-2024</t>
+          <t>A 29068-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45653.50980324074</v>
+        <v>45481.71290509259</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9711,14 +9711,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 12784-2025</t>
+          <t>A 4225-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45733.59857638889</v>
+        <v>45324.41422453704</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9768,14 +9768,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 5612-2025</t>
+          <t>A 4227-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45693.60490740741</v>
+        <v>45324.41612268519</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9825,14 +9825,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 2867-2025</t>
+          <t>A 38093-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45677.67715277777</v>
+        <v>44811.94373842593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>10.7</v>
+        <v>1.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9882,14 +9882,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 302-2024</t>
+          <t>A 5420-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45295</v>
+        <v>45692.68938657407</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9901,13 +9901,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9944,14 +9939,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 35423-2025</t>
+          <t>A 51488-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45855.4134837963</v>
+        <v>44869</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9964,7 +9959,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10001,14 +9996,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 29066-2024</t>
+          <t>A 6489-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45481.69738425926</v>
+        <v>45699.62678240741</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10021,7 +10016,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>7.9</v>
+        <v>0.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10058,14 +10053,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 29067-2024</t>
+          <t>A 9046-2022</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45481.70640046296</v>
+        <v>44615.44694444445</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10078,7 +10073,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>10.4</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10115,14 +10110,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 29068-2024</t>
+          <t>A 46561-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45481.71290509259</v>
+        <v>45582.67883101852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10135,7 +10130,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.8</v>
+        <v>12.2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10172,14 +10167,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 38442-2023</t>
+          <t>A 17510-2021</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45162.39668981481</v>
+        <v>44299</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10192,7 +10187,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10229,14 +10224,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 19079-2025</t>
+          <t>A 28903-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45766.61758101852</v>
+        <v>45480.54913194444</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10249,7 +10244,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10286,14 +10281,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 5324-2025</t>
+          <t>A 61284-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45692.5303125</v>
+        <v>44915</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10306,7 +10301,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10343,14 +10338,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 13631-2024</t>
+          <t>A 12760-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45390.41417824074</v>
+        <v>45001</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10363,7 +10358,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>16.4</v>
+        <v>1.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10400,14 +10395,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 37063-2024</t>
+          <t>A 62730-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45539.45819444444</v>
+        <v>45268</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10420,7 +10415,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>8.800000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10457,14 +10452,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 15159-2023</t>
+          <t>A 55324-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45016.58609953704</v>
+        <v>45971.33519675926</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10478,11 +10473,11 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10519,14 +10514,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 550-2024</t>
+          <t>A 11604-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45299</v>
+        <v>45373.39337962963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10539,7 +10534,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10576,14 +10571,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 13975-2023</t>
+          <t>A 5324-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45008</v>
+        <v>45692.5303125</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10596,7 +10591,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.2</v>
+        <v>5.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10633,14 +10628,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 41756-2025</t>
+          <t>A 56854-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45902.50689814815</v>
+        <v>45978.49476851852</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10653,7 +10648,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2</v>
+        <v>6.4</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10690,14 +10685,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 41758-2025</t>
+          <t>A 56855-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45902.51023148148</v>
+        <v>45978.4962962963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10710,7 +10705,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10747,14 +10742,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 41760-2025</t>
+          <t>A 5811-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45902.51596064815</v>
+        <v>45694.7127662037</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10804,14 +10799,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 41761-2025</t>
+          <t>A 54804-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45902.51922453703</v>
+        <v>44883</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10824,7 +10819,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>6.6</v>
+        <v>22.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10861,14 +10856,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 41759-2025</t>
+          <t>A 20031-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45902.51219907407</v>
+        <v>45772</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10881,7 +10876,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.2</v>
+        <v>6.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10918,14 +10913,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 33527-2021</t>
+          <t>A 52431-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44377.79693287037</v>
+        <v>45225.33118055556</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10938,7 +10933,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10975,14 +10970,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 8071-2024</t>
+          <t>A 33993-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45351</v>
+        <v>45134.92311342592</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10995,7 +10990,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11032,14 +11027,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 6489-2025</t>
+          <t>A 33996-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45699.62678240741</v>
+        <v>45134.92869212963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11089,14 +11084,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 45469-2024</t>
+          <t>A 7947-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45576.73229166667</v>
+        <v>45350</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11109,7 +11104,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>7.2</v>
+        <v>1.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11146,14 +11141,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 35422-2025</t>
+          <t>A 55991-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45855.41179398148</v>
+        <v>44889</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11166,7 +11161,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11203,14 +11198,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 42857-2025</t>
+          <t>A 2226-2026</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45908.6132175926</v>
+        <v>46036.51820601852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11223,7 +11218,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11260,14 +11255,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 406-2024</t>
+          <t>A 17116-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45296</v>
+        <v>45034.58351851852</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11280,7 +11275,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11317,14 +11312,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 32107-2023</t>
+          <t>A 2438-2026</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45119.61793981482</v>
+        <v>46036.91210648148</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11337,7 +11332,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11374,14 +11369,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 62730-2023</t>
+          <t>A 15567-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45268</v>
+        <v>44662</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11394,7 +11389,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11431,14 +11426,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 43684-2025</t>
+          <t>A 21630-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45912.37804398148</v>
+        <v>45442.32711805555</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11451,7 +11446,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.6</v>
+        <v>4.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11488,14 +11483,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 49879-2023</t>
+          <t>A 61475-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45213</v>
+        <v>46001.61959490741</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11508,7 +11503,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11545,14 +11540,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 44104-2025</t>
+          <t>A 13382-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45915.56895833334</v>
+        <v>45005.50784722222</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11565,7 +11560,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11602,14 +11597,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 44914-2025</t>
+          <t>A 61695-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45918.54420138889</v>
+        <v>46002.52787037037</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11622,7 +11617,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11659,14 +11654,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 44915-2025</t>
+          <t>A 550-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45918.54668981482</v>
+        <v>45299</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11679,7 +11674,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11716,14 +11711,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 44918-2025</t>
+          <t>A 5834-2026</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45918.5504050926</v>
+        <v>46052.33366898148</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11735,8 +11730,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>5.7</v>
+        <v>9.9</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11769,18 +11769,38 @@
         <v>0</v>
       </c>
       <c r="R182" s="2" t="inlineStr"/>
+      <c r="U182">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/knärot/A 5834-2026 karta knärot.png", "A 5834-2026")</f>
+        <v/>
+      </c>
+      <c r="V182">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 5834-2026 FSC-klagomål.docx", "A 5834-2026")</f>
+        <v/>
+      </c>
+      <c r="W182">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 5834-2026 FSC-klagomål mail.docx", "A 5834-2026")</f>
+        <v/>
+      </c>
+      <c r="X182">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 5834-2026 tillsynsbegäran.docx", "A 5834-2026")</f>
+        <v/>
+      </c>
+      <c r="Y182">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 5834-2026 tillsynsbegäran mail.docx", "A 5834-2026")</f>
+        <v/>
+      </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 44916-2025</t>
+          <t>A 5866-2026</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45918.54886574074</v>
+        <v>46052.3075925926</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11792,8 +11812,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11830,14 +11855,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 5420-2025</t>
+          <t>A 63703-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45692.68938657407</v>
+        <v>46014.60188657408</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11850,7 +11875,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11887,14 +11912,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 21304-2025</t>
+          <t>A 13887-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45781.36851851852</v>
+        <v>45391.61759259259</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11907,7 +11932,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.3</v>
+        <v>11.3</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11944,14 +11969,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 3867-2025</t>
+          <t>A 47509-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45684</v>
+        <v>45587.60949074074</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11964,7 +11989,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12001,14 +12026,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 57381-2022</t>
+          <t>A 14929-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44896</v>
+        <v>45398.64460648148</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12021,7 +12046,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.7</v>
+        <v>5.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12058,14 +12083,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 48727-2025</t>
+          <t>A 11104-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45936.65829861111</v>
+        <v>45371.32724537037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12078,7 +12103,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>6.1</v>
+        <v>3.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12115,14 +12140,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 48730-2025</t>
+          <t>A 28910-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45936.65984953703</v>
+        <v>45480.65789351852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12135,7 +12160,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12172,14 +12197,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 21617-2024</t>
+          <t>A 1382-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45441.97630787037</v>
+        <v>45303.56011574074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12192,7 +12217,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>9.699999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12229,14 +12254,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 13801-2025</t>
+          <t>A 17114-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45737</v>
+        <v>45034.58234953704</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12249,7 +12274,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12286,14 +12311,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 49188-2025</t>
+          <t>A 43767-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45938.40711805555</v>
+        <v>45187.50667824074</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12306,7 +12331,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12343,14 +12368,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 56584-2025</t>
+          <t>A 38522-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45974</v>
+        <v>45546.56513888889</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12362,8 +12387,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>1.8</v>
+        <v>5.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12400,14 +12430,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 30724-2024</t>
+          <t>A 13631-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45496</v>
+        <v>45390.41417824074</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12420,7 +12450,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.5</v>
+        <v>16.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12457,14 +12487,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 22561-2025</t>
+          <t>A 38383-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45789.3449537037</v>
+        <v>44812</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12477,7 +12507,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12514,14 +12544,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 11329-2025</t>
+          <t>A 37508-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45726.47752314815</v>
+        <v>45158.42202546296</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12534,7 +12564,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>4.6</v>
+        <v>6.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12571,14 +12601,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 23509-2025</t>
+          <t>A 37509-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45792.49081018518</v>
+        <v>45158.43357638889</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12591,7 +12621,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12628,14 +12658,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 23374-2025</t>
+          <t>A 15159-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45791.77096064815</v>
+        <v>45016.58609953704</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12647,8 +12677,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12685,14 +12720,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 12790-2025</t>
+          <t>A 37510-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45733.60599537037</v>
+        <v>45158</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12705,7 +12740,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12742,14 +12777,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 12782-2025</t>
+          <t>A 49879-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45733.59701388889</v>
+        <v>45213</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12762,7 +12797,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12799,14 +12834,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 12243-2025</t>
+          <t>A 44445-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45729</v>
+        <v>45189.37668981482</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12819,7 +12854,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>10.2</v>
+        <v>3.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12856,14 +12891,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 14891-2025</t>
+          <t>A 33991-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45743.47010416666</v>
+        <v>45134.90613425926</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12876,7 +12911,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12913,14 +12948,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 24053-2025</t>
+          <t>A 5328-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45796</v>
+        <v>45692.53454861111</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12933,7 +12968,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>11.1</v>
+        <v>1.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12970,14 +13005,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 5743-2025</t>
+          <t>A 21304-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45694.52391203704</v>
+        <v>45781.36851851852</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12990,7 +13025,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13027,14 +13062,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 7819-2025</t>
+          <t>A 3867-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45706.63945601852</v>
+        <v>45684</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13047,7 +13082,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>5.6</v>
+        <v>1.5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13084,14 +13119,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 55324-2025</t>
+          <t>A 21617-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45971.33519675926</v>
+        <v>45441.97630787037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13103,13 +13138,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>2.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13146,14 +13176,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 56854-2025</t>
+          <t>A 22561-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45978.49476851852</v>
+        <v>45789.3449537037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13166,7 +13196,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>6.4</v>
+        <v>2.2</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13203,14 +13233,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 56855-2025</t>
+          <t>A 12782-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45978.4962962963</v>
+        <v>45733.59701388889</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13223,7 +13253,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13260,14 +13290,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 2226-2026</t>
+          <t>A 12790-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>46036.51820601852</v>
+        <v>45733.60599537037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13280,7 +13310,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13317,14 +13347,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 2438-2026</t>
+          <t>A 12243-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46036.91210648148</v>
+        <v>45729</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13337,7 +13367,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.3</v>
+        <v>10.2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13374,14 +13404,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 61475-2025</t>
+          <t>A 11329-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>46001.61959490741</v>
+        <v>45726.47752314815</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13431,14 +13461,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 61695-2025</t>
+          <t>A 14891-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>46002.52787037037</v>
+        <v>45743.47010416666</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13451,7 +13481,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13488,14 +13518,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 5866-2026</t>
+          <t>A 30724-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>46052.3075925926</v>
+        <v>45496</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13507,13 +13537,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13550,14 +13575,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 5834-2026</t>
+          <t>A 23374-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>46052.33366898148</v>
+        <v>45791.77096064815</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13569,13 +13594,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>9.9</v>
+        <v>0.6</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13608,38 +13628,18 @@
         <v>0</v>
       </c>
       <c r="R214" s="2" t="inlineStr"/>
-      <c r="U214">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/knärot/A 5834-2026 karta knärot.png", "A 5834-2026")</f>
-        <v/>
-      </c>
-      <c r="V214">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 5834-2026 FSC-klagomål.docx", "A 5834-2026")</f>
-        <v/>
-      </c>
-      <c r="W214">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 5834-2026 FSC-klagomål mail.docx", "A 5834-2026")</f>
-        <v/>
-      </c>
-      <c r="X214">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 5834-2026 tillsynsbegäran.docx", "A 5834-2026")</f>
-        <v/>
-      </c>
-      <c r="Y214">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 5834-2026 tillsynsbegäran mail.docx", "A 5834-2026")</f>
-        <v/>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 63703-2025</t>
+          <t>A 23509-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>46014.60188657408</v>
+        <v>45792.49081018518</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>

--- a/Översikt LILLA EDET.xlsx
+++ b/Översikt LILLA EDET.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z215"/>
+  <dimension ref="A1:Z214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45295</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45827</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>45295</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45272</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>45139</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>45462</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1147,14 +1147,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 28512-2025</t>
+          <t>A 43771-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45819.48106481481</v>
+        <v>45187</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>10.9</v>
+        <v>1.7</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1191,15 +1191,103 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
         <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>4</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Slåtterfibbla
+Vätteros
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 43771-2023 artfynd.xlsx", "A 43771-2023")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 43771-2023 karta.png", "A 43771-2023")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 43771-2023 FSC-klagomål.docx", "A 43771-2023")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 43771-2023 FSC-klagomål mail.docx", "A 43771-2023")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 43771-2023 tillsynsbegäran.docx", "A 43771-2023")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 43771-2023 tillsynsbegäran mail.docx", "A 43771-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 28512-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45819.48106481481</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Blåmossa
@@ -1207,120 +1295,32 @@
 Tjäder</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 28512-2025 artfynd.xlsx", "A 28512-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 28512-2025 karta.png", "A 28512-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 28512-2025 FSC-klagomål.docx", "A 28512-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 28512-2025 FSC-klagomål mail.docx", "A 28512-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 28512-2025 tillsynsbegäran.docx", "A 28512-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 28512-2025 tillsynsbegäran mail.docx", "A 28512-2025")</f>
         <v/>
       </c>
-      <c r="Z8">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 28512-2025 prioriterade fågelarter.docx", "A 28512-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 43771-2023</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45187</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>4</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Slåtterfibbla
-Vätteros
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 43771-2023 artfynd.xlsx", "A 43771-2023")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 43771-2023 karta.png", "A 43771-2023")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 43771-2023 FSC-klagomål.docx", "A 43771-2023")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 43771-2023 FSC-klagomål mail.docx", "A 43771-2023")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 43771-2023 tillsynsbegäran.docx", "A 43771-2023")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 43771-2023 tillsynsbegäran mail.docx", "A 43771-2023")</f>
         <v/>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
         <v>45986.36528935185</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1419,14 +1419,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 23563-2023</t>
+          <t>A 4017-2026</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45072</v>
+        <v>46044.42456018519</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,19 +1438,14 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1477,125 +1472,130 @@
         <v>3</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Stor revmossa
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 4017-2026 artfynd.xlsx", "A 4017-2026")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 4017-2026 karta.png", "A 4017-2026")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 4017-2026 FSC-klagomål.docx", "A 4017-2026")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 4017-2026 FSC-klagomål mail.docx", "A 4017-2026")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 4017-2026 tillsynsbegäran.docx", "A 4017-2026")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 4017-2026 tillsynsbegäran mail.docx", "A 4017-2026")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 4017-2026 prioriterade fågelarter.docx", "A 4017-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 23563-2023</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45072</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Nordfladdermus
 Dvärgpipistrell
 Vattenfladdermus</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23563-2023 artfynd.xlsx", "A 23563-2023")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23563-2023 karta.png", "A 23563-2023")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23563-2023 FSC-klagomål.docx", "A 23563-2023")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23563-2023 FSC-klagomål mail.docx", "A 23563-2023")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23563-2023 tillsynsbegäran.docx", "A 23563-2023")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23563-2023 tillsynsbegäran mail.docx", "A 23563-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 4017-2026</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>46044.42456018519</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Stor revmossa
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 4017-2026 artfynd.xlsx", "A 4017-2026")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 4017-2026 karta.png", "A 4017-2026")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 4017-2026 FSC-klagomål.docx", "A 4017-2026")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 4017-2026 FSC-klagomål mail.docx", "A 4017-2026")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 4017-2026 tillsynsbegäran.docx", "A 4017-2026")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 4017-2026 tillsynsbegäran mail.docx", "A 4017-2026")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 4017-2026 prioriterade fågelarter.docx", "A 4017-2026")</f>
         <v/>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
         <v>45832.45538194444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,14 +1692,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 23559-2023</t>
+          <t>A 2437-2026</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45072</v>
+        <v>46036.9100925926</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1711,22 +1711,17 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>1.7</v>
+        <v>6.8</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>2</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1741,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1751,122 +1746,127 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
+          <t>Sårläka
+Vätteros</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 2437-2026 artfynd.xlsx", "A 2437-2026")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 2437-2026 karta.png", "A 2437-2026")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 2437-2026 FSC-klagomål.docx", "A 2437-2026")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 2437-2026 FSC-klagomål mail.docx", "A 2437-2026")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 2437-2026 tillsynsbegäran.docx", "A 2437-2026")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 2437-2026 tillsynsbegäran mail.docx", "A 2437-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 23559-2023</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45072</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Revlummer</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23559-2023 artfynd.xlsx", "A 23559-2023")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23559-2023 karta.png", "A 23559-2023")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23559-2023 FSC-klagomål.docx", "A 23559-2023")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23559-2023 FSC-klagomål mail.docx", "A 23559-2023")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23559-2023 tillsynsbegäran.docx", "A 23559-2023")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23559-2023 tillsynsbegäran mail.docx", "A 23559-2023")</f>
         <v/>
       </c>
-      <c r="Z14">
+      <c r="Z15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 23559-2023 prioriterade fågelarter.docx", "A 23559-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 2437-2026</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>46036.9100925926</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Sårläka
-Vätteros</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 2437-2026 artfynd.xlsx", "A 2437-2026")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 2437-2026 karta.png", "A 2437-2026")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 2437-2026 FSC-klagomål.docx", "A 2437-2026")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 2437-2026 FSC-klagomål mail.docx", "A 2437-2026")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 2437-2026 tillsynsbegäran.docx", "A 2437-2026")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 2437-2026 tillsynsbegäran mail.docx", "A 2437-2026")</f>
         <v/>
       </c>
     </row>
@@ -1880,7 +1880,7 @@
         <v>45296.57905092592</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>45390</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>45072</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>45072</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2238,14 +2238,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 25655-2023</t>
+          <t>A 45941-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45089</v>
+        <v>45924.31385416666</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5.1</v>
+        <v>1.2</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2292,45 +2292,45 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Bergjohannesört</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 25655-2023 artfynd.xlsx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 45941-2025 artfynd.xlsx", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 25655-2023 karta.png", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 45941-2025 karta.png", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 25655-2023 FSC-klagomål.docx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 45941-2025 FSC-klagomål.docx", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 25655-2023 FSC-klagomål mail.docx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 45941-2025 FSC-klagomål mail.docx", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 25655-2023 tillsynsbegäran.docx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 45941-2025 tillsynsbegäran.docx", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 25655-2023 tillsynsbegäran mail.docx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 45941-2025 tillsynsbegäran mail.docx", "A 45941-2025")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 15351-2024</t>
+          <t>A 25655-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45400.8005787037</v>
+        <v>45089</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2342,13 +2342,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>5.1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2382,45 +2377,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Guldsandbi</t>
+          <t>Bergjohannesört</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 15351-2024 artfynd.xlsx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 25655-2023 artfynd.xlsx", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 15351-2024 karta.png", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 25655-2023 karta.png", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 15351-2024 FSC-klagomål.docx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 25655-2023 FSC-klagomål.docx", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 15351-2024 FSC-klagomål mail.docx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 25655-2023 FSC-klagomål mail.docx", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 15351-2024 tillsynsbegäran.docx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 25655-2023 tillsynsbegäran.docx", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 15351-2024 tillsynsbegäran mail.docx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 25655-2023 tillsynsbegäran mail.docx", "A 25655-2023")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 30273-2022</t>
+          <t>A 15351-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44759</v>
+        <v>45400.8005787037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2432,11 +2427,16 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>12.5</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2467,49 +2467,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Ärtsångare</t>
+          <t>Guldsandbi</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 30273-2022 artfynd.xlsx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 15351-2024 artfynd.xlsx", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 30273-2022 karta.png", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 15351-2024 karta.png", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 30273-2022 FSC-klagomål.docx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 15351-2024 FSC-klagomål.docx", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 30273-2022 FSC-klagomål mail.docx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 15351-2024 FSC-klagomål mail.docx", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 30273-2022 tillsynsbegäran.docx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 15351-2024 tillsynsbegäran.docx", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 30273-2022 tillsynsbegäran mail.docx", "A 30273-2022")</f>
-        <v/>
-      </c>
-      <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 30273-2022 prioriterade fågelarter.docx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 15351-2024 tillsynsbegäran mail.docx", "A 15351-2024")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 54358-2024</t>
+          <t>A 30273-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45617.40755787037</v>
+        <v>44759</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2522,7 +2518,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>12.5</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -2531,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2546,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2556,45 +2552,49 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Ärtsångare</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 54358-2024 artfynd.xlsx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 30273-2022 artfynd.xlsx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 54358-2024 karta.png", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 30273-2022 karta.png", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 54358-2024 FSC-klagomål.docx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 30273-2022 FSC-klagomål.docx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 54358-2024 FSC-klagomål mail.docx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 30273-2022 FSC-klagomål mail.docx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 54358-2024 tillsynsbegäran.docx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 30273-2022 tillsynsbegäran.docx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 54358-2024 tillsynsbegäran mail.docx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 30273-2022 tillsynsbegäran mail.docx", "A 30273-2022")</f>
+        <v/>
+      </c>
+      <c r="Z23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 30273-2022 prioriterade fågelarter.docx", "A 30273-2022")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 45941-2025</t>
+          <t>A 54358-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45924.31385416666</v>
+        <v>45617.40755787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2607,16 +2607,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2641,45 +2641,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 45941-2025 artfynd.xlsx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 54358-2024 artfynd.xlsx", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 45941-2025 karta.png", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 54358-2024 karta.png", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 45941-2025 FSC-klagomål.docx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 54358-2024 FSC-klagomål.docx", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 45941-2025 FSC-klagomål mail.docx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 54358-2024 FSC-klagomål mail.docx", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 45941-2025 tillsynsbegäran.docx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 54358-2024 tillsynsbegäran.docx", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 45941-2025 tillsynsbegäran mail.docx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 54358-2024 tillsynsbegäran mail.docx", "A 54358-2024")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 7062-2024</t>
+          <t>A 58568-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45343</v>
+        <v>45986.36644675926</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>9.1</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2726,45 +2726,49 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 7062-2024 artfynd.xlsx", "A 7062-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 58568-2025 artfynd.xlsx", "A 58568-2025")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 7062-2024 karta.png", "A 7062-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 58568-2025 karta.png", "A 58568-2025")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 7062-2024 FSC-klagomål.docx", "A 7062-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 58568-2025 FSC-klagomål.docx", "A 58568-2025")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 7062-2024 FSC-klagomål mail.docx", "A 7062-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 58568-2025 FSC-klagomål mail.docx", "A 58568-2025")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 7062-2024 tillsynsbegäran.docx", "A 7062-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 58568-2025 tillsynsbegäran.docx", "A 58568-2025")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 7062-2024 tillsynsbegäran mail.docx", "A 7062-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 58568-2025 tillsynsbegäran mail.docx", "A 58568-2025")</f>
+        <v/>
+      </c>
+      <c r="Z25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 58568-2025 prioriterade fågelarter.docx", "A 58568-2025")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 58568-2025</t>
+          <t>A 7062-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45986.36644675926</v>
+        <v>45343</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2777,7 +2781,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>9.1</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -2786,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2801,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -2811,35 +2815,31 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 58568-2025 artfynd.xlsx", "A 58568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 7062-2024 artfynd.xlsx", "A 7062-2024")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 58568-2025 karta.png", "A 58568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 7062-2024 karta.png", "A 7062-2024")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 58568-2025 FSC-klagomål.docx", "A 58568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 7062-2024 FSC-klagomål.docx", "A 7062-2024")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 58568-2025 FSC-klagomål mail.docx", "A 58568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 7062-2024 FSC-klagomål mail.docx", "A 7062-2024")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 58568-2025 tillsynsbegäran.docx", "A 58568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 7062-2024 tillsynsbegäran.docx", "A 7062-2024")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 58568-2025 tillsynsbegäran mail.docx", "A 58568-2025")</f>
-        <v/>
-      </c>
-      <c r="Z26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 58568-2025 prioriterade fågelarter.docx", "A 58568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 7062-2024 tillsynsbegäran mail.docx", "A 7062-2024")</f>
         <v/>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
         <v>44812</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44309.35467592593</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44363</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44251</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>44581</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44875.56251157408</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>44637</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>44685.67520833333</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>44760</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44319.62640046296</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44720.45840277777</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>44365.70123842593</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>44365.70269675926</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>44627</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>44343.5096412037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>44298.46679398148</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44280</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3820,14 +3820,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 41630-2021</t>
+          <t>A 33528-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44425.45646990741</v>
+        <v>44377.80355324074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3877,14 +3877,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 33528-2021</t>
+          <t>A 41630-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44377.80355324074</v>
+        <v>44425.45646990741</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3941,7 +3941,7 @@
         <v>44476.53376157407</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>44467</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>44803.87314814814</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>44246</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>44812.72657407408</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44252</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>44363</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44363</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4390,14 +4390,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 10023-2021</t>
+          <t>A 41420-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44256</v>
+        <v>44826.6478125</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4447,14 +4447,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 41420-2022</t>
+          <t>A 10023-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44826.6478125</v>
+        <v>44256</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4511,7 +4511,7 @@
         <v>44337.31774305556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>44462</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44811.6625462963</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4675,14 +4675,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 30284-2022</t>
+          <t>A 296-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44760</v>
+        <v>44565.47288194444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4732,14 +4732,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 30287-2022</t>
+          <t>A 30284-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
         <v>44760</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4789,14 +4789,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 296-2022</t>
+          <t>A 30287-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44565.47288194444</v>
+        <v>44760</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4846,14 +4846,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 7832-2021</t>
+          <t>A 10726-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44242</v>
+        <v>44627.32611111111</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.5</v>
+        <v>0.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4903,14 +4903,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 10726-2022</t>
+          <t>A 58750-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44627.32611111111</v>
+        <v>44489</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4960,14 +4960,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 58750-2021</t>
+          <t>A 38442-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44489</v>
+        <v>45162.39668981481</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5024,7 +5024,7 @@
         <v>44377.79693287037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>45378.36106481482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>45594.35560185185</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5188,14 +5188,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 38442-2023</t>
+          <t>A 4881-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45162.39668981481</v>
+        <v>45329.44875</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5245,14 +5245,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 4881-2024</t>
+          <t>A 26443-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45329.44875</v>
+        <v>45092</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5302,14 +5302,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 26443-2023</t>
+          <t>A 43770-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45092</v>
+        <v>45187.50803240741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5359,14 +5359,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 43770-2023</t>
+          <t>A 54681-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45187.50803240741</v>
+        <v>44473</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5416,14 +5416,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 54681-2021</t>
+          <t>A 12782-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44473</v>
+        <v>45733.59701388889</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4.1</v>
+        <v>0.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5473,14 +5473,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 19079-2025</t>
+          <t>A 12790-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45766.61758101852</v>
+        <v>45733.60599537037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5530,14 +5530,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 406-2024</t>
+          <t>A 12243-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45296</v>
+        <v>45729</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4.8</v>
+        <v>10.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5587,14 +5587,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 5743-2025</t>
+          <t>A 11329-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45694.52391203704</v>
+        <v>45726.47752314815</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.8</v>
+        <v>4.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5644,14 +5644,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 24053-2025</t>
+          <t>A 19079-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45796</v>
+        <v>45766.61758101852</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>11.1</v>
+        <v>2.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5701,14 +5701,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 7819-2025</t>
+          <t>A 14891-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45706.63945601852</v>
+        <v>45743.47010416666</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5.6</v>
+        <v>0.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5758,14 +5758,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 49384-2023</t>
+          <t>A 30724-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45205</v>
+        <v>45496</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5777,13 +5777,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5820,14 +5815,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 20037-2025</t>
+          <t>A 406-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45772</v>
+        <v>45296</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5840,7 +5835,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5877,14 +5872,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 47511-2024</t>
+          <t>A 23374-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45587.61174768519</v>
+        <v>45791.77096064815</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5897,7 +5892,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5934,14 +5929,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 5740-2025</t>
+          <t>A 23509-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45694.5205324074</v>
+        <v>45792.49081018518</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5954,7 +5949,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5991,14 +5986,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 61435-2024</t>
+          <t>A 5743-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45646.46203703704</v>
+        <v>45694.52391203704</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6011,7 +6006,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6048,14 +6043,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 6384-2025</t>
+          <t>A 24053-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45699.42287037037</v>
+        <v>45796</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6068,7 +6063,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>11.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6105,14 +6100,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 36984-2024</t>
+          <t>A 2867-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45539.32334490741</v>
+        <v>45677.67715277777</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6125,7 +6120,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.7</v>
+        <v>10.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6162,14 +6157,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 27222-2025</t>
+          <t>A 61695-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45812.42443287037</v>
+        <v>46002.52787037037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6182,7 +6177,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6219,14 +6214,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 27620-2025</t>
+          <t>A 7819-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45813.54954861111</v>
+        <v>45706.63945601852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6239,7 +6234,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.7</v>
+        <v>5.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6276,14 +6271,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 28515-2025</t>
+          <t>A 5740-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45819.48321759259</v>
+        <v>45694.5205324074</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6296,7 +6291,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6333,14 +6328,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 2867-2025</t>
+          <t>A 6384-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45677.67715277777</v>
+        <v>45699.42287037037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6353,7 +6348,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>10.7</v>
+        <v>2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6390,14 +6385,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 5612-2025</t>
+          <t>A 36984-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45693.60490740741</v>
+        <v>45539.32334490741</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6410,7 +6405,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6447,14 +6442,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 28022-2023</t>
+          <t>A 27222-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45098.95484953704</v>
+        <v>45812.42443287037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6467,7 +6462,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>5.7</v>
+        <v>1.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6504,14 +6499,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 37063-2024</t>
+          <t>A 41759-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45539.45819444444</v>
+        <v>45902.51219907407</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6524,7 +6519,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>8.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6561,14 +6556,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 587-2025</t>
+          <t>A 27620-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45664.58135416666</v>
+        <v>45813.54954861111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6581,7 +6576,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.3</v>
+        <v>2.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6618,14 +6613,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 12628-2023</t>
+          <t>A 49384-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45000</v>
+        <v>45205</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6637,8 +6632,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6675,14 +6675,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 65619-2021</t>
+          <t>A 41756-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44516.53974537037</v>
+        <v>45902.50689814815</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6732,14 +6732,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 55972-2022</t>
+          <t>A 41758-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44889</v>
+        <v>45902.51023148148</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6789,14 +6789,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 41411-2022</t>
+          <t>A 41760-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44826.63782407407</v>
+        <v>45902.51596064815</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6846,14 +6846,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 12647-2023</t>
+          <t>A 41761-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45000</v>
+        <v>45902.51922453703</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>6.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6903,14 +6903,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 8117-2023</t>
+          <t>A 20037-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44974</v>
+        <v>45772</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>11</v>
+        <v>3.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6960,14 +6960,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 41759-2025</t>
+          <t>A 47511-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45902.51219907407</v>
+        <v>45587.61174768519</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7017,14 +7017,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 35416-2025</t>
+          <t>A 61435-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45855.40481481481</v>
+        <v>45646.46203703704</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7074,14 +7074,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 41756-2025</t>
+          <t>A 28515-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45902.50689814815</v>
+        <v>45819.48321759259</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7131,14 +7131,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 41758-2025</t>
+          <t>A 35422-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45902.51023148148</v>
+        <v>45855.41179398148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7188,14 +7188,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 41760-2025</t>
+          <t>A 42857-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45902.51596064815</v>
+        <v>45908.6132175926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7245,14 +7245,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 41761-2025</t>
+          <t>A 32107-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45902.51922453703</v>
+        <v>45119.61793981482</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>6.6</v>
+        <v>2.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7302,14 +7302,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 35420-2025</t>
+          <t>A 5612-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45855.41025462963</v>
+        <v>45693.60490740741</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7359,14 +7359,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 32110-2023</t>
+          <t>A 28022-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45119.61902777778</v>
+        <v>45098.95484953704</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4</v>
+        <v>5.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7416,14 +7416,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 16489-2025</t>
+          <t>A 44104-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45751.58628472222</v>
+        <v>45915.56895833334</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7473,14 +7473,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 35717-2025</t>
+          <t>A 43684-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45860.42960648148</v>
+        <v>45912.37804398148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7530,14 +7530,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 35422-2025</t>
+          <t>A 37063-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45855.41179398148</v>
+        <v>45539.45819444444</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7587,14 +7587,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 42857-2025</t>
+          <t>A 587-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45908.6132175926</v>
+        <v>45664.58135416666</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7644,14 +7644,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 32107-2023</t>
+          <t>A 44916-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45119.61793981482</v>
+        <v>45918.54886574074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7701,14 +7701,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 37190-2025</t>
+          <t>A 12628-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45875.64939814815</v>
+        <v>45000</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7758,14 +7758,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 37152-2025</t>
+          <t>A 44918-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45875</v>
+        <v>45918.5504050926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.6</v>
+        <v>5.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7815,14 +7815,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 50349-2024</t>
+          <t>A 44914-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45600.81916666667</v>
+        <v>45918.54420138889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7872,14 +7872,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 44104-2025</t>
+          <t>A 44915-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45915.56895833334</v>
+        <v>45918.54668981482</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7929,14 +7929,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 12784-2025</t>
+          <t>A 65619-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45733.59857638889</v>
+        <v>44516.53974537037</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7986,14 +7986,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 35718-2025</t>
+          <t>A 55972-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45860.4315162037</v>
+        <v>44889</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>7.6</v>
+        <v>4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8043,14 +8043,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 11102-2024</t>
+          <t>A 41411-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45371.32438657407</v>
+        <v>44826.63782407407</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8100,14 +8100,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 43684-2025</t>
+          <t>A 12647-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45912.37804398148</v>
+        <v>45000</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8157,14 +8157,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 7912-2024</t>
+          <t>A 8117-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45350</v>
+        <v>44974</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.1</v>
+        <v>11</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8214,14 +8214,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 44916-2025</t>
+          <t>A 57381-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45918.54886574074</v>
+        <v>44896</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8271,14 +8271,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 13581-2023</t>
+          <t>A 35416-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45006.54443287037</v>
+        <v>45855.40481481481</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8288,11 +8288,6 @@
       <c r="E122" t="inlineStr">
         <is>
           <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G122" t="n">
@@ -8333,14 +8328,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 44918-2025</t>
+          <t>A 48730-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45918.5504050926</v>
+        <v>45936.65984953703</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8353,7 +8348,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>5.7</v>
+        <v>4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8390,14 +8385,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 44914-2025</t>
+          <t>A 48727-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45918.54420138889</v>
+        <v>45936.65829861111</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8410,7 +8405,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2</v>
+        <v>6.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8447,14 +8442,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 35423-2025</t>
+          <t>A 35420-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45855.4134837963</v>
+        <v>45855.41025462963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8467,7 +8462,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8504,14 +8499,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 8071-2024</t>
+          <t>A 35717-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45351</v>
+        <v>45860.42960648148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8524,7 +8519,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8561,14 +8556,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 61952-2024</t>
+          <t>A 49188-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45653.50980324074</v>
+        <v>45938.40711805555</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8581,7 +8576,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8618,14 +8613,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 44915-2025</t>
+          <t>A 13801-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45918.54668981482</v>
+        <v>45737</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8638,7 +8633,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8675,14 +8670,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 13975-2023</t>
+          <t>A 32110-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45008</v>
+        <v>45119.61902777778</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8695,7 +8690,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8732,14 +8727,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 16473-2022</t>
+          <t>A 56584-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44671</v>
+        <v>45974</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8752,7 +8747,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8789,14 +8784,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 6323-2023</t>
+          <t>A 16489-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44960</v>
+        <v>45751.58628472222</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8808,13 +8803,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8851,14 +8841,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 40092-2024</t>
+          <t>A 5866-2026</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45554.3884375</v>
+        <v>46052.3075925926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8870,8 +8860,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8908,14 +8903,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 57754-2023</t>
+          <t>A 37190-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45246.79032407407</v>
+        <v>45875.64939814815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8928,7 +8923,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8965,14 +8960,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 45469-2024</t>
+          <t>A 63703-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45576.73229166667</v>
+        <v>46014.60188657408</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8985,7 +8980,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>7.2</v>
+        <v>5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9022,14 +9017,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 57381-2022</t>
+          <t>A 37152-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44896</v>
+        <v>45875</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9042,7 +9037,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9079,14 +9074,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 28021-2023</t>
+          <t>A 12784-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45098.95337962963</v>
+        <v>45733.59857638889</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9099,7 +9094,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9136,14 +9131,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 26886-2023</t>
+          <t>A 35718-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45093</v>
+        <v>45860.4315162037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9156,7 +9151,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.6</v>
+        <v>7.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9193,14 +9188,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 48730-2025</t>
+          <t>A 35423-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45936.65984953703</v>
+        <v>45855.4134837963</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9213,7 +9208,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9250,14 +9245,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 48727-2025</t>
+          <t>A 61952-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45936.65829861111</v>
+        <v>45653.50980324074</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9270,7 +9265,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>6.1</v>
+        <v>4.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9307,14 +9302,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 49188-2025</t>
+          <t>A 50349-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45938.40711805555</v>
+        <v>45600.81916666667</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9364,14 +9359,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 13801-2025</t>
+          <t>A 11102-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45737</v>
+        <v>45371.32438657407</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9384,7 +9379,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9421,14 +9416,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 302-2024</t>
+          <t>A 55324-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45295</v>
+        <v>45971.33519675926</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9442,11 +9437,11 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9483,14 +9478,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 56584-2025</t>
+          <t>A 7912-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45974</v>
+        <v>45350</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9503,7 +9498,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9540,14 +9535,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 29066-2024</t>
+          <t>A 56854-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45481.69738425926</v>
+        <v>45978.49476851852</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9560,7 +9555,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>7.9</v>
+        <v>6.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9597,14 +9592,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 29067-2024</t>
+          <t>A 56855-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45481.70640046296</v>
+        <v>45978.4962962963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9617,7 +9612,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>10.4</v>
+        <v>2.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9654,14 +9649,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 29068-2024</t>
+          <t>A 13581-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45481.71290509259</v>
+        <v>45006.54443287037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9673,8 +9668,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9711,14 +9711,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 4225-2024</t>
+          <t>A 8071-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45324.41422453704</v>
+        <v>45351</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9768,14 +9768,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 4227-2024</t>
+          <t>A 13975-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45324.41612268519</v>
+        <v>45008</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9825,14 +9825,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 38093-2022</t>
+          <t>A 16473-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44811.94373842593</v>
+        <v>44671</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9882,14 +9882,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 5420-2025</t>
+          <t>A 6323-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45692.68938657407</v>
+        <v>44960</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9901,8 +9901,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9939,14 +9944,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 51488-2022</t>
+          <t>A 40092-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44869</v>
+        <v>45554.3884375</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9959,7 +9964,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9996,14 +10001,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 6489-2025</t>
+          <t>A 5834-2026</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45699.62678240741</v>
+        <v>46052.33366898148</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10015,8 +10020,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>0.6</v>
+        <v>9.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10049,18 +10059,38 @@
         <v>0</v>
       </c>
       <c r="R152" s="2" t="inlineStr"/>
+      <c r="U152">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/knärot/A 5834-2026 karta knärot.png", "A 5834-2026")</f>
+        <v/>
+      </c>
+      <c r="V152">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 5834-2026 FSC-klagomål.docx", "A 5834-2026")</f>
+        <v/>
+      </c>
+      <c r="W152">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 5834-2026 FSC-klagomål mail.docx", "A 5834-2026")</f>
+        <v/>
+      </c>
+      <c r="X152">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 5834-2026 tillsynsbegäran.docx", "A 5834-2026")</f>
+        <v/>
+      </c>
+      <c r="Y152">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 5834-2026 tillsynsbegäran mail.docx", "A 5834-2026")</f>
+        <v/>
+      </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 9046-2022</t>
+          <t>A 57754-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44615.44694444445</v>
+        <v>45246.79032407407</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10073,7 +10103,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10110,14 +10140,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 46561-2024</t>
+          <t>A 45469-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45582.67883101852</v>
+        <v>45576.73229166667</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10130,7 +10160,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>12.2</v>
+        <v>7.2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10167,14 +10197,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 17510-2021</t>
+          <t>A 28021-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44299</v>
+        <v>45098.95337962963</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10187,7 +10217,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10224,14 +10254,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 28903-2024</t>
+          <t>A 26886-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45480.54913194444</v>
+        <v>45093</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10244,7 +10274,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10281,14 +10311,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 61284-2022</t>
+          <t>A 302-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44915</v>
+        <v>45295</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10300,8 +10330,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10338,14 +10373,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 12760-2023</t>
+          <t>A 2226-2026</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45001</v>
+        <v>46036.51820601852</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10358,7 +10393,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10395,14 +10430,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 62730-2023</t>
+          <t>A 29066-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45268</v>
+        <v>45481.69738425926</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10415,7 +10450,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.1</v>
+        <v>7.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10452,14 +10487,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 55324-2025</t>
+          <t>A 29067-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45971.33519675926</v>
+        <v>45481.70640046296</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10471,13 +10506,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>2.6</v>
+        <v>10.4</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10514,14 +10544,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 11604-2024</t>
+          <t>A 29068-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45373.39337962963</v>
+        <v>45481.71290509259</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10534,7 +10564,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10571,14 +10601,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 5324-2025</t>
+          <t>A 2438-2026</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45692.5303125</v>
+        <v>46036.91210648148</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10591,7 +10621,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>5.1</v>
+        <v>2.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10628,14 +10658,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 56854-2025</t>
+          <t>A 4225-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45978.49476851852</v>
+        <v>45324.41422453704</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10648,7 +10678,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>6.4</v>
+        <v>1.3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10685,14 +10715,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 56855-2025</t>
+          <t>A 4227-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45978.4962962963</v>
+        <v>45324.41612268519</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10705,7 +10735,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10742,14 +10772,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 5811-2025</t>
+          <t>A 38093-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45694.7127662037</v>
+        <v>44811.94373842593</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10762,7 +10792,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10799,14 +10829,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 54804-2022</t>
+          <t>A 5420-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44883</v>
+        <v>45692.68938657407</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10819,7 +10849,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>22.6</v>
+        <v>0.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10856,14 +10886,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 20031-2025</t>
+          <t>A 61475-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45772</v>
+        <v>46001.61959490741</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10876,7 +10906,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10913,14 +10943,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 52431-2023</t>
+          <t>A 51488-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45225.33118055556</v>
+        <v>44869</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10933,7 +10963,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10970,14 +11000,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 33993-2023</t>
+          <t>A 6489-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45134.92311342592</v>
+        <v>45699.62678240741</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10990,7 +11020,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11027,14 +11057,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 33996-2023</t>
+          <t>A 9046-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45134.92869212963</v>
+        <v>44615.44694444445</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11047,7 +11077,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11084,14 +11114,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 7947-2024</t>
+          <t>A 46561-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45350</v>
+        <v>45582.67883101852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11104,7 +11134,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.8</v>
+        <v>12.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11141,14 +11171,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 55991-2022</t>
+          <t>A 17510-2021</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44889</v>
+        <v>44299</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11161,7 +11191,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11198,14 +11228,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 2226-2026</t>
+          <t>A 28903-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>46036.51820601852</v>
+        <v>45480.54913194444</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11218,7 +11248,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11255,14 +11285,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 17116-2023</t>
+          <t>A 61284-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45034.58351851852</v>
+        <v>44915</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11312,14 +11342,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 2438-2026</t>
+          <t>A 12760-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>46036.91210648148</v>
+        <v>45001</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11332,7 +11362,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11369,14 +11399,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 15567-2022</t>
+          <t>A 62730-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44662</v>
+        <v>45268</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11389,7 +11419,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11426,14 +11456,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 21630-2024</t>
+          <t>A 11604-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45442.32711805555</v>
+        <v>45373.39337962963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11446,7 +11476,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>4.6</v>
+        <v>2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11483,14 +11513,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 61475-2025</t>
+          <t>A 5324-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>46001.61959490741</v>
+        <v>45692.5303125</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11503,7 +11533,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11540,14 +11570,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 13382-2023</t>
+          <t>A 5811-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45005.50784722222</v>
+        <v>45694.7127662037</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11560,7 +11590,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11597,14 +11627,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 61695-2025</t>
+          <t>A 54804-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>46002.52787037037</v>
+        <v>44883</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11617,7 +11647,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>3.7</v>
+        <v>22.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11654,14 +11684,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 550-2024</t>
+          <t>A 20031-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45299</v>
+        <v>45772</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11674,7 +11704,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.3</v>
+        <v>6.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11711,14 +11741,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 5834-2026</t>
+          <t>A 52431-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46052.33366898148</v>
+        <v>45225.33118055556</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11730,13 +11760,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>9.9</v>
+        <v>0.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11769,38 +11794,18 @@
         <v>0</v>
       </c>
       <c r="R182" s="2" t="inlineStr"/>
-      <c r="U182">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/knärot/A 5834-2026 karta knärot.png", "A 5834-2026")</f>
-        <v/>
-      </c>
-      <c r="V182">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 5834-2026 FSC-klagomål.docx", "A 5834-2026")</f>
-        <v/>
-      </c>
-      <c r="W182">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 5834-2026 FSC-klagomål mail.docx", "A 5834-2026")</f>
-        <v/>
-      </c>
-      <c r="X182">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 5834-2026 tillsynsbegäran.docx", "A 5834-2026")</f>
-        <v/>
-      </c>
-      <c r="Y182">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 5834-2026 tillsynsbegäran mail.docx", "A 5834-2026")</f>
-        <v/>
-      </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 5866-2026</t>
+          <t>A 33993-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>46052.3075925926</v>
+        <v>45134.92311342592</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11812,13 +11817,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11855,14 +11855,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 63703-2025</t>
+          <t>A 33996-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>46014.60188657408</v>
+        <v>45134.92869212963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11912,14 +11912,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 13887-2024</t>
+          <t>A 7947-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45391.61759259259</v>
+        <v>45350</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>11.3</v>
+        <v>1.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11969,14 +11969,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 47509-2024</t>
+          <t>A 55991-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45587.60949074074</v>
+        <v>44889</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11989,7 +11989,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12026,14 +12026,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 14929-2024</t>
+          <t>A 17116-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45398.64460648148</v>
+        <v>45034.58351851852</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12083,14 +12083,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 11104-2024</t>
+          <t>A 15567-2022</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45371.32724537037</v>
+        <v>44662</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12140,14 +12140,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 28910-2024</t>
+          <t>A 21630-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45480.65789351852</v>
+        <v>45442.32711805555</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.7</v>
+        <v>4.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12197,14 +12197,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 1382-2024</t>
+          <t>A 13382-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45303.56011574074</v>
+        <v>45005.50784722222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12254,14 +12254,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 17114-2023</t>
+          <t>A 550-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45034.58234953704</v>
+        <v>45299</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12311,14 +12311,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 43767-2023</t>
+          <t>A 13887-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45187.50667824074</v>
+        <v>45391.61759259259</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.3</v>
+        <v>11.3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12368,14 +12368,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 38522-2024</t>
+          <t>A 47509-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45546.56513888889</v>
+        <v>45587.60949074074</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12387,13 +12387,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>5.3</v>
+        <v>2.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12430,14 +12425,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 13631-2024</t>
+          <t>A 14929-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45390.41417824074</v>
+        <v>45398.64460648148</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12450,7 +12445,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>16.4</v>
+        <v>5.1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12487,14 +12482,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 38383-2022</t>
+          <t>A 11104-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44812</v>
+        <v>45371.32724537037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12507,7 +12502,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12544,14 +12539,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 37508-2023</t>
+          <t>A 28910-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45158.42202546296</v>
+        <v>45480.65789351852</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12564,7 +12559,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>6.9</v>
+        <v>1.7</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12601,14 +12596,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 37509-2023</t>
+          <t>A 1382-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45158.43357638889</v>
+        <v>45303.56011574074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12621,7 +12616,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12658,14 +12653,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 15159-2023</t>
+          <t>A 17114-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45016.58609953704</v>
+        <v>45034.58234953704</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12677,13 +12672,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12720,14 +12710,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 37510-2023</t>
+          <t>A 43767-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45158</v>
+        <v>45187.50667824074</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12740,7 +12730,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12777,14 +12767,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 49879-2023</t>
+          <t>A 38522-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45213</v>
+        <v>45546.56513888889</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12796,8 +12786,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12834,14 +12829,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 44445-2023</t>
+          <t>A 13631-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45189.37668981482</v>
+        <v>45390.41417824074</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12854,7 +12849,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>3.8</v>
+        <v>16.4</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12891,14 +12886,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 33991-2023</t>
+          <t>A 38383-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45134.90613425926</v>
+        <v>44812</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12911,7 +12906,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12948,14 +12943,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 5328-2025</t>
+          <t>A 37508-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45692.53454861111</v>
+        <v>45158.42202546296</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12968,7 +12963,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.1</v>
+        <v>6.9</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13005,14 +13000,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 21304-2025</t>
+          <t>A 37509-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45781.36851851852</v>
+        <v>45158.43357638889</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13025,7 +13020,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13062,14 +13057,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 3867-2025</t>
+          <t>A 15159-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45684</v>
+        <v>45016.58609953704</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13081,8 +13076,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G205" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13119,14 +13119,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 21617-2024</t>
+          <t>A 37510-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45441.97630787037</v>
+        <v>45158</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>9.699999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13176,14 +13176,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 22561-2025</t>
+          <t>A 49879-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45789.3449537037</v>
+        <v>45213</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13233,14 +13233,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 12782-2025</t>
+          <t>A 44445-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45733.59701388889</v>
+        <v>45189.37668981482</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13290,14 +13290,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 12790-2025</t>
+          <t>A 33991-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45733.60599537037</v>
+        <v>45134.90613425926</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13347,14 +13347,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 12243-2025</t>
+          <t>A 5328-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45729</v>
+        <v>45692.53454861111</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>10.2</v>
+        <v>1.1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13404,14 +13404,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 11329-2025</t>
+          <t>A 21304-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45726.47752314815</v>
+        <v>45781.36851851852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>4.6</v>
+        <v>2.3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13461,14 +13461,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 14891-2025</t>
+          <t>A 3867-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45743.47010416666</v>
+        <v>45684</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13518,14 +13518,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 30724-2024</t>
+          <t>A 21617-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45496</v>
+        <v>45441.97630787037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13572,17 +13572,17 @@
       </c>
       <c r="R213" s="2" t="inlineStr"/>
     </row>
-    <row r="214" ht="15" customHeight="1">
+    <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 23374-2025</t>
+          <t>A 22561-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45791.77096064815</v>
+        <v>45789.3449537037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13628,63 +13628,6 @@
         <v>0</v>
       </c>
       <c r="R214" s="2" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>A 23509-2025</t>
-        </is>
-      </c>
-      <c r="B215" s="1" t="n">
-        <v>45792.49081018518</v>
-      </c>
-      <c r="C215" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="G215" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="n">
-        <v>0</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0</v>
-      </c>
-      <c r="L215" t="n">
-        <v>0</v>
-      </c>
-      <c r="M215" t="n">
-        <v>0</v>
-      </c>
-      <c r="N215" t="n">
-        <v>0</v>
-      </c>
-      <c r="O215" t="n">
-        <v>0</v>
-      </c>
-      <c r="P215" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q215" t="n">
-        <v>0</v>
-      </c>
-      <c r="R215" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt LILLA EDET.xlsx
+++ b/Översikt LILLA EDET.xlsx
@@ -575,7 +575,7 @@
         <v>45295</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45827</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>45295</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45272</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>45139</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>45462</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>45187</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>45819.48106481481</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
         <v>45986.36528935185</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1419,14 +1419,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 4017-2026</t>
+          <t>A 23563-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>46044.42456018519</v>
+        <v>45072</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,14 +1438,19 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G11" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1472,130 +1477,125 @@
         <v>3</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Nordfladdermus
+Dvärgpipistrell
+Vattenfladdermus</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23563-2023 artfynd.xlsx", "A 23563-2023")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23563-2023 karta.png", "A 23563-2023")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23563-2023 FSC-klagomål.docx", "A 23563-2023")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23563-2023 FSC-klagomål mail.docx", "A 23563-2023")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23563-2023 tillsynsbegäran.docx", "A 23563-2023")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23563-2023 tillsynsbegäran mail.docx", "A 23563-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 4017-2026</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>46044.42456018519</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Stor revmossa
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 4017-2026 artfynd.xlsx", "A 4017-2026")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 4017-2026 karta.png", "A 4017-2026")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 4017-2026 FSC-klagomål.docx", "A 4017-2026")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 4017-2026 FSC-klagomål mail.docx", "A 4017-2026")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 4017-2026 tillsynsbegäran.docx", "A 4017-2026")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 4017-2026 tillsynsbegäran mail.docx", "A 4017-2026")</f>
         <v/>
       </c>
-      <c r="Z11">
+      <c r="Z12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 4017-2026 prioriterade fågelarter.docx", "A 4017-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 23563-2023</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45072</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Nordfladdermus
-Dvärgpipistrell
-Vattenfladdermus</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23563-2023 artfynd.xlsx", "A 23563-2023")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23563-2023 karta.png", "A 23563-2023")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23563-2023 FSC-klagomål.docx", "A 23563-2023")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23563-2023 FSC-klagomål mail.docx", "A 23563-2023")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23563-2023 tillsynsbegäran.docx", "A 23563-2023")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23563-2023 tillsynsbegäran mail.docx", "A 23563-2023")</f>
         <v/>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
         <v>45832.45538194444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>46036.9100925926</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>45072</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>45296.57905092592</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>45390</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>45072</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,14 +2144,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 23494-2023</t>
+          <t>A 45941-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45072</v>
+        <v>45924.31385416666</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2163,16 +2163,11 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G19" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2203,49 +2198,45 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23494-2023 artfynd.xlsx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 45941-2025 artfynd.xlsx", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23494-2023 karta.png", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 45941-2025 karta.png", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23494-2023 FSC-klagomål.docx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 45941-2025 FSC-klagomål.docx", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23494-2023 FSC-klagomål mail.docx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 45941-2025 FSC-klagomål mail.docx", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23494-2023 tillsynsbegäran.docx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 45941-2025 tillsynsbegäran.docx", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23494-2023 tillsynsbegäran mail.docx", "A 23494-2023")</f>
-        <v/>
-      </c>
-      <c r="Z19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 23494-2023 prioriterade fågelarter.docx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 45941-2025 tillsynsbegäran mail.docx", "A 45941-2025")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 45941-2025</t>
+          <t>A 23494-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45924.31385416666</v>
+        <v>45072</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2257,11 +2248,16 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2292,31 +2288,35 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 45941-2025 artfynd.xlsx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23494-2023 artfynd.xlsx", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 45941-2025 karta.png", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23494-2023 karta.png", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 45941-2025 FSC-klagomål.docx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23494-2023 FSC-klagomål.docx", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 45941-2025 FSC-klagomål mail.docx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23494-2023 FSC-klagomål mail.docx", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 45941-2025 tillsynsbegäran.docx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23494-2023 tillsynsbegäran.docx", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 45941-2025 tillsynsbegäran mail.docx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23494-2023 tillsynsbegäran mail.docx", "A 23494-2023")</f>
+        <v/>
+      </c>
+      <c r="Z20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 23494-2023 prioriterade fågelarter.docx", "A 23494-2023")</f>
         <v/>
       </c>
     </row>
@@ -2330,7 +2330,7 @@
         <v>45089</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2408,14 +2408,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 15351-2024</t>
+          <t>A 58568-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45400.8005787037</v>
+        <v>45986.36644675926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2427,16 +2427,11 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2467,45 +2462,49 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Guldsandbi</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 15351-2024 artfynd.xlsx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 58568-2025 artfynd.xlsx", "A 58568-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 15351-2024 karta.png", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 58568-2025 karta.png", "A 58568-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 15351-2024 FSC-klagomål.docx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 58568-2025 FSC-klagomål.docx", "A 58568-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 15351-2024 FSC-klagomål mail.docx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 58568-2025 FSC-klagomål mail.docx", "A 58568-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 15351-2024 tillsynsbegäran.docx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 58568-2025 tillsynsbegäran.docx", "A 58568-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 15351-2024 tillsynsbegäran mail.docx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 58568-2025 tillsynsbegäran mail.docx", "A 58568-2025")</f>
+        <v/>
+      </c>
+      <c r="Z22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 58568-2025 prioriterade fågelarter.docx", "A 58568-2025")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 30273-2022</t>
+          <t>A 15351-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44759</v>
+        <v>45400.8005787037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2517,11 +2516,16 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>12.5</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2552,49 +2556,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Ärtsångare</t>
+          <t>Guldsandbi</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 30273-2022 artfynd.xlsx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 15351-2024 artfynd.xlsx", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 30273-2022 karta.png", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 15351-2024 karta.png", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 30273-2022 FSC-klagomål.docx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 15351-2024 FSC-klagomål.docx", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 30273-2022 FSC-klagomål mail.docx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 15351-2024 FSC-klagomål mail.docx", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 30273-2022 tillsynsbegäran.docx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 15351-2024 tillsynsbegäran.docx", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 30273-2022 tillsynsbegäran mail.docx", "A 30273-2022")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 30273-2022 prioriterade fågelarter.docx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 15351-2024 tillsynsbegäran mail.docx", "A 15351-2024")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 54358-2024</t>
+          <t>A 30273-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45617.40755787037</v>
+        <v>44759</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>12.5</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -2616,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2641,45 +2641,49 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Ärtsångare</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 54358-2024 artfynd.xlsx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 30273-2022 artfynd.xlsx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 54358-2024 karta.png", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 30273-2022 karta.png", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 54358-2024 FSC-klagomål.docx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 30273-2022 FSC-klagomål.docx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 54358-2024 FSC-klagomål mail.docx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 30273-2022 FSC-klagomål mail.docx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 54358-2024 tillsynsbegäran.docx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 30273-2022 tillsynsbegäran.docx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 54358-2024 tillsynsbegäran mail.docx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 30273-2022 tillsynsbegäran mail.docx", "A 30273-2022")</f>
+        <v/>
+      </c>
+      <c r="Z24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 30273-2022 prioriterade fågelarter.docx", "A 30273-2022")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 58568-2025</t>
+          <t>A 54358-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45986.36644675926</v>
+        <v>45617.40755787037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2692,7 +2696,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -2701,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2716,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2726,35 +2730,31 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 58568-2025 artfynd.xlsx", "A 58568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 54358-2024 artfynd.xlsx", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 58568-2025 karta.png", "A 58568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 54358-2024 karta.png", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 58568-2025 FSC-klagomål.docx", "A 58568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 54358-2024 FSC-klagomål.docx", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 58568-2025 FSC-klagomål mail.docx", "A 58568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 54358-2024 FSC-klagomål mail.docx", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 58568-2025 tillsynsbegäran.docx", "A 58568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 54358-2024 tillsynsbegäran.docx", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 58568-2025 tillsynsbegäran mail.docx", "A 58568-2025")</f>
-        <v/>
-      </c>
-      <c r="Z25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 58568-2025 prioriterade fågelarter.docx", "A 58568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 54358-2024 tillsynsbegäran mail.docx", "A 54358-2024")</f>
         <v/>
       </c>
     </row>
@@ -2768,7 +2768,7 @@
         <v>45343</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44812</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44309.35467592593</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44363</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44251</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>44581</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44875.56251157408</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>44637</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>44685.67520833333</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>44760</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44319.62640046296</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44720.45840277777</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>44365.70123842593</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>44365.70269675926</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>44627</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>44343.5096412037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>44298.46679398148</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44280</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44377.80355324074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>44425.45646990741</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>44476.53376157407</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>44467</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>44803.87314814814</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>44246</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>44812.72657407408</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44252</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>44363</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44363</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4390,14 +4390,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 41420-2022</t>
+          <t>A 10023-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44826.6478125</v>
+        <v>44256</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4447,14 +4447,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 10023-2021</t>
+          <t>A 41420-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44256</v>
+        <v>44826.6478125</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4511,7 +4511,7 @@
         <v>44337.31774305556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>44462</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4618,14 +4618,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 38059-2022</t>
+          <t>A 30284-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44811.6625462963</v>
+        <v>44760</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4675,14 +4675,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 296-2022</t>
+          <t>A 30287-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44565.47288194444</v>
+        <v>44760</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4732,14 +4732,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 30284-2022</t>
+          <t>A 38059-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44760</v>
+        <v>44811.6625462963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4789,14 +4789,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 30287-2022</t>
+          <t>A 296-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44760</v>
+        <v>44565.47288194444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4853,7 +4853,7 @@
         <v>44627.32611111111</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>44489</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>45162.39668981481</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>44377.79693287037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>45378.36106481482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>45594.35560185185</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5188,14 +5188,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 4881-2024</t>
+          <t>A 3867-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45329.44875</v>
+        <v>45684</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5245,14 +5245,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 26443-2023</t>
+          <t>A 21617-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45092</v>
+        <v>45441.97630787037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5302,14 +5302,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 43770-2023</t>
+          <t>A 4881-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45187.50803240741</v>
+        <v>45329.44875</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5359,14 +5359,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 54681-2021</t>
+          <t>A 55324-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44473</v>
+        <v>45971.33519675926</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5378,8 +5378,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5416,14 +5421,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 12782-2025</t>
+          <t>A 22561-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45733.59701388889</v>
+        <v>45789.3449537037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5436,7 +5441,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5473,14 +5478,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 12790-2025</t>
+          <t>A 26443-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45733.60599537037</v>
+        <v>45092</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5493,7 +5498,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5530,14 +5535,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 12243-2025</t>
+          <t>A 43770-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45729</v>
+        <v>45187.50803240741</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5550,7 +5555,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>10.2</v>
+        <v>0.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5587,14 +5592,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 11329-2025</t>
+          <t>A 12782-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45726.47752314815</v>
+        <v>45733.59701388889</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5607,7 +5612,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5644,14 +5649,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 19079-2025</t>
+          <t>A 12790-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45766.61758101852</v>
+        <v>45733.60599537037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5664,7 +5669,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5701,14 +5706,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 14891-2025</t>
+          <t>A 12243-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45743.47010416666</v>
+        <v>45729</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5721,7 +5726,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.7</v>
+        <v>10.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5758,14 +5763,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 30724-2024</t>
+          <t>A 11329-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45496</v>
+        <v>45726.47752314815</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5778,7 +5783,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.5</v>
+        <v>4.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5815,14 +5820,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 406-2024</t>
+          <t>A 14891-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45296</v>
+        <v>45743.47010416666</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5835,7 +5840,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4.8</v>
+        <v>0.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5872,14 +5877,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 23374-2025</t>
+          <t>A 30724-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45791.77096064815</v>
+        <v>45496</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5892,7 +5897,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5929,14 +5934,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 23509-2025</t>
+          <t>A 54681-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45792.49081018518</v>
+        <v>44473</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5949,7 +5954,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.3</v>
+        <v>4.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5986,14 +5991,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 5743-2025</t>
+          <t>A 23374-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45694.52391203704</v>
+        <v>45791.77096064815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6006,7 +6011,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6043,14 +6048,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 24053-2025</t>
+          <t>A 23509-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45796</v>
+        <v>45792.49081018518</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6063,7 +6068,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>11.1</v>
+        <v>0.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6100,14 +6105,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 2867-2025</t>
+          <t>A 5743-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45677.67715277777</v>
+        <v>45694.52391203704</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6120,7 +6125,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>10.7</v>
+        <v>0.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6157,14 +6162,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 61695-2025</t>
+          <t>A 2867-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>46002.52787037037</v>
+        <v>45677.67715277777</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6177,7 +6182,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.7</v>
+        <v>10.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6214,14 +6219,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 7819-2025</t>
+          <t>A 19079-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45706.63945601852</v>
+        <v>45766.61758101852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6234,7 +6239,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>5.6</v>
+        <v>2.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6271,14 +6276,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 5740-2025</t>
+          <t>A 24053-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45694.5205324074</v>
+        <v>45796</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6291,7 +6296,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.4</v>
+        <v>11.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6328,14 +6333,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 6384-2025</t>
+          <t>A 406-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45699.42287037037</v>
+        <v>45296</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6348,7 +6353,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6385,14 +6390,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 36984-2024</t>
+          <t>A 56854-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45539.32334490741</v>
+        <v>45978.49476851852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6405,7 +6410,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.7</v>
+        <v>6.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6442,14 +6447,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 27222-2025</t>
+          <t>A 56855-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45812.42443287037</v>
+        <v>45978.4962962963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6462,7 +6467,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6499,14 +6504,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 41759-2025</t>
+          <t>A 7819-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45902.51219907407</v>
+        <v>45706.63945601852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6519,7 +6524,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.2</v>
+        <v>5.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6556,14 +6561,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 27620-2025</t>
+          <t>A 41759-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45813.54954861111</v>
+        <v>45902.51219907407</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6576,7 +6581,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6613,14 +6618,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 49384-2023</t>
+          <t>A 41756-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45205</v>
+        <v>45902.50689814815</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6632,13 +6637,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6675,14 +6675,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 41756-2025</t>
+          <t>A 41758-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45902.50689814815</v>
+        <v>45902.51023148148</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6732,14 +6732,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 41758-2025</t>
+          <t>A 41760-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45902.51023148148</v>
+        <v>45902.51596064815</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6789,14 +6789,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 41760-2025</t>
+          <t>A 41761-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45902.51596064815</v>
+        <v>45902.51922453703</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.1</v>
+        <v>6.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6846,14 +6846,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 41761-2025</t>
+          <t>A 5740-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45902.51922453703</v>
+        <v>45694.5205324074</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>6.6</v>
+        <v>1.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6903,14 +6903,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 20037-2025</t>
+          <t>A 35422-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45772</v>
+        <v>45855.41179398148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6960,14 +6960,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 47511-2024</t>
+          <t>A 6384-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45587.61174768519</v>
+        <v>45699.42287037037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7017,14 +7017,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 61435-2024</t>
+          <t>A 36984-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45646.46203703704</v>
+        <v>45539.32334490741</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7074,14 +7074,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 28515-2025</t>
+          <t>A 42857-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45819.48321759259</v>
+        <v>45908.6132175926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7131,14 +7131,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 35422-2025</t>
+          <t>A 32107-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45855.41179398148</v>
+        <v>45119.61793981482</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7188,14 +7188,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 42857-2025</t>
+          <t>A 27222-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45908.6132175926</v>
+        <v>45812.42443287037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7245,14 +7245,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 32107-2023</t>
+          <t>A 27620-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45119.61793981482</v>
+        <v>45813.54954861111</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7302,14 +7302,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 5612-2025</t>
+          <t>A 49384-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45693.60490740741</v>
+        <v>45205</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7319,6 +7319,11 @@
       <c r="E105" t="inlineStr">
         <is>
           <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -7359,14 +7364,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 28022-2023</t>
+          <t>A 44104-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45098.95484953704</v>
+        <v>45915.56895833334</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7379,7 +7384,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>5.7</v>
+        <v>1.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7416,14 +7421,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 44104-2025</t>
+          <t>A 20037-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45915.56895833334</v>
+        <v>45772</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7436,7 +7441,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7473,14 +7478,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 43684-2025</t>
+          <t>A 47511-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45912.37804398148</v>
+        <v>45587.61174768519</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7493,7 +7498,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7530,14 +7535,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 37063-2024</t>
+          <t>A 28515-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45539.45819444444</v>
+        <v>45819.48321759259</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7550,7 +7555,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>8.800000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7587,14 +7592,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 587-2025</t>
+          <t>A 43684-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45664.58135416666</v>
+        <v>45912.37804398148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7607,7 +7612,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7644,14 +7649,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 44916-2025</t>
+          <t>A 61435-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45918.54886574074</v>
+        <v>45646.46203703704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7664,7 +7669,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7701,14 +7706,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 12628-2023</t>
+          <t>A 44916-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45000</v>
+        <v>45918.54886574074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7721,7 +7726,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7765,7 +7770,7 @@
         <v>45918.5504050926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7822,7 +7827,7 @@
         <v>45918.54420138889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7879,7 +7884,7 @@
         <v>45918.54668981482</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7929,14 +7934,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 65619-2021</t>
+          <t>A 5612-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44516.53974537037</v>
+        <v>45693.60490740741</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7949,7 +7954,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7986,14 +7991,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 55972-2022</t>
+          <t>A 28022-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44889</v>
+        <v>45098.95484953704</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8006,7 +8011,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4</v>
+        <v>5.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8043,14 +8048,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 41411-2022</t>
+          <t>A 37063-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44826.63782407407</v>
+        <v>45539.45819444444</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8063,7 +8068,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8100,14 +8105,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 12647-2023</t>
+          <t>A 587-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45000</v>
+        <v>45664.58135416666</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8120,7 +8125,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8157,14 +8162,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 8117-2023</t>
+          <t>A 12628-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44974</v>
+        <v>45000</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8177,7 +8182,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>11</v>
+        <v>0.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8214,14 +8219,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 57381-2022</t>
+          <t>A 65619-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44896</v>
+        <v>44516.53974537037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8234,7 +8239,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8271,14 +8276,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 35416-2025</t>
+          <t>A 57381-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45855.40481481481</v>
+        <v>44896</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8291,7 +8296,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8335,7 +8340,7 @@
         <v>45936.65984953703</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8392,7 +8397,7 @@
         <v>45936.65829861111</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8442,14 +8447,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 35420-2025</t>
+          <t>A 55972-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45855.41025462963</v>
+        <v>44889</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8462,7 +8467,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8499,14 +8504,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 35717-2025</t>
+          <t>A 41411-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45860.42960648148</v>
+        <v>44826.63782407407</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8519,7 +8524,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8563,7 +8568,7 @@
         <v>45938.40711805555</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8613,14 +8618,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 13801-2025</t>
+          <t>A 12647-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45737</v>
+        <v>45000</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8633,7 +8638,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8670,14 +8675,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 32110-2023</t>
+          <t>A 13801-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45119.61902777778</v>
+        <v>45737</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8690,7 +8695,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8734,7 +8739,7 @@
         <v>45974</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8784,14 +8789,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 16489-2025</t>
+          <t>A 8117-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45751.58628472222</v>
+        <v>44974</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8804,7 +8809,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.8</v>
+        <v>11</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8841,14 +8846,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 5866-2026</t>
+          <t>A 35416-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46052.3075925926</v>
+        <v>45855.40481481481</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8860,13 +8865,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8903,14 +8903,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 37190-2025</t>
+          <t>A 35420-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45875.64939814815</v>
+        <v>45855.41025462963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8923,7 +8923,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8960,14 +8960,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 63703-2025</t>
+          <t>A 35717-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>46014.60188657408</v>
+        <v>45860.42960648148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9017,14 +9017,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 37152-2025</t>
+          <t>A 32110-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45875</v>
+        <v>45119.61902777778</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9074,14 +9074,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 12784-2025</t>
+          <t>A 16489-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45733.59857638889</v>
+        <v>45751.58628472222</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9131,14 +9131,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 35718-2025</t>
+          <t>A 37190-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45860.4315162037</v>
+        <v>45875.64939814815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>7.6</v>
+        <v>3.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9188,14 +9188,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 35423-2025</t>
+          <t>A 37152-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45855.4134837963</v>
+        <v>45875</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9245,14 +9245,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 61952-2024</t>
+          <t>A 12784-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45653.50980324074</v>
+        <v>45733.59857638889</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9302,14 +9302,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 50349-2024</t>
+          <t>A 35718-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45600.81916666667</v>
+        <v>45860.4315162037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.7</v>
+        <v>7.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9359,14 +9359,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 11102-2024</t>
+          <t>A 50349-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45371.32438657407</v>
+        <v>45600.81916666667</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9416,14 +9416,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 55324-2025</t>
+          <t>A 11102-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45971.33519675926</v>
+        <v>45371.32438657407</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9435,13 +9435,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9485,7 +9480,7 @@
         <v>45350</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9535,14 +9530,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 56854-2025</t>
+          <t>A 13581-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45978.49476851852</v>
+        <v>45006.54443287037</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9554,8 +9549,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>6.4</v>
+        <v>3.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9592,14 +9592,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 56855-2025</t>
+          <t>A 8071-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45978.4962962963</v>
+        <v>45351</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9649,14 +9649,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 13581-2023</t>
+          <t>A 2226-2026</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45006.54443287037</v>
+        <v>46036.51820601852</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9668,13 +9668,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9711,14 +9706,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 8071-2024</t>
+          <t>A 35423-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45351</v>
+        <v>45855.4134837963</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9731,7 +9726,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9768,14 +9763,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 13975-2023</t>
+          <t>A 61952-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45008</v>
+        <v>45653.50980324074</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9788,7 +9783,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9825,14 +9820,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 16473-2022</t>
+          <t>A 2438-2026</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44671</v>
+        <v>46036.91210648148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9845,7 +9840,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9882,14 +9877,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 6323-2023</t>
+          <t>A 13975-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44960</v>
+        <v>45008</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9901,13 +9896,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9944,14 +9934,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 40092-2024</t>
+          <t>A 16473-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45554.3884375</v>
+        <v>44671</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10001,14 +9991,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 5834-2026</t>
+          <t>A 6323-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>46052.33366898148</v>
+        <v>44960</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10022,11 +10012,11 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>9.9</v>
+        <v>0.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10059,38 +10049,18 @@
         <v>0</v>
       </c>
       <c r="R152" s="2" t="inlineStr"/>
-      <c r="U152">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/knärot/A 5834-2026 karta knärot.png", "A 5834-2026")</f>
-        <v/>
-      </c>
-      <c r="V152">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 5834-2026 FSC-klagomål.docx", "A 5834-2026")</f>
-        <v/>
-      </c>
-      <c r="W152">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 5834-2026 FSC-klagomål mail.docx", "A 5834-2026")</f>
-        <v/>
-      </c>
-      <c r="X152">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 5834-2026 tillsynsbegäran.docx", "A 5834-2026")</f>
-        <v/>
-      </c>
-      <c r="Y152">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 5834-2026 tillsynsbegäran mail.docx", "A 5834-2026")</f>
-        <v/>
-      </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 57754-2023</t>
+          <t>A 40092-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45246.79032407407</v>
+        <v>45554.3884375</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10103,7 +10073,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10140,14 +10110,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 45469-2024</t>
+          <t>A 57754-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45576.73229166667</v>
+        <v>45246.79032407407</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10160,7 +10130,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>7.2</v>
+        <v>0.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10197,14 +10167,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 28021-2023</t>
+          <t>A 45469-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45098.95337962963</v>
+        <v>45576.73229166667</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10217,7 +10187,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.5</v>
+        <v>7.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10254,14 +10224,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 26886-2023</t>
+          <t>A 28021-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45093</v>
+        <v>45098.95337962963</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10274,7 +10244,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10311,14 +10281,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 302-2024</t>
+          <t>A 61475-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45295</v>
+        <v>46001.61959490741</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10330,13 +10300,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>2.3</v>
+        <v>4.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10373,14 +10338,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 2226-2026</t>
+          <t>A 26886-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>46036.51820601852</v>
+        <v>45093</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10393,7 +10358,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10430,14 +10395,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 29066-2024</t>
+          <t>A 61695-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45481.69738425926</v>
+        <v>46002.52787037037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10450,7 +10415,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>7.9</v>
+        <v>3.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10487,14 +10452,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 29067-2024</t>
+          <t>A 302-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45481.70640046296</v>
+        <v>45295</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10506,8 +10471,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>10.4</v>
+        <v>2.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10544,14 +10514,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 29068-2024</t>
+          <t>A 29066-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45481.71290509259</v>
+        <v>45481.69738425926</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10564,7 +10534,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.8</v>
+        <v>7.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10601,14 +10571,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 2438-2026</t>
+          <t>A 29067-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>46036.91210648148</v>
+        <v>45481.70640046296</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10621,7 +10591,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.3</v>
+        <v>10.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10658,14 +10628,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 4225-2024</t>
+          <t>A 29068-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45324.41422453704</v>
+        <v>45481.71290509259</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10678,7 +10648,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10715,14 +10685,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 4227-2024</t>
+          <t>A 4225-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45324.41612268519</v>
+        <v>45324.41422453704</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10735,7 +10705,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10772,14 +10742,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 38093-2022</t>
+          <t>A 4227-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44811.94373842593</v>
+        <v>45324.41612268519</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10792,7 +10762,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10829,14 +10799,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 5420-2025</t>
+          <t>A 38093-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45692.68938657407</v>
+        <v>44811.94373842593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10849,7 +10819,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10886,14 +10856,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 61475-2025</t>
+          <t>A 5420-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46001.61959490741</v>
+        <v>45692.68938657407</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10906,7 +10876,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>4.6</v>
+        <v>0.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10950,7 +10920,7 @@
         <v>44869</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11000,14 +10970,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 6489-2025</t>
+          <t>A 5866-2026</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45699.62678240741</v>
+        <v>46052.3075925926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11019,8 +10989,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G169" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11057,14 +11032,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 9046-2022</t>
+          <t>A 6489-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44615.44694444445</v>
+        <v>45699.62678240741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11077,7 +11052,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11114,14 +11089,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 46561-2024</t>
+          <t>A 63703-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45582.67883101852</v>
+        <v>46014.60188657408</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11134,7 +11109,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>12.2</v>
+        <v>5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11171,14 +11146,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 17510-2021</t>
+          <t>A 9046-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44299</v>
+        <v>44615.44694444445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11191,7 +11166,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11228,14 +11203,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 28903-2024</t>
+          <t>A 46561-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45480.54913194444</v>
+        <v>45582.67883101852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11248,7 +11223,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>3.4</v>
+        <v>12.2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11285,14 +11260,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 61284-2022</t>
+          <t>A 17510-2021</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44915</v>
+        <v>44299</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11305,7 +11280,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11342,14 +11317,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 12760-2023</t>
+          <t>A 28903-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45001</v>
+        <v>45480.54913194444</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11362,7 +11337,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11399,14 +11374,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 62730-2023</t>
+          <t>A 61284-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45268</v>
+        <v>44915</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11419,7 +11394,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11456,14 +11431,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 11604-2024</t>
+          <t>A 12760-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45373.39337962963</v>
+        <v>45001</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11476,7 +11451,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11513,14 +11488,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 5324-2025</t>
+          <t>A 62730-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45692.5303125</v>
+        <v>45268</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11533,7 +11508,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>5.1</v>
+        <v>3.1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11570,14 +11545,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 5811-2025</t>
+          <t>A 5834-2026</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45694.7127662037</v>
+        <v>46052.33366898148</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11589,8 +11564,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G179" t="n">
-        <v>1.1</v>
+        <v>9.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11623,18 +11603,38 @@
         <v>0</v>
       </c>
       <c r="R179" s="2" t="inlineStr"/>
+      <c r="U179">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/knärot/A 5834-2026 karta knärot.png", "A 5834-2026")</f>
+        <v/>
+      </c>
+      <c r="V179">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 5834-2026 FSC-klagomål.docx", "A 5834-2026")</f>
+        <v/>
+      </c>
+      <c r="W179">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 5834-2026 FSC-klagomål mail.docx", "A 5834-2026")</f>
+        <v/>
+      </c>
+      <c r="X179">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 5834-2026 tillsynsbegäran.docx", "A 5834-2026")</f>
+        <v/>
+      </c>
+      <c r="Y179">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 5834-2026 tillsynsbegäran mail.docx", "A 5834-2026")</f>
+        <v/>
+      </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 54804-2022</t>
+          <t>A 11604-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44883</v>
+        <v>45373.39337962963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>22.6</v>
+        <v>2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11684,14 +11684,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 20031-2025</t>
+          <t>A 5324-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45772</v>
+        <v>45692.5303125</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11741,14 +11741,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 52431-2023</t>
+          <t>A 5811-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45225.33118055556</v>
+        <v>45694.7127662037</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11798,14 +11798,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 33993-2023</t>
+          <t>A 54804-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45134.92311342592</v>
+        <v>44883</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11818,7 +11818,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.8</v>
+        <v>22.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11855,14 +11855,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 33996-2023</t>
+          <t>A 20031-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45134.92869212963</v>
+        <v>45772</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.6</v>
+        <v>6.2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11912,14 +11912,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 7947-2024</t>
+          <t>A 52431-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45350</v>
+        <v>45225.33118055556</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11969,14 +11969,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 55991-2022</t>
+          <t>A 33993-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44889</v>
+        <v>45134.92311342592</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11989,7 +11989,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12026,14 +12026,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 17116-2023</t>
+          <t>A 33996-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45034.58351851852</v>
+        <v>45134.92869212963</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12083,14 +12083,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 15567-2022</t>
+          <t>A 7947-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44662</v>
+        <v>45350</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12140,14 +12140,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 21630-2024</t>
+          <t>A 55991-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45442.32711805555</v>
+        <v>44889</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12197,14 +12197,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 13382-2023</t>
+          <t>A 17116-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45005.50784722222</v>
+        <v>45034.58351851852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12254,14 +12254,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 550-2024</t>
+          <t>A 15567-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45299</v>
+        <v>44662</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12311,14 +12311,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 13887-2024</t>
+          <t>A 21630-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45391.61759259259</v>
+        <v>45442.32711805555</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>11.3</v>
+        <v>4.6</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12368,14 +12368,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 47509-2024</t>
+          <t>A 13382-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45587.60949074074</v>
+        <v>45005.50784722222</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12425,14 +12425,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 14929-2024</t>
+          <t>A 550-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45398.64460648148</v>
+        <v>45299</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12445,7 +12445,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>5.1</v>
+        <v>2.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12482,14 +12482,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 11104-2024</t>
+          <t>A 13887-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45371.32724537037</v>
+        <v>45391.61759259259</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>3.6</v>
+        <v>11.3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12539,14 +12539,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 28910-2024</t>
+          <t>A 47509-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45480.65789351852</v>
+        <v>45587.60949074074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12596,14 +12596,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 1382-2024</t>
+          <t>A 14929-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45303.56011574074</v>
+        <v>45398.64460648148</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.4</v>
+        <v>5.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12653,14 +12653,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 17114-2023</t>
+          <t>A 11104-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45034.58234953704</v>
+        <v>45371.32724537037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12710,14 +12710,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 43767-2023</t>
+          <t>A 28910-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45187.50667824074</v>
+        <v>45480.65789351852</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12767,14 +12767,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 38522-2024</t>
+          <t>A 1382-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45546.56513888889</v>
+        <v>45303.56011574074</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12786,13 +12786,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>5.3</v>
+        <v>1.4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12829,14 +12824,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 13631-2024</t>
+          <t>A 17114-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45390.41417824074</v>
+        <v>45034.58234953704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12849,7 +12844,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>16.4</v>
+        <v>1.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12886,14 +12881,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 38383-2022</t>
+          <t>A 43767-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44812</v>
+        <v>45187.50667824074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12906,7 +12901,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12943,14 +12938,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 37508-2023</t>
+          <t>A 38522-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45158.42202546296</v>
+        <v>45546.56513888889</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12962,8 +12957,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>6.9</v>
+        <v>5.3</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13000,14 +13000,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 37509-2023</t>
+          <t>A 13631-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45158.43357638889</v>
+        <v>45390.41417824074</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.9</v>
+        <v>16.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13057,14 +13057,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 15159-2023</t>
+          <t>A 38383-2022</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45016.58609953704</v>
+        <v>44812</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13076,13 +13076,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13119,14 +13114,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 37510-2023</t>
+          <t>A 37508-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45158</v>
+        <v>45158.42202546296</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13139,7 +13134,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.1</v>
+        <v>6.9</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13176,14 +13171,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 49879-2023</t>
+          <t>A 37509-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45213</v>
+        <v>45158.43357638889</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13196,7 +13191,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>5</v>
+        <v>0.9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13233,14 +13228,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 44445-2023</t>
+          <t>A 15159-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45189.37668981482</v>
+        <v>45016.58609953704</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13252,8 +13247,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13290,14 +13290,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 33991-2023</t>
+          <t>A 37510-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45134.90613425926</v>
+        <v>45158</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13347,14 +13347,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 5328-2025</t>
+          <t>A 49879-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45692.53454861111</v>
+        <v>45213</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13404,14 +13404,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 21304-2025</t>
+          <t>A 44445-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45781.36851851852</v>
+        <v>45189.37668981482</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13461,14 +13461,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 3867-2025</t>
+          <t>A 33991-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45684</v>
+        <v>45134.90613425926</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13518,14 +13518,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 21617-2024</t>
+          <t>A 5328-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45441.97630787037</v>
+        <v>45692.53454861111</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>9.699999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13575,14 +13575,14 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 22561-2025</t>
+          <t>A 21304-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45789.3449537037</v>
+        <v>45781.36851851852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>

--- a/Översikt LILLA EDET.xlsx
+++ b/Översikt LILLA EDET.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z214"/>
+  <dimension ref="A1:Z213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45295</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45827</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>45295</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45272</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>45139</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,14 +1050,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 25298-2024</t>
+          <t>A 43771-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45462</v>
+        <v>45187</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1069,19 +1069,14 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G7" t="n">
-        <v>5.9</v>
+        <v>1.7</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -1090,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1099,15 +1094,292 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
         <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>4</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Slåtterfibbla
+Vätteros
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 43771-2023 artfynd.xlsx", "A 43771-2023")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 43771-2023 karta.png", "A 43771-2023")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 43771-2023 FSC-klagomål.docx", "A 43771-2023")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 43771-2023 FSC-klagomål mail.docx", "A 43771-2023")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 43771-2023 tillsynsbegäran.docx", "A 43771-2023")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 43771-2023 tillsynsbegäran mail.docx", "A 43771-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 28512-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45819.48106481481</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa
+Västlig hakmossa
+Tjäder</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 28512-2025 artfynd.xlsx", "A 28512-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 28512-2025 karta.png", "A 28512-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 28512-2025 FSC-klagomål.docx", "A 28512-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 28512-2025 FSC-klagomål mail.docx", "A 28512-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 28512-2025 tillsynsbegäran.docx", "A 28512-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 28512-2025 tillsynsbegäran mail.docx", "A 28512-2025")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 28512-2025 prioriterade fågelarter.docx", "A 28512-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 58567-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45986.36528935185</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Skogshare
+Spillkråka
+Kungsfågel
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 58567-2025 artfynd.xlsx", "A 58567-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 58567-2025 karta.png", "A 58567-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 58567-2025 FSC-klagomål.docx", "A 58567-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 58567-2025 FSC-klagomål mail.docx", "A 58567-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 58567-2025 tillsynsbegäran.docx", "A 58567-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 58567-2025 tillsynsbegäran mail.docx", "A 58567-2025")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 58567-2025 prioriterade fågelarter.docx", "A 58567-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 25298-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45462</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Björksplintborre
@@ -1115,304 +1387,32 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 25298-2024 artfynd.xlsx", "A 25298-2024")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 25298-2024 karta.png", "A 25298-2024")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 25298-2024 FSC-klagomål.docx", "A 25298-2024")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 25298-2024 FSC-klagomål mail.docx", "A 25298-2024")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 25298-2024 tillsynsbegäran.docx", "A 25298-2024")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 25298-2024 tillsynsbegäran mail.docx", "A 25298-2024")</f>
         <v/>
       </c>
-      <c r="Z7">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 25298-2024 prioriterade fågelarter.docx", "A 25298-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 43771-2023</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45187</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Slåtterfibbla
-Vätteros
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 43771-2023 artfynd.xlsx", "A 43771-2023")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 43771-2023 karta.png", "A 43771-2023")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 43771-2023 FSC-klagomål.docx", "A 43771-2023")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 43771-2023 FSC-klagomål mail.docx", "A 43771-2023")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 43771-2023 tillsynsbegäran.docx", "A 43771-2023")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 43771-2023 tillsynsbegäran mail.docx", "A 43771-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 28512-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45819.48106481481</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>4</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa
-Västlig hakmossa
-Tjäder</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 28512-2025 artfynd.xlsx", "A 28512-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 28512-2025 karta.png", "A 28512-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 28512-2025 FSC-klagomål.docx", "A 28512-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 28512-2025 FSC-klagomål mail.docx", "A 28512-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 28512-2025 tillsynsbegäran.docx", "A 28512-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 28512-2025 tillsynsbegäran mail.docx", "A 28512-2025")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 28512-2025 prioriterade fågelarter.docx", "A 28512-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 58567-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45986.36528935185</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Skogshare
-Spillkråka
-Kungsfågel
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 58567-2025 artfynd.xlsx", "A 58567-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 58567-2025 karta.png", "A 58567-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 58567-2025 FSC-klagomål.docx", "A 58567-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 58567-2025 FSC-klagomål mail.docx", "A 58567-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 58567-2025 tillsynsbegäran.docx", "A 58567-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 58567-2025 tillsynsbegäran mail.docx", "A 58567-2025")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 58567-2025 prioriterade fågelarter.docx", "A 58567-2025")</f>
         <v/>
       </c>
     </row>
@@ -1426,7 +1426,7 @@
         <v>45072</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>46044.42456018519</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>45832.45538194444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>46036.9100925926</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>45072</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>45296.57905092592</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>45390</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2054,14 +2054,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 23497-2023</t>
+          <t>A 30273-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45072</v>
+        <v>44759</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2073,23 +2073,18 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>1.6</v>
+        <v>12.5</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
@@ -2103,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2113,31 +2108,35 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Ärtsångare</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23497-2023 artfynd.xlsx", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 30273-2022 artfynd.xlsx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23497-2023 karta.png", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 30273-2022 karta.png", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23497-2023 FSC-klagomål.docx", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 30273-2022 FSC-klagomål.docx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23497-2023 FSC-klagomål mail.docx", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 30273-2022 FSC-klagomål mail.docx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23497-2023 tillsynsbegäran.docx", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 30273-2022 tillsynsbegäran.docx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23497-2023 tillsynsbegäran mail.docx", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 30273-2022 tillsynsbegäran mail.docx", "A 30273-2022")</f>
+        <v/>
+      </c>
+      <c r="Z18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 30273-2022 prioriterade fågelarter.docx", "A 30273-2022")</f>
         <v/>
       </c>
     </row>
@@ -2151,7 +2150,7 @@
         <v>45924.31385416666</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2229,14 +2228,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 23494-2023</t>
+          <t>A 58568-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45072</v>
+        <v>45986.36644675926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2248,13 +2247,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2292,45 +2286,45 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23494-2023 artfynd.xlsx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 58568-2025 artfynd.xlsx", "A 58568-2025")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23494-2023 karta.png", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 58568-2025 karta.png", "A 58568-2025")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23494-2023 FSC-klagomål.docx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 58568-2025 FSC-klagomål.docx", "A 58568-2025")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23494-2023 FSC-klagomål mail.docx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 58568-2025 FSC-klagomål mail.docx", "A 58568-2025")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23494-2023 tillsynsbegäran.docx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 58568-2025 tillsynsbegäran.docx", "A 58568-2025")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23494-2023 tillsynsbegäran mail.docx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 58568-2025 tillsynsbegäran mail.docx", "A 58568-2025")</f>
         <v/>
       </c>
       <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 23494-2023 prioriterade fågelarter.docx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 58568-2025 prioriterade fågelarter.docx", "A 58568-2025")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 25655-2023</t>
+          <t>A 23497-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45089</v>
+        <v>45072</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2342,17 +2336,22 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>5.1</v>
+        <v>1.6</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2367,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2377,45 +2376,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Bergjohannesört</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 25655-2023 artfynd.xlsx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23497-2023 artfynd.xlsx", "A 23497-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 25655-2023 karta.png", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23497-2023 karta.png", "A 23497-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 25655-2023 FSC-klagomål.docx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23497-2023 FSC-klagomål.docx", "A 23497-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 25655-2023 FSC-klagomål mail.docx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23497-2023 FSC-klagomål mail.docx", "A 23497-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 25655-2023 tillsynsbegäran.docx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23497-2023 tillsynsbegäran.docx", "A 23497-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 25655-2023 tillsynsbegäran mail.docx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23497-2023 tillsynsbegäran mail.docx", "A 23497-2023")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 58568-2025</t>
+          <t>A 54358-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45986.36644675926</v>
+        <v>45617.40755787037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2428,7 +2427,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -2437,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2452,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2462,49 +2461,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 58568-2025 artfynd.xlsx", "A 58568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 54358-2024 artfynd.xlsx", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 58568-2025 karta.png", "A 58568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 54358-2024 karta.png", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 58568-2025 FSC-klagomål.docx", "A 58568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 54358-2024 FSC-klagomål.docx", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 58568-2025 FSC-klagomål mail.docx", "A 58568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 54358-2024 FSC-klagomål mail.docx", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 58568-2025 tillsynsbegäran.docx", "A 58568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 54358-2024 tillsynsbegäran.docx", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 58568-2025 tillsynsbegäran mail.docx", "A 58568-2025")</f>
-        <v/>
-      </c>
-      <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 58568-2025 prioriterade fågelarter.docx", "A 58568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 54358-2024 tillsynsbegäran mail.docx", "A 54358-2024")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 15351-2024</t>
+          <t>A 23494-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45400.8005787037</v>
+        <v>45072</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2522,10 +2517,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2556,45 +2551,49 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Guldsandbi</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 15351-2024 artfynd.xlsx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23494-2023 artfynd.xlsx", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 15351-2024 karta.png", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23494-2023 karta.png", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 15351-2024 FSC-klagomål.docx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23494-2023 FSC-klagomål.docx", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 15351-2024 FSC-klagomål mail.docx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23494-2023 FSC-klagomål mail.docx", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 15351-2024 tillsynsbegäran.docx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23494-2023 tillsynsbegäran.docx", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 15351-2024 tillsynsbegäran mail.docx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23494-2023 tillsynsbegäran mail.docx", "A 23494-2023")</f>
+        <v/>
+      </c>
+      <c r="Z23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 23494-2023 prioriterade fågelarter.docx", "A 23494-2023")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 30273-2022</t>
+          <t>A 25655-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44759</v>
+        <v>45089</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2607,10 +2606,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>12.5</v>
+        <v>5.1</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2641,49 +2640,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Ärtsångare</t>
+          <t>Bergjohannesört</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 30273-2022 artfynd.xlsx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 25655-2023 artfynd.xlsx", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 30273-2022 karta.png", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 25655-2023 karta.png", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 30273-2022 FSC-klagomål.docx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 25655-2023 FSC-klagomål.docx", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 30273-2022 FSC-klagomål mail.docx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 25655-2023 FSC-klagomål mail.docx", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 30273-2022 tillsynsbegäran.docx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 25655-2023 tillsynsbegäran.docx", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 30273-2022 tillsynsbegäran mail.docx", "A 30273-2022")</f>
-        <v/>
-      </c>
-      <c r="Z24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 30273-2022 prioriterade fågelarter.docx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 25655-2023 tillsynsbegäran mail.docx", "A 25655-2023")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 54358-2024</t>
+          <t>A 15351-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45617.40755787037</v>
+        <v>45400.8005787037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2693,20 +2688,25 @@
       <c r="E25" t="inlineStr">
         <is>
           <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G25" t="n">
         <v>3</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2730,31 +2730,31 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Guldsandbi</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 54358-2024 artfynd.xlsx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 15351-2024 artfynd.xlsx", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 54358-2024 karta.png", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 15351-2024 karta.png", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 54358-2024 FSC-klagomål.docx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 15351-2024 FSC-klagomål.docx", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 54358-2024 FSC-klagomål mail.docx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 15351-2024 FSC-klagomål mail.docx", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 54358-2024 tillsynsbegäran.docx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 15351-2024 tillsynsbegäran.docx", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 54358-2024 tillsynsbegäran mail.docx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 15351-2024 tillsynsbegäran mail.docx", "A 15351-2024")</f>
         <v/>
       </c>
     </row>
@@ -2768,7 +2768,7 @@
         <v>45343</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44812</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44309.35467592593</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44363</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44251</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>44581</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44875.56251157408</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>44637</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>44685.67520833333</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>44760</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44319.62640046296</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44720.45840277777</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>44365.70123842593</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>44365.70269675926</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>44627</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>44343.5096412037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>44298.46679398148</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44280</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44377.80355324074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>44425.45646990741</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>44476.53376157407</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>44467</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>44803.87314814814</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4105,14 +4105,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 8830-2021</t>
+          <t>A 38386-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44246</v>
+        <v>44812.72657407408</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4162,14 +4162,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 38386-2022</t>
+          <t>A 9801-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44812.72657407408</v>
+        <v>44252</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4219,14 +4219,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 9801-2021</t>
+          <t>A 30042-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44252</v>
+        <v>44363</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4276,14 +4276,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 30042-2021</t>
+          <t>A 30045-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
         <v>44363</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4333,14 +4333,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 30045-2021</t>
+          <t>A 41420-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44363</v>
+        <v>44826.6478125</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4397,7 +4397,7 @@
         <v>44256</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4447,14 +4447,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 41420-2022</t>
+          <t>A 24291-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44826.6478125</v>
+        <v>44337.31774305556</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>5.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4504,14 +4504,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 24291-2021</t>
+          <t>A 51569-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44337.31774305556</v>
+        <v>44462</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>5.9</v>
+        <v>4.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4561,14 +4561,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 51569-2021</t>
+          <t>A 38059-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44462</v>
+        <v>44811.6625462963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.1</v>
+        <v>0.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4618,14 +4618,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 30284-2022</t>
+          <t>A 296-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44760</v>
+        <v>44565.47288194444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4675,14 +4675,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 30287-2022</t>
+          <t>A 30284-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
         <v>44760</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4732,14 +4732,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 38059-2022</t>
+          <t>A 30287-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44811.6625462963</v>
+        <v>44760</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4789,14 +4789,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 296-2022</t>
+          <t>A 10726-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44565.47288194444</v>
+        <v>44627.32611111111</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4846,14 +4846,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 10726-2022</t>
+          <t>A 49384-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44627.32611111111</v>
+        <v>45205</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4865,8 +4865,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4903,14 +4908,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 58750-2021</t>
+          <t>A 12234-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44489</v>
+        <v>45378.36106481482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4923,7 +4928,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4960,14 +4965,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 38442-2023</t>
+          <t>A 5420-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45162.39668981481</v>
+        <v>45692.68938657407</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4980,7 +4985,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5017,14 +5022,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 33527-2021</t>
+          <t>A 61952-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44377.79693287037</v>
+        <v>45653.50980324074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5037,7 +5042,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5074,14 +5079,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 12234-2024</t>
+          <t>A 12784-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45378.36106481482</v>
+        <v>45733.59857638889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5094,7 +5099,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5131,14 +5136,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 48904-2024</t>
+          <t>A 57381-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45594.35560185185</v>
+        <v>44896</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5151,7 +5156,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5188,14 +5193,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 3867-2025</t>
+          <t>A 48727-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45684</v>
+        <v>45936.65829861111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5208,7 +5213,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.5</v>
+        <v>6.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5245,14 +5250,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 21617-2024</t>
+          <t>A 48730-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45441.97630787037</v>
+        <v>45936.65984953703</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5265,7 +5270,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>9.699999999999999</v>
+        <v>4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5302,14 +5307,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 4881-2024</t>
+          <t>A 2867-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45329.44875</v>
+        <v>45677.67715277777</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5322,7 +5327,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.5</v>
+        <v>10.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5359,14 +5364,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 55324-2025</t>
+          <t>A 13887-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45971.33519675926</v>
+        <v>45391.61759259259</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5378,13 +5383,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>2.6</v>
+        <v>11.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5421,14 +5421,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 22561-2025</t>
+          <t>A 21304-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45789.3449537037</v>
+        <v>45781.36851851852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5478,14 +5478,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 26443-2023</t>
+          <t>A 35423-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45092</v>
+        <v>45855.4134837963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5535,14 +5535,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 43770-2023</t>
+          <t>A 13801-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45187.50803240741</v>
+        <v>45737</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5592,14 +5592,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 12782-2025</t>
+          <t>A 3867-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45733.59701388889</v>
+        <v>45684</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5649,14 +5649,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 12790-2025</t>
+          <t>A 61284-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45733.60599537037</v>
+        <v>44915</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5706,14 +5706,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 12243-2025</t>
+          <t>A 52431-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45729</v>
+        <v>45225.33118055556</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>10.2</v>
+        <v>0.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5763,14 +5763,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 11329-2025</t>
+          <t>A 21617-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45726.47752314815</v>
+        <v>45441.97630787037</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5820,14 +5820,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 14891-2025</t>
+          <t>A 11104-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45743.47010416666</v>
+        <v>45371.32724537037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5884,7 +5884,7 @@
         <v>45496</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5934,14 +5934,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 54681-2021</t>
+          <t>A 22561-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44473</v>
+        <v>45789.3449537037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5991,14 +5991,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 23374-2025</t>
+          <t>A 11329-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45791.77096064815</v>
+        <v>45726.47752314815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.6</v>
+        <v>4.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6055,7 +6055,7 @@
         <v>45792.49081018518</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6105,14 +6105,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 5743-2025</t>
+          <t>A 23374-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45694.52391203704</v>
+        <v>45791.77096064815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6162,14 +6162,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 2867-2025</t>
+          <t>A 12790-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45677.67715277777</v>
+        <v>45733.60599537037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>10.7</v>
+        <v>2.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6219,14 +6219,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 19079-2025</t>
+          <t>A 41756-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45766.61758101852</v>
+        <v>45902.50689814815</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6276,14 +6276,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 24053-2025</t>
+          <t>A 12782-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45796</v>
+        <v>45733.59701388889</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>11.1</v>
+        <v>0.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6333,14 +6333,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 406-2024</t>
+          <t>A 41758-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45296</v>
+        <v>45902.51023148148</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.8</v>
+        <v>1.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6390,14 +6390,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 56854-2025</t>
+          <t>A 41760-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45978.49476851852</v>
+        <v>45902.51596064815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>6.4</v>
+        <v>1.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6447,14 +6447,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 56855-2025</t>
+          <t>A 41761-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45978.4962962963</v>
+        <v>45902.51922453703</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.5</v>
+        <v>6.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6504,14 +6504,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 7819-2025</t>
+          <t>A 41759-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45706.63945601852</v>
+        <v>45902.51219907407</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>5.6</v>
+        <v>1.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6561,14 +6561,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 41759-2025</t>
+          <t>A 12243-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45902.51219907407</v>
+        <v>45729</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.2</v>
+        <v>10.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6618,14 +6618,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 41756-2025</t>
+          <t>A 49188-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45902.50689814815</v>
+        <v>45938.40711805555</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6675,14 +6675,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 41758-2025</t>
+          <t>A 14891-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45902.51023148148</v>
+        <v>45743.47010416666</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6732,14 +6732,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 41760-2025</t>
+          <t>A 55972-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45902.51596064815</v>
+        <v>44889</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6789,14 +6789,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 41761-2025</t>
+          <t>A 24053-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45902.51922453703</v>
+        <v>45796</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>6.6</v>
+        <v>11.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6846,14 +6846,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 5740-2025</t>
+          <t>A 56584-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45694.5205324074</v>
+        <v>45974</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6903,14 +6903,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 35422-2025</t>
+          <t>A 33993-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45855.41179398148</v>
+        <v>45134.92311342592</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6960,14 +6960,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 6384-2025</t>
+          <t>A 33996-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45699.42287037037</v>
+        <v>45134.92869212963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7017,14 +7017,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 36984-2024</t>
+          <t>A 35422-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45539.32334490741</v>
+        <v>45855.41179398148</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7081,7 +7081,7 @@
         <v>45908.6132175926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7131,14 +7131,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 32107-2023</t>
+          <t>A 65619-2021</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45119.61793981482</v>
+        <v>44516.53974537037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7188,14 +7188,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 27222-2025</t>
+          <t>A 5743-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45812.42443287037</v>
+        <v>45694.52391203704</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7245,14 +7245,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 27620-2025</t>
+          <t>A 32107-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45813.54954861111</v>
+        <v>45119.61793981482</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7302,14 +7302,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 49384-2023</t>
+          <t>A 7819-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45205</v>
+        <v>45706.63945601852</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7321,13 +7321,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>1.2</v>
+        <v>5.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7364,14 +7359,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 44104-2025</t>
+          <t>A 51488-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45915.56895833334</v>
+        <v>44869</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7384,7 +7379,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7421,14 +7416,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 20037-2025</t>
+          <t>A 28910-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45772</v>
+        <v>45480.65789351852</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7441,7 +7436,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7478,14 +7473,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 47511-2024</t>
+          <t>A 11604-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45587.61174768519</v>
+        <v>45373.39337962963</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7498,7 +7493,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7535,14 +7530,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 28515-2025</t>
+          <t>A 43684-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45819.48321759259</v>
+        <v>45912.37804398148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7555,7 +7550,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7592,14 +7587,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 43684-2025</t>
+          <t>A 15567-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45912.37804398148</v>
+        <v>44662</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7649,14 +7644,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 61435-2024</t>
+          <t>A 1382-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45646.46203703704</v>
+        <v>45303.56011574074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7669,7 +7664,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7706,14 +7701,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 44916-2025</t>
+          <t>A 44104-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45918.54886574074</v>
+        <v>45915.56895833334</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7726,7 +7721,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7763,14 +7758,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 44918-2025</t>
+          <t>A 44914-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45918.5504050926</v>
+        <v>45918.54420138889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7783,7 +7778,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>5.7</v>
+        <v>2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7820,14 +7815,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 44914-2025</t>
+          <t>A 44915-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45918.54420138889</v>
+        <v>45918.54668981482</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7840,7 +7835,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7877,14 +7872,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 44915-2025</t>
+          <t>A 44918-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45918.54668981482</v>
+        <v>45918.5504050926</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7897,7 +7892,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.2</v>
+        <v>5.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7934,14 +7929,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 5612-2025</t>
+          <t>A 44916-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45693.60490740741</v>
+        <v>45918.54886574074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7954,7 +7949,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7991,14 +7986,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 28022-2023</t>
+          <t>A 55324-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45098.95484953704</v>
+        <v>45971.33519675926</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8010,8 +8005,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>5.7</v>
+        <v>2.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8048,14 +8048,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 37063-2024</t>
+          <t>A 5740-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45539.45819444444</v>
+        <v>45694.5205324074</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>8.800000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8105,14 +8105,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 587-2025</t>
+          <t>A 6384-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45664.58135416666</v>
+        <v>45699.42287037037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8162,14 +8162,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 12628-2023</t>
+          <t>A 587-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45000</v>
+        <v>45664.58135416666</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8219,14 +8219,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 65619-2021</t>
+          <t>A 36984-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44516.53974537037</v>
+        <v>45539.32334490741</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8276,14 +8276,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 57381-2022</t>
+          <t>A 27222-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44896</v>
+        <v>45812.42443287037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8333,14 +8333,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 48730-2025</t>
+          <t>A 27620-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45936.65984953703</v>
+        <v>45813.54954861111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8390,14 +8390,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 48727-2025</t>
+          <t>A 7912-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45936.65829861111</v>
+        <v>45350</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>6.1</v>
+        <v>1.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8447,14 +8447,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 55972-2022</t>
+          <t>A 28515-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44889</v>
+        <v>45819.48321759259</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8504,14 +8504,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 41411-2022</t>
+          <t>A 56854-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44826.63782407407</v>
+        <v>45978.49476851852</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.4</v>
+        <v>6.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8561,14 +8561,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 49188-2025</t>
+          <t>A 56855-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45938.40711805555</v>
+        <v>45978.4962962963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8618,14 +8618,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 12647-2023</t>
+          <t>A 6323-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45000</v>
+        <v>44960</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8637,8 +8637,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8675,14 +8680,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 13801-2025</t>
+          <t>A 54804-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45737</v>
+        <v>44883</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8695,7 +8700,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.1</v>
+        <v>22.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8732,14 +8737,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 56584-2025</t>
+          <t>A 8117-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45974</v>
+        <v>44974</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8752,7 +8757,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.8</v>
+        <v>11</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8789,14 +8794,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 8117-2023</t>
+          <t>A 12628-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44974</v>
+        <v>45000</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8809,7 +8814,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>11</v>
+        <v>0.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8846,14 +8851,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 35416-2025</t>
+          <t>A 50349-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45855.40481481481</v>
+        <v>45600.81916666667</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8866,7 +8871,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8910,7 +8915,7 @@
         <v>45855.41025462963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8960,14 +8965,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 35717-2025</t>
+          <t>A 35416-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45860.42960648148</v>
+        <v>45855.40481481481</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8980,7 +8985,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9017,14 +9022,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 32110-2023</t>
+          <t>A 35717-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45119.61902777778</v>
+        <v>45860.42960648148</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9037,7 +9042,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9074,14 +9079,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 16489-2025</t>
+          <t>A 2226-2026</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45751.58628472222</v>
+        <v>46036.51820601852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9094,7 +9099,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9131,14 +9136,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 37190-2025</t>
+          <t>A 28903-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45875.64939814815</v>
+        <v>45480.54913194444</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9151,7 +9156,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9188,14 +9193,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 37152-2025</t>
+          <t>A 2438-2026</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45875</v>
+        <v>46036.91210648148</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9208,7 +9213,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9245,14 +9250,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 12784-2025</t>
+          <t>A 12647-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45733.59857638889</v>
+        <v>45000</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9265,7 +9270,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9302,14 +9307,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 35718-2025</t>
+          <t>A 37190-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45860.4315162037</v>
+        <v>45875.64939814815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9322,7 +9327,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>7.6</v>
+        <v>3.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9359,14 +9364,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 50349-2024</t>
+          <t>A 5328-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45600.81916666667</v>
+        <v>45692.53454861111</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9379,7 +9384,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9416,14 +9421,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 11102-2024</t>
+          <t>A 37510-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45371.32438657407</v>
+        <v>45158</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9436,7 +9441,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9473,14 +9478,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 7912-2024</t>
+          <t>A 37152-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45350</v>
+        <v>45875</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9493,7 +9498,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9530,14 +9535,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 13581-2023</t>
+          <t>A 61475-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45006.54443287037</v>
+        <v>46001.61959490741</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9549,13 +9554,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9592,14 +9592,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 8071-2024</t>
+          <t>A 35718-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45351</v>
+        <v>45860.4315162037</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.6</v>
+        <v>7.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9649,14 +9649,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 2226-2026</t>
+          <t>A 61695-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>46036.51820601852</v>
+        <v>46002.52787037037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9706,14 +9706,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 35423-2025</t>
+          <t>A 5866-2026</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45855.4134837963</v>
+        <v>46052.3075925926</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9725,8 +9725,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9763,14 +9768,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 61952-2024</t>
+          <t>A 63703-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45653.50980324074</v>
+        <v>46014.60188657408</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9783,7 +9788,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9820,14 +9825,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 2438-2026</t>
+          <t>A 38383-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>46036.91210648148</v>
+        <v>44812</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9840,7 +9845,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9877,14 +9882,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 13975-2023</t>
+          <t>A 26886-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45008</v>
+        <v>45093</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9897,7 +9902,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9934,14 +9939,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 16473-2022</t>
+          <t>A 16489-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44671</v>
+        <v>45751.58628472222</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9954,7 +9959,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9991,14 +9996,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 6323-2023</t>
+          <t>A 28022-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44960</v>
+        <v>45098.95484953704</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10010,13 +10015,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>0.5</v>
+        <v>5.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10053,14 +10053,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 40092-2024</t>
+          <t>A 26443-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45554.3884375</v>
+        <v>45092</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10110,14 +10110,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 57754-2023</t>
+          <t>A 17114-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45246.79032407407</v>
+        <v>45034.58234953704</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10167,14 +10167,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 45469-2024</t>
+          <t>A 58750-2021</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45576.73229166667</v>
+        <v>44489</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>7.2</v>
+        <v>1.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10224,14 +10224,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 28021-2023</t>
+          <t>A 7947-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45098.95337962963</v>
+        <v>45350</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10281,14 +10281,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 61475-2025</t>
+          <t>A 32110-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>46001.61959490741</v>
+        <v>45119.61902777778</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10338,14 +10338,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 26886-2023</t>
+          <t>A 13581-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45093</v>
+        <v>45006.54443287037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10357,8 +10357,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10395,14 +10400,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 61695-2025</t>
+          <t>A 55991-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>46002.52787037037</v>
+        <v>44889</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10415,7 +10420,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10452,14 +10457,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 302-2024</t>
+          <t>A 5834-2026</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45295</v>
+        <v>46052.33366898148</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10473,11 +10478,11 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.3</v>
+        <v>9.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10510,18 +10515,38 @@
         <v>0</v>
       </c>
       <c r="R160" s="2" t="inlineStr"/>
+      <c r="U160">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/knärot/A 5834-2026 karta knärot.png", "A 5834-2026")</f>
+        <v/>
+      </c>
+      <c r="V160">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 5834-2026 FSC-klagomål.docx", "A 5834-2026")</f>
+        <v/>
+      </c>
+      <c r="W160">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 5834-2026 FSC-klagomål mail.docx", "A 5834-2026")</f>
+        <v/>
+      </c>
+      <c r="X160">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 5834-2026 tillsynsbegäran.docx", "A 5834-2026")</f>
+        <v/>
+      </c>
+      <c r="Y160">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 5834-2026 tillsynsbegäran mail.docx", "A 5834-2026")</f>
+        <v/>
+      </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 29066-2024</t>
+          <t>A 54681-2021</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45481.69738425926</v>
+        <v>44473</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10534,7 +10559,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>7.9</v>
+        <v>4.1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10571,14 +10596,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 29067-2024</t>
+          <t>A 11102-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45481.70640046296</v>
+        <v>45371.32438657407</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10591,7 +10616,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>10.4</v>
+        <v>2.8</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10628,14 +10653,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 29068-2024</t>
+          <t>A 5811-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45481.71290509259</v>
+        <v>45694.7127662037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10648,7 +10673,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10685,14 +10710,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 4225-2024</t>
+          <t>A 47511-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45324.41422453704</v>
+        <v>45587.61174768519</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10742,14 +10767,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 4227-2024</t>
+          <t>A 43770-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45324.41612268519</v>
+        <v>45187.50803240741</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10762,7 +10787,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10799,14 +10824,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 38093-2022</t>
+          <t>A 4881-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44811.94373842593</v>
+        <v>45329.44875</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10819,7 +10844,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10856,14 +10881,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 5420-2025</t>
+          <t>A 46561-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45692.68938657407</v>
+        <v>45582.67883101852</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10876,7 +10901,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.6</v>
+        <v>12.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10913,14 +10938,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 51488-2022</t>
+          <t>A 47509-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44869</v>
+        <v>45587.60949074074</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10933,7 +10958,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10970,14 +10995,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 5866-2026</t>
+          <t>A 9046-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>46052.3075925926</v>
+        <v>44615.44694444445</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10989,13 +11014,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G169" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11032,14 +11052,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 6489-2025</t>
+          <t>A 20031-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45699.62678240741</v>
+        <v>45772</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11052,7 +11072,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.6</v>
+        <v>6.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11089,14 +11109,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 63703-2025</t>
+          <t>A 61435-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46014.60188657408</v>
+        <v>45646.46203703704</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11109,7 +11129,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11146,14 +11166,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 9046-2022</t>
+          <t>A 14929-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44615.44694444445</v>
+        <v>45398.64460648148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11166,7 +11186,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11203,14 +11223,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 46561-2024</t>
+          <t>A 21630-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45582.67883101852</v>
+        <v>45442.32711805555</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11223,7 +11243,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>12.2</v>
+        <v>4.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11260,14 +11280,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 17510-2021</t>
+          <t>A 43767-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44299</v>
+        <v>45187.50667824074</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11280,7 +11300,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11317,14 +11337,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 28903-2024</t>
+          <t>A 33991-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45480.54913194444</v>
+        <v>45134.90613425926</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11337,7 +11357,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11374,14 +11394,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 61284-2022</t>
+          <t>A 41411-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44915</v>
+        <v>44826.63782407407</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11394,7 +11414,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11431,14 +11451,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 12760-2023</t>
+          <t>A 4225-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45001</v>
+        <v>45324.41422453704</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11451,7 +11471,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11488,14 +11508,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 62730-2023</t>
+          <t>A 4227-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45268</v>
+        <v>45324.41612268519</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11508,7 +11528,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11545,14 +11565,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 5834-2026</t>
+          <t>A 37508-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>46052.33366898148</v>
+        <v>45158.42202546296</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11564,13 +11584,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G179" t="n">
-        <v>9.9</v>
+        <v>6.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11603,38 +11618,18 @@
         <v>0</v>
       </c>
       <c r="R179" s="2" t="inlineStr"/>
-      <c r="U179">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/knärot/A 5834-2026 karta knärot.png", "A 5834-2026")</f>
-        <v/>
-      </c>
-      <c r="V179">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 5834-2026 FSC-klagomål.docx", "A 5834-2026")</f>
-        <v/>
-      </c>
-      <c r="W179">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 5834-2026 FSC-klagomål mail.docx", "A 5834-2026")</f>
-        <v/>
-      </c>
-      <c r="X179">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 5834-2026 tillsynsbegäran.docx", "A 5834-2026")</f>
-        <v/>
-      </c>
-      <c r="Y179">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 5834-2026 tillsynsbegäran mail.docx", "A 5834-2026")</f>
-        <v/>
-      </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 11604-2024</t>
+          <t>A 37509-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45373.39337962963</v>
+        <v>45158.43357638889</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11647,7 +11642,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11684,14 +11679,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 5324-2025</t>
+          <t>A 13382-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45692.5303125</v>
+        <v>45005.50784722222</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11704,7 +11699,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>5.1</v>
+        <v>3.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11741,14 +11736,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 5811-2025</t>
+          <t>A 38093-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45694.7127662037</v>
+        <v>44811.94373842593</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11761,7 +11756,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11798,14 +11793,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 54804-2022</t>
+          <t>A 38522-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44883</v>
+        <v>45546.56513888889</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11817,8 +11812,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>22.6</v>
+        <v>5.3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11855,14 +11855,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 20031-2025</t>
+          <t>A 16473-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45772</v>
+        <v>44671</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>6.2</v>
+        <v>1.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11912,14 +11912,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 52431-2023</t>
+          <t>A 20037-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45225.33118055556</v>
+        <v>45772</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11969,14 +11969,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 33993-2023</t>
+          <t>A 40092-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45134.92311342592</v>
+        <v>45554.3884375</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11989,7 +11989,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12026,14 +12026,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 33996-2023</t>
+          <t>A 57754-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45134.92869212963</v>
+        <v>45246.79032407407</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12083,14 +12083,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 7947-2024</t>
+          <t>A 48904-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45350</v>
+        <v>45594.35560185185</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12140,14 +12140,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 55991-2022</t>
+          <t>A 28021-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44889</v>
+        <v>45098.95337962963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12197,14 +12197,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 17116-2023</t>
+          <t>A 17510-2021</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45034.58351851852</v>
+        <v>44299</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12254,14 +12254,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 15567-2022</t>
+          <t>A 44445-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44662</v>
+        <v>45189.37668981482</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12311,14 +12311,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 21630-2024</t>
+          <t>A 17116-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45442.32711805555</v>
+        <v>45034.58351851852</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12368,14 +12368,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 13382-2023</t>
+          <t>A 12760-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45005.50784722222</v>
+        <v>45001</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12425,14 +12425,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 550-2024</t>
+          <t>A 5612-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45299</v>
+        <v>45693.60490740741</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12445,7 +12445,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12482,14 +12482,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 13887-2024</t>
+          <t>A 302-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45391.61759259259</v>
+        <v>45295</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12501,8 +12501,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>11.3</v>
+        <v>2.3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12539,14 +12544,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 47509-2024</t>
+          <t>A 29066-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45587.60949074074</v>
+        <v>45481.69738425926</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12559,7 +12564,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.6</v>
+        <v>7.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12596,14 +12601,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 14929-2024</t>
+          <t>A 29067-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45398.64460648148</v>
+        <v>45481.70640046296</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12616,7 +12621,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>5.1</v>
+        <v>10.4</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12653,14 +12658,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 11104-2024</t>
+          <t>A 29068-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45371.32724537037</v>
+        <v>45481.71290509259</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12673,7 +12678,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12710,14 +12715,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 28910-2024</t>
+          <t>A 38442-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45480.65789351852</v>
+        <v>45162.39668981481</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12730,7 +12735,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12767,14 +12772,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 1382-2024</t>
+          <t>A 19079-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45303.56011574074</v>
+        <v>45766.61758101852</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12787,7 +12792,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12824,14 +12829,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 17114-2023</t>
+          <t>A 5324-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45034.58234953704</v>
+        <v>45692.5303125</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12844,7 +12849,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.2</v>
+        <v>5.1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12881,14 +12886,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 43767-2023</t>
+          <t>A 13631-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45187.50667824074</v>
+        <v>45390.41417824074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12901,7 +12906,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.3</v>
+        <v>16.4</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12938,14 +12943,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 38522-2024</t>
+          <t>A 37063-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45546.56513888889</v>
+        <v>45539.45819444444</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12957,13 +12962,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>5.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13000,14 +13000,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 13631-2024</t>
+          <t>A 15159-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45390.41417824074</v>
+        <v>45016.58609953704</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13019,8 +13019,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>16.4</v>
+        <v>0.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13057,14 +13062,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 38383-2022</t>
+          <t>A 550-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44812</v>
+        <v>45299</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13077,7 +13082,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13114,14 +13119,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 37508-2023</t>
+          <t>A 13975-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45158.42202546296</v>
+        <v>45008</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13134,7 +13139,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>6.9</v>
+        <v>2.2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13171,14 +13176,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 37509-2023</t>
+          <t>A 33527-2021</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45158.43357638889</v>
+        <v>44377.79693287037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13191,7 +13196,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13228,14 +13233,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 15159-2023</t>
+          <t>A 8071-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45016.58609953704</v>
+        <v>45351</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,13 +13252,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13290,14 +13290,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 37510-2023</t>
+          <t>A 6489-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45158</v>
+        <v>45699.62678240741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13347,14 +13347,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 49879-2023</t>
+          <t>A 45469-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45213</v>
+        <v>45576.73229166667</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>5</v>
+        <v>7.2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13404,14 +13404,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 44445-2023</t>
+          <t>A 406-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45189.37668981482</v>
+        <v>45296</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13461,14 +13461,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 33991-2023</t>
+          <t>A 62730-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45134.90613425926</v>
+        <v>45268</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13515,17 +13515,17 @@
       </c>
       <c r="R212" s="2" t="inlineStr"/>
     </row>
-    <row r="213" ht="15" customHeight="1">
+    <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 5328-2025</t>
+          <t>A 49879-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45692.53454861111</v>
+        <v>45213</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13571,63 +13571,6 @@
         <v>0</v>
       </c>
       <c r="R213" s="2" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>A 21304-2025</t>
-        </is>
-      </c>
-      <c r="B214" s="1" t="n">
-        <v>45781.36851851852</v>
-      </c>
-      <c r="C214" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="G214" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="n">
-        <v>0</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0</v>
-      </c>
-      <c r="L214" t="n">
-        <v>0</v>
-      </c>
-      <c r="M214" t="n">
-        <v>0</v>
-      </c>
-      <c r="N214" t="n">
-        <v>0</v>
-      </c>
-      <c r="O214" t="n">
-        <v>0</v>
-      </c>
-      <c r="P214" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q214" t="n">
-        <v>0</v>
-      </c>
-      <c r="R214" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt LILLA EDET.xlsx
+++ b/Översikt LILLA EDET.xlsx
@@ -575,7 +575,7 @@
         <v>45295</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45827</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>45295</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45272</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>45139</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,14 +1050,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 43771-2023</t>
+          <t>A 25298-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45187</v>
+        <v>45462</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1069,14 +1069,19 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G7" t="n">
-        <v>1.7</v>
+        <v>5.9</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -1085,24 +1090,300 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>1</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>4</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Björksplintborre
+Västlig hakmossa
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 25298-2024 artfynd.xlsx", "A 25298-2024")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 25298-2024 karta.png", "A 25298-2024")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 25298-2024 FSC-klagomål.docx", "A 25298-2024")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 25298-2024 FSC-klagomål mail.docx", "A 25298-2024")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 25298-2024 tillsynsbegäran.docx", "A 25298-2024")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 25298-2024 tillsynsbegäran mail.docx", "A 25298-2024")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 25298-2024 prioriterade fågelarter.docx", "A 25298-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 28512-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45819.48106481481</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa
+Västlig hakmossa
+Tjäder</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 28512-2025 artfynd.xlsx", "A 28512-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 28512-2025 karta.png", "A 28512-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 28512-2025 FSC-klagomål.docx", "A 28512-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 28512-2025 FSC-klagomål mail.docx", "A 28512-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 28512-2025 tillsynsbegäran.docx", "A 28512-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 28512-2025 tillsynsbegäran mail.docx", "A 28512-2025")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 28512-2025 prioriterade fågelarter.docx", "A 28512-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 58567-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45986.36528935185</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Skogshare
+Spillkråka
+Kungsfågel
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 58567-2025 artfynd.xlsx", "A 58567-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 58567-2025 karta.png", "A 58567-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 58567-2025 FSC-klagomål.docx", "A 58567-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 58567-2025 FSC-klagomål mail.docx", "A 58567-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 58567-2025 tillsynsbegäran.docx", "A 58567-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 58567-2025 tillsynsbegäran mail.docx", "A 58567-2025")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 58567-2025 prioriterade fågelarter.docx", "A 58567-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 43771-2023</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>LILLA EDET</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Ask
 Slåtterfibbla
@@ -1110,309 +1391,28 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 43771-2023 artfynd.xlsx", "A 43771-2023")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 43771-2023 karta.png", "A 43771-2023")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 43771-2023 FSC-klagomål.docx", "A 43771-2023")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 43771-2023 FSC-klagomål mail.docx", "A 43771-2023")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 43771-2023 tillsynsbegäran.docx", "A 43771-2023")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 43771-2023 tillsynsbegäran mail.docx", "A 43771-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 28512-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45819.48106481481</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa
-Västlig hakmossa
-Tjäder</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 28512-2025 artfynd.xlsx", "A 28512-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 28512-2025 karta.png", "A 28512-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 28512-2025 FSC-klagomål.docx", "A 28512-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 28512-2025 FSC-klagomål mail.docx", "A 28512-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 28512-2025 tillsynsbegäran.docx", "A 28512-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 28512-2025 tillsynsbegäran mail.docx", "A 28512-2025")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 28512-2025 prioriterade fågelarter.docx", "A 28512-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 58567-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45986.36528935185</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>4</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Skogshare
-Spillkråka
-Kungsfågel
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 58567-2025 artfynd.xlsx", "A 58567-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 58567-2025 karta.png", "A 58567-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 58567-2025 FSC-klagomål.docx", "A 58567-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 58567-2025 FSC-klagomål mail.docx", "A 58567-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 58567-2025 tillsynsbegäran.docx", "A 58567-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 58567-2025 tillsynsbegäran mail.docx", "A 58567-2025")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 58567-2025 prioriterade fågelarter.docx", "A 58567-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 25298-2024</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45462</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>LILLA EDET</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Björksplintborre
-Västlig hakmossa
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 25298-2024 artfynd.xlsx", "A 25298-2024")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 25298-2024 karta.png", "A 25298-2024")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 25298-2024 FSC-klagomål.docx", "A 25298-2024")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 25298-2024 FSC-klagomål mail.docx", "A 25298-2024")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 25298-2024 tillsynsbegäran.docx", "A 25298-2024")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 25298-2024 tillsynsbegäran mail.docx", "A 25298-2024")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 25298-2024 prioriterade fågelarter.docx", "A 25298-2024")</f>
         <v/>
       </c>
     </row>
@@ -1426,7 +1426,7 @@
         <v>45072</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>46044.42456018519</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>45832.45538194444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>46036.9100925926</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>45072</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>45296.57905092592</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>45390</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2054,14 +2054,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 30273-2022</t>
+          <t>A 23497-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44759</v>
+        <v>45072</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2073,17 +2073,22 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>12.5</v>
+        <v>1.6</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2098,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2108,49 +2113,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Ärtsångare</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 30273-2022 artfynd.xlsx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23497-2023 artfynd.xlsx", "A 23497-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 30273-2022 karta.png", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23497-2023 karta.png", "A 23497-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 30273-2022 FSC-klagomål.docx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23497-2023 FSC-klagomål.docx", "A 23497-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 30273-2022 FSC-klagomål mail.docx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23497-2023 FSC-klagomål mail.docx", "A 23497-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 30273-2022 tillsynsbegäran.docx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23497-2023 tillsynsbegäran.docx", "A 23497-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 30273-2022 tillsynsbegäran mail.docx", "A 30273-2022")</f>
-        <v/>
-      </c>
-      <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 30273-2022 prioriterade fågelarter.docx", "A 30273-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23497-2023 tillsynsbegäran mail.docx", "A 23497-2023")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 45941-2025</t>
+          <t>A 23494-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45924.31385416666</v>
+        <v>45072</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2162,11 +2163,16 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G19" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2197,45 +2203,49 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 45941-2025 artfynd.xlsx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23494-2023 artfynd.xlsx", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 45941-2025 karta.png", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23494-2023 karta.png", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 45941-2025 FSC-klagomål.docx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23494-2023 FSC-klagomål.docx", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 45941-2025 FSC-klagomål mail.docx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23494-2023 FSC-klagomål mail.docx", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 45941-2025 tillsynsbegäran.docx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23494-2023 tillsynsbegäran.docx", "A 23494-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 45941-2025 tillsynsbegäran mail.docx", "A 45941-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23494-2023 tillsynsbegäran mail.docx", "A 23494-2023")</f>
+        <v/>
+      </c>
+      <c r="Z19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 23494-2023 prioriterade fågelarter.docx", "A 23494-2023")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 58568-2025</t>
+          <t>A 25655-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45986.36644675926</v>
+        <v>45089</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2248,10 +2258,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>5.1</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2282,49 +2292,45 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Bergjohannesört</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 58568-2025 artfynd.xlsx", "A 58568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 25655-2023 artfynd.xlsx", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 58568-2025 karta.png", "A 58568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 25655-2023 karta.png", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 58568-2025 FSC-klagomål.docx", "A 58568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 25655-2023 FSC-klagomål.docx", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 58568-2025 FSC-klagomål mail.docx", "A 58568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 25655-2023 FSC-klagomål mail.docx", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 58568-2025 tillsynsbegäran.docx", "A 58568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 25655-2023 tillsynsbegäran.docx", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 58568-2025 tillsynsbegäran mail.docx", "A 58568-2025")</f>
-        <v/>
-      </c>
-      <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 58568-2025 prioriterade fågelarter.docx", "A 58568-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 25655-2023 tillsynsbegäran mail.docx", "A 25655-2023")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 23497-2023</t>
+          <t>A 15351-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45072</v>
+        <v>45400.8005787037</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2342,17 +2348,17 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>1</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
@@ -2366,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2376,45 +2382,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Guldsandbi</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23497-2023 artfynd.xlsx", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 15351-2024 artfynd.xlsx", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23497-2023 karta.png", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 15351-2024 karta.png", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23497-2023 FSC-klagomål.docx", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 15351-2024 FSC-klagomål.docx", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23497-2023 FSC-klagomål mail.docx", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 15351-2024 FSC-klagomål mail.docx", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23497-2023 tillsynsbegäran.docx", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 15351-2024 tillsynsbegäran.docx", "A 15351-2024")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23497-2023 tillsynsbegäran mail.docx", "A 23497-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 15351-2024 tillsynsbegäran mail.docx", "A 15351-2024")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 54358-2024</t>
+          <t>A 30273-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45617.40755787037</v>
+        <v>44759</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2427,7 +2433,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>12.5</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -2436,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2451,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2461,45 +2467,49 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Ärtsångare</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 54358-2024 artfynd.xlsx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 30273-2022 artfynd.xlsx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 54358-2024 karta.png", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 30273-2022 karta.png", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 54358-2024 FSC-klagomål.docx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 30273-2022 FSC-klagomål.docx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 54358-2024 FSC-klagomål mail.docx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 30273-2022 FSC-klagomål mail.docx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 54358-2024 tillsynsbegäran.docx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 30273-2022 tillsynsbegäran.docx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 54358-2024 tillsynsbegäran mail.docx", "A 54358-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 30273-2022 tillsynsbegäran mail.docx", "A 30273-2022")</f>
+        <v/>
+      </c>
+      <c r="Z22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 30273-2022 prioriterade fågelarter.docx", "A 30273-2022")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 23494-2023</t>
+          <t>A 45941-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45072</v>
+        <v>45924.31385416666</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2511,16 +2521,11 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2551,49 +2556,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 23494-2023 artfynd.xlsx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 45941-2025 artfynd.xlsx", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 23494-2023 karta.png", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 45941-2025 karta.png", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 23494-2023 FSC-klagomål.docx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 45941-2025 FSC-klagomål.docx", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 23494-2023 FSC-klagomål mail.docx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 45941-2025 FSC-klagomål mail.docx", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 23494-2023 tillsynsbegäran.docx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 45941-2025 tillsynsbegäran.docx", "A 45941-2025")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 23494-2023 tillsynsbegäran mail.docx", "A 23494-2023")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 23494-2023 prioriterade fågelarter.docx", "A 23494-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 45941-2025 tillsynsbegäran mail.docx", "A 45941-2025")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 25655-2023</t>
+          <t>A 54358-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45089</v>
+        <v>45617.40755787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2606,16 +2607,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5.1</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2630,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2640,45 +2641,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Bergjohannesört</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 25655-2023 artfynd.xlsx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 54358-2024 artfynd.xlsx", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 25655-2023 karta.png", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 54358-2024 karta.png", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 25655-2023 FSC-klagomål.docx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 54358-2024 FSC-klagomål.docx", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 25655-2023 FSC-klagomål mail.docx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 54358-2024 FSC-klagomål mail.docx", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 25655-2023 tillsynsbegäran.docx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 54358-2024 tillsynsbegäran.docx", "A 54358-2024")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 25655-2023 tillsynsbegäran mail.docx", "A 25655-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 54358-2024 tillsynsbegäran mail.docx", "A 54358-2024")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 15351-2024</t>
+          <t>A 7062-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45400.8005787037</v>
+        <v>45343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2690,22 +2691,17 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>9.1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2720,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2730,45 +2726,45 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Guldsandbi</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 15351-2024 artfynd.xlsx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 7062-2024 artfynd.xlsx", "A 7062-2024")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 15351-2024 karta.png", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 7062-2024 karta.png", "A 7062-2024")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 15351-2024 FSC-klagomål.docx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 7062-2024 FSC-klagomål.docx", "A 7062-2024")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 15351-2024 FSC-klagomål mail.docx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 7062-2024 FSC-klagomål mail.docx", "A 7062-2024")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 15351-2024 tillsynsbegäran.docx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 7062-2024 tillsynsbegäran.docx", "A 7062-2024")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 15351-2024 tillsynsbegäran mail.docx", "A 15351-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 7062-2024 tillsynsbegäran mail.docx", "A 7062-2024")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 7062-2024</t>
+          <t>A 58568-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45343</v>
+        <v>45986.36644675926</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2781,7 +2777,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>9.1</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -2790,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2805,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -2815,45 +2811,49 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 7062-2024 artfynd.xlsx", "A 7062-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 58568-2025 artfynd.xlsx", "A 58568-2025")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 7062-2024 karta.png", "A 7062-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 58568-2025 karta.png", "A 58568-2025")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 7062-2024 FSC-klagomål.docx", "A 7062-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 58568-2025 FSC-klagomål.docx", "A 58568-2025")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 7062-2024 FSC-klagomål mail.docx", "A 7062-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 58568-2025 FSC-klagomål mail.docx", "A 58568-2025")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 7062-2024 tillsynsbegäran.docx", "A 7062-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 58568-2025 tillsynsbegäran.docx", "A 58568-2025")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 7062-2024 tillsynsbegäran mail.docx", "A 7062-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 58568-2025 tillsynsbegäran mail.docx", "A 58568-2025")</f>
+        <v/>
+      </c>
+      <c r="Z26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 58568-2025 prioriterade fågelarter.docx", "A 58568-2025")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 38384-2022</t>
+          <t>A 5866-2026</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44812</v>
+        <v>46052.3075925926</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2865,17 +2865,22 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>0.3</v>
+        <v>3.1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2890,27 +2895,59 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/artfynd/A 5866-2026 artfynd.xlsx", "A 5866-2026")</f>
+        <v/>
+      </c>
+      <c r="T27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/kartor/A 5866-2026 karta.png", "A 5866-2026")</f>
+        <v/>
+      </c>
+      <c r="V27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 5866-2026 FSC-klagomål.docx", "A 5866-2026")</f>
+        <v/>
+      </c>
+      <c r="W27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 5866-2026 FSC-klagomål mail.docx", "A 5866-2026")</f>
+        <v/>
+      </c>
+      <c r="X27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 5866-2026 tillsynsbegäran.docx", "A 5866-2026")</f>
+        <v/>
+      </c>
+      <c r="Y27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 5866-2026 tillsynsbegäran mail.docx", "A 5866-2026")</f>
+        <v/>
+      </c>
+      <c r="Z27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/fåglar/A 5866-2026 prioriterade fågelarter.docx", "A 5866-2026")</f>
+        <v/>
+      </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 19235-2021</t>
+          <t>A 38384-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44309.35467592593</v>
+        <v>44812</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2923,7 +2960,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5.9</v>
+        <v>0.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2960,14 +2997,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 30046-2021</t>
+          <t>A 19235-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44363</v>
+        <v>44309.35467592593</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2980,7 +3017,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.2</v>
+        <v>5.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -3017,14 +3054,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 9541-2021</t>
+          <t>A 30046-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44251</v>
+        <v>44363</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3037,7 +3074,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3074,14 +3111,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 2991-2022</t>
+          <t>A 9541-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44581</v>
+        <v>44251</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3094,7 +3131,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.1</v>
+        <v>3.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3131,14 +3168,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 52891-2022</t>
+          <t>A 2991-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44875.56251157408</v>
+        <v>44581</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3151,7 +3188,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.5</v>
+        <v>0.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3188,14 +3225,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 12363-2022</t>
+          <t>A 52891-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44637</v>
+        <v>44875.56251157408</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3208,7 +3245,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3245,14 +3282,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 18346-2022</t>
+          <t>A 12363-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44685.67520833333</v>
+        <v>44637</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3265,7 +3302,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3302,14 +3339,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 30285-2022</t>
+          <t>A 18346-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44760</v>
+        <v>44685.67520833333</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3322,7 +3359,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3359,14 +3396,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 21021-2021</t>
+          <t>A 30285-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44319.62640046296</v>
+        <v>44760</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3379,7 +3416,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>13.5</v>
+        <v>0.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3416,14 +3453,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 23297-2022</t>
+          <t>A 21021-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44720.45840277777</v>
+        <v>44319.62640046296</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3436,7 +3473,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.5</v>
+        <v>13.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3473,14 +3510,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 30950-2021</t>
+          <t>A 23297-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44365.70123842593</v>
+        <v>44720.45840277777</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3493,7 +3530,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3530,14 +3567,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 30951-2021</t>
+          <t>A 30950-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44365.70269675926</v>
+        <v>44365.70123842593</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3550,7 +3587,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.9</v>
+        <v>4.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3587,14 +3624,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 10729-2022</t>
+          <t>A 30951-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44627</v>
+        <v>44365.70269675926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3607,7 +3644,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3644,14 +3681,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 25631-2021</t>
+          <t>A 10729-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44343.5096412037</v>
+        <v>44627</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3664,7 +3701,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>11.7</v>
+        <v>0.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3701,14 +3738,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 17180-2021</t>
+          <t>A 25631-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44298.46679398148</v>
+        <v>44343.5096412037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3721,7 +3758,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>5</v>
+        <v>11.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3758,14 +3795,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 14716-2021</t>
+          <t>A 17180-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44280</v>
+        <v>44298.46679398148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3777,13 +3814,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3820,14 +3852,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 33528-2021</t>
+          <t>A 14716-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44377.80355324074</v>
+        <v>44280</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3839,8 +3871,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3877,14 +3914,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 41630-2021</t>
+          <t>A 33528-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44425.45646990741</v>
+        <v>44377.80355324074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3897,7 +3934,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3934,14 +3971,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 55768-2021</t>
+          <t>A 41630-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44476.53376157407</v>
+        <v>44425.45646990741</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3954,7 +3991,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.3</v>
+        <v>3.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3991,14 +4028,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 52953-2021</t>
+          <t>A 55768-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44467</v>
+        <v>44476.53376157407</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4011,7 +4048,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4.1</v>
+        <v>0.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4048,14 +4085,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 36359-2022</t>
+          <t>A 52953-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44803.87314814814</v>
+        <v>44467</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4068,7 +4105,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4105,14 +4142,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 38386-2022</t>
+          <t>A 36359-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44812.72657407408</v>
+        <v>44803.87314814814</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4125,7 +4162,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4162,14 +4199,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 9801-2021</t>
+          <t>A 38386-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44252</v>
+        <v>44812.72657407408</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4182,7 +4219,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4219,14 +4256,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 30042-2021</t>
+          <t>A 9801-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44363</v>
+        <v>44252</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4239,7 +4276,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4276,14 +4313,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 30045-2021</t>
+          <t>A 30042-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
         <v>44363</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4296,7 +4333,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4333,14 +4370,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 41420-2022</t>
+          <t>A 30045-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44826.6478125</v>
+        <v>44363</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4353,7 +4390,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4397,7 +4434,7 @@
         <v>44256</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4447,14 +4484,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 24291-2021</t>
+          <t>A 41420-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44337.31774305556</v>
+        <v>44826.6478125</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4467,7 +4504,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>5.9</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4504,14 +4541,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 51569-2021</t>
+          <t>A 24291-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44462</v>
+        <v>44337.31774305556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4524,7 +4561,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.1</v>
+        <v>5.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4561,14 +4598,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 38059-2022</t>
+          <t>A 51569-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44811.6625462963</v>
+        <v>44462</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4581,7 +4618,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.4</v>
+        <v>4.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4618,14 +4655,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 296-2022</t>
+          <t>A 38059-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44565.47288194444</v>
+        <v>44811.6625462963</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4638,7 +4675,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4675,14 +4712,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 30284-2022</t>
+          <t>A 296-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44760</v>
+        <v>44565.47288194444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4695,7 +4732,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4732,14 +4769,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 30287-2022</t>
+          <t>A 30284-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
         <v>44760</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4789,14 +4826,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 10726-2022</t>
+          <t>A 30287-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44627.32611111111</v>
+        <v>44760</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4809,7 +4846,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4846,14 +4883,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 49384-2023</t>
+          <t>A 10726-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45205</v>
+        <v>44627.32611111111</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4865,13 +4902,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4908,14 +4940,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 12234-2024</t>
+          <t>A 38442-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45378.36106481482</v>
+        <v>45162.39668981481</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4928,7 +4960,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4965,14 +4997,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 5420-2025</t>
+          <t>A 33527-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45692.68938657407</v>
+        <v>44377.79693287037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4985,7 +5017,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5022,14 +5054,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 61952-2024</t>
+          <t>A 12234-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45653.50980324074</v>
+        <v>45378.36106481482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5042,7 +5074,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5079,14 +5111,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 12784-2025</t>
+          <t>A 48904-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45733.59857638889</v>
+        <v>45594.35560185185</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5099,7 +5131,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5136,14 +5168,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 57381-2022</t>
+          <t>A 58750-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44896</v>
+        <v>44489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5156,7 +5188,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5193,14 +5225,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 48727-2025</t>
+          <t>A 4881-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45936.65829861111</v>
+        <v>45329.44875</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5213,7 +5245,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>6.1</v>
+        <v>3.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5250,14 +5282,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 48730-2025</t>
+          <t>A 26443-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45936.65984953703</v>
+        <v>45092</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5270,7 +5302,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5307,14 +5339,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 2867-2025</t>
+          <t>A 43770-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45677.67715277777</v>
+        <v>45187.50803240741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5327,7 +5359,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>10.7</v>
+        <v>0.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5364,14 +5396,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 13887-2024</t>
+          <t>A 54681-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45391.61759259259</v>
+        <v>44473</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5384,7 +5416,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>11.3</v>
+        <v>4.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5421,14 +5453,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 21304-2025</t>
+          <t>A 406-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45781.36851851852</v>
+        <v>45296</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5441,7 +5473,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5478,14 +5510,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 35423-2025</t>
+          <t>A 19079-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45855.4134837963</v>
+        <v>45766.61758101852</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5498,7 +5530,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5535,14 +5567,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 13801-2025</t>
+          <t>A 49384-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45737</v>
+        <v>45205</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5554,8 +5586,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5592,14 +5629,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 3867-2025</t>
+          <t>A 20037-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45684</v>
+        <v>45772</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5612,7 +5649,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5649,14 +5686,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 61284-2022</t>
+          <t>A 47511-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44915</v>
+        <v>45587.61174768519</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5669,7 +5706,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5706,14 +5743,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 52431-2023</t>
+          <t>A 61435-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45225.33118055556</v>
+        <v>45646.46203703704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5726,7 +5763,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5763,14 +5800,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 21617-2024</t>
+          <t>A 5612-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45441.97630787037</v>
+        <v>45693.60490740741</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5783,7 +5820,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>9.699999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5820,14 +5857,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 11104-2024</t>
+          <t>A 28022-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45371.32724537037</v>
+        <v>45098.95484953704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5840,7 +5877,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.6</v>
+        <v>5.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5877,14 +5914,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 30724-2024</t>
+          <t>A 28515-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45496</v>
+        <v>45819.48321759259</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5897,7 +5934,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5934,14 +5971,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 22561-2025</t>
+          <t>A 37063-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45789.3449537037</v>
+        <v>45539.45819444444</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5954,7 +5991,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5991,14 +6028,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 11329-2025</t>
+          <t>A 587-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45726.47752314815</v>
+        <v>45664.58135416666</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6011,7 +6048,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.6</v>
+        <v>0.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6048,14 +6085,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 23509-2025</t>
+          <t>A 12628-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45792.49081018518</v>
+        <v>45000</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6068,7 +6105,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6105,14 +6142,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 23374-2025</t>
+          <t>A 2867-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45791.77096064815</v>
+        <v>45677.67715277777</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6125,7 +6162,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.6</v>
+        <v>10.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6162,14 +6199,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 12790-2025</t>
+          <t>A 65619-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45733.60599537037</v>
+        <v>44516.53974537037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6219,14 +6256,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 41756-2025</t>
+          <t>A 55972-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45902.50689814815</v>
+        <v>44889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6239,7 +6276,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6276,14 +6313,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 12782-2025</t>
+          <t>A 41411-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45733.59701388889</v>
+        <v>44826.63782407407</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6296,7 +6333,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6333,14 +6370,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 41758-2025</t>
+          <t>A 12647-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45902.51023148148</v>
+        <v>45000</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6353,7 +6390,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6390,14 +6427,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 41760-2025</t>
+          <t>A 41759-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45902.51596064815</v>
+        <v>45902.51219907407</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6410,7 +6447,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6447,14 +6484,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 41761-2025</t>
+          <t>A 8117-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45902.51922453703</v>
+        <v>44974</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6467,7 +6504,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>6.6</v>
+        <v>11</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6504,14 +6541,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 41759-2025</t>
+          <t>A 41756-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45902.51219907407</v>
+        <v>45902.50689814815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6524,7 +6561,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6561,14 +6598,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 12243-2025</t>
+          <t>A 41758-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45729</v>
+        <v>45902.51023148148</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6581,7 +6618,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>10.2</v>
+        <v>1.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6618,14 +6655,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 49188-2025</t>
+          <t>A 41760-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45938.40711805555</v>
+        <v>45902.51596064815</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6638,7 +6675,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6675,14 +6712,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 14891-2025</t>
+          <t>A 41761-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45743.47010416666</v>
+        <v>45902.51922453703</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6695,7 +6732,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.7</v>
+        <v>6.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6732,14 +6769,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 55972-2022</t>
+          <t>A 35422-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44889</v>
+        <v>45855.41179398148</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6752,7 +6789,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6789,14 +6826,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 24053-2025</t>
+          <t>A 42857-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45796</v>
+        <v>45908.6132175926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6809,7 +6846,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>11.1</v>
+        <v>1.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6846,14 +6883,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 56584-2025</t>
+          <t>A 32107-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45974</v>
+        <v>45119.61793981482</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6866,7 +6903,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6903,14 +6940,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 33993-2023</t>
+          <t>A 44104-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45134.92311342592</v>
+        <v>45915.56895833334</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6923,7 +6960,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6960,14 +6997,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 33996-2023</t>
+          <t>A 32110-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45134.92869212963</v>
+        <v>45119.61902777778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6980,7 +7017,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7017,14 +7054,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 35422-2025</t>
+          <t>A 16489-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45855.41179398148</v>
+        <v>45751.58628472222</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7037,7 +7074,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7074,14 +7111,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 42857-2025</t>
+          <t>A 43684-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45908.6132175926</v>
+        <v>45912.37804398148</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7131,14 +7168,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 65619-2021</t>
+          <t>A 44916-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44516.53974537037</v>
+        <v>45918.54886574074</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7151,7 +7188,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7188,14 +7225,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 5743-2025</t>
+          <t>A 35416-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45694.52391203704</v>
+        <v>45855.40481481481</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7208,7 +7245,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7245,14 +7282,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 32107-2023</t>
+          <t>A 44918-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45119.61793981482</v>
+        <v>45918.5504050926</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7265,7 +7302,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.1</v>
+        <v>5.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7302,14 +7339,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 7819-2025</t>
+          <t>A 35420-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45706.63945601852</v>
+        <v>45855.41025462963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7322,7 +7359,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>5.6</v>
+        <v>1.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7359,14 +7396,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 51488-2022</t>
+          <t>A 44914-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44869</v>
+        <v>45918.54420138889</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7379,7 +7416,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7416,14 +7453,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 28910-2024</t>
+          <t>A 44915-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45480.65789351852</v>
+        <v>45918.54668981482</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7436,7 +7473,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7473,14 +7510,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 11604-2024</t>
+          <t>A 35717-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45373.39337962963</v>
+        <v>45860.42960648148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7493,7 +7530,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7530,14 +7567,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 43684-2025</t>
+          <t>A 50349-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45912.37804398148</v>
+        <v>45600.81916666667</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7550,7 +7587,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7587,14 +7624,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 15567-2022</t>
+          <t>A 11102-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44662</v>
+        <v>45371.32438657407</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7607,7 +7644,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7644,14 +7681,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 1382-2024</t>
+          <t>A 37190-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45303.56011574074</v>
+        <v>45875.64939814815</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7664,7 +7701,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7701,14 +7738,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 44104-2025</t>
+          <t>A 57381-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45915.56895833334</v>
+        <v>44896</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7721,7 +7758,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7758,14 +7795,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 44914-2025</t>
+          <t>A 48730-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45918.54420138889</v>
+        <v>45936.65984953703</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7778,7 +7815,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7815,14 +7852,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 44915-2025</t>
+          <t>A 37152-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45918.54668981482</v>
+        <v>45875</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7835,7 +7872,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7872,14 +7909,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 44918-2025</t>
+          <t>A 48727-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45918.5504050926</v>
+        <v>45936.65829861111</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7892,7 +7929,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7929,14 +7966,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 44916-2025</t>
+          <t>A 7912-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45918.54886574074</v>
+        <v>45350</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7949,7 +7986,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7986,14 +8023,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 55324-2025</t>
+          <t>A 12784-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45971.33519675926</v>
+        <v>45733.59857638889</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8005,13 +8042,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8048,14 +8080,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 5740-2025</t>
+          <t>A 35718-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45694.5205324074</v>
+        <v>45860.4315162037</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8068,7 +8100,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.4</v>
+        <v>7.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8105,14 +8137,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 6384-2025</t>
+          <t>A 13581-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45699.42287037037</v>
+        <v>45006.54443287037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8124,8 +8156,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8162,14 +8199,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 587-2025</t>
+          <t>A 49188-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45664.58135416666</v>
+        <v>45938.40711805555</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8182,7 +8219,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8219,14 +8256,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 36984-2024</t>
+          <t>A 13801-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45539.32334490741</v>
+        <v>45737</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8239,7 +8276,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8276,14 +8313,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 27222-2025</t>
+          <t>A 8071-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45812.42443287037</v>
+        <v>45351</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8296,7 +8333,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8333,14 +8370,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 27620-2025</t>
+          <t>A 56584-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45813.54954861111</v>
+        <v>45974</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8353,7 +8390,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8390,14 +8427,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 7912-2024</t>
+          <t>A 13975-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45350</v>
+        <v>45008</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8410,7 +8447,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8447,14 +8484,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 28515-2025</t>
+          <t>A 35423-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45819.48321759259</v>
+        <v>45855.4134837963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8467,7 +8504,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8504,14 +8541,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 56854-2025</t>
+          <t>A 16473-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45978.49476851852</v>
+        <v>44671</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8524,7 +8561,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>6.4</v>
+        <v>1.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8561,14 +8598,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 56855-2025</t>
+          <t>A 61952-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45978.4962962963</v>
+        <v>45653.50980324074</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8581,7 +8618,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8625,7 +8662,7 @@
         <v>44960</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8680,14 +8717,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 54804-2022</t>
+          <t>A 40092-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44883</v>
+        <v>45554.3884375</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8700,7 +8737,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>22.6</v>
+        <v>1.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8737,14 +8774,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 8117-2023</t>
+          <t>A 57754-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44974</v>
+        <v>45246.79032407407</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8757,7 +8794,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>11</v>
+        <v>0.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8794,14 +8831,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 12628-2023</t>
+          <t>A 45469-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45000</v>
+        <v>45576.73229166667</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8814,7 +8851,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.7</v>
+        <v>7.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8851,14 +8888,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 50349-2024</t>
+          <t>A 28021-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45600.81916666667</v>
+        <v>45098.95337962963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8871,7 +8908,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8908,14 +8945,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 35420-2025</t>
+          <t>A 26886-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45855.41025462963</v>
+        <v>45093</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8928,7 +8965,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8965,14 +9002,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 35416-2025</t>
+          <t>A 302-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45855.40481481481</v>
+        <v>45295</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8984,8 +9021,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9022,14 +9064,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 35717-2025</t>
+          <t>A 29066-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45860.42960648148</v>
+        <v>45481.69738425926</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9042,7 +9084,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.6</v>
+        <v>7.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9079,14 +9121,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 2226-2026</t>
+          <t>A 29067-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>46036.51820601852</v>
+        <v>45481.70640046296</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9099,7 +9141,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.3</v>
+        <v>10.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9136,14 +9178,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 28903-2024</t>
+          <t>A 29068-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45480.54913194444</v>
+        <v>45481.71290509259</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9156,7 +9198,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9193,14 +9235,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 2438-2026</t>
+          <t>A 4225-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>46036.91210648148</v>
+        <v>45324.41422453704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9213,7 +9255,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9250,14 +9292,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 12647-2023</t>
+          <t>A 4227-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45000</v>
+        <v>45324.41612268519</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9270,7 +9312,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9307,14 +9349,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 37190-2025</t>
+          <t>A 38093-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45875.64939814815</v>
+        <v>44811.94373842593</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9327,7 +9369,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9364,14 +9406,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 5328-2025</t>
+          <t>A 55324-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45692.53454861111</v>
+        <v>45971.33519675926</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9383,8 +9425,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9421,14 +9468,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 37510-2023</t>
+          <t>A 5420-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45158</v>
+        <v>45692.68938657407</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9441,7 +9488,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9478,14 +9525,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 37152-2025</t>
+          <t>A 51488-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45875</v>
+        <v>44869</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9498,7 +9545,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9535,14 +9582,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 61475-2025</t>
+          <t>A 56854-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>46001.61959490741</v>
+        <v>45978.49476851852</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9555,7 +9602,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>4.6</v>
+        <v>6.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9592,14 +9639,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 35718-2025</t>
+          <t>A 56855-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45860.4315162037</v>
+        <v>45978.4962962963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9612,7 +9659,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>7.6</v>
+        <v>2.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9649,14 +9696,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 61695-2025</t>
+          <t>A 6489-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>46002.52787037037</v>
+        <v>45699.62678240741</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9669,7 +9716,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9706,14 +9753,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 5866-2026</t>
+          <t>A 9046-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>46052.3075925926</v>
+        <v>44615.44694444445</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9725,13 +9772,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9768,14 +9810,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 63703-2025</t>
+          <t>A 46561-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>46014.60188657408</v>
+        <v>45582.67883101852</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9788,7 +9830,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>5</v>
+        <v>12.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9825,14 +9867,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 38383-2022</t>
+          <t>A 17510-2021</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44812</v>
+        <v>44299</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9845,7 +9887,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9882,14 +9924,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 26886-2023</t>
+          <t>A 28903-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45093</v>
+        <v>45480.54913194444</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9902,7 +9944,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9939,14 +9981,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 16489-2025</t>
+          <t>A 61284-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45751.58628472222</v>
+        <v>44915</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9959,7 +10001,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9996,14 +10038,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 28022-2023</t>
+          <t>A 12760-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45098.95484953704</v>
+        <v>45001</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10016,7 +10058,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>5.7</v>
+        <v>1.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10053,14 +10095,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 26443-2023</t>
+          <t>A 62730-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45092</v>
+        <v>45268</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10073,7 +10115,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10110,14 +10152,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 17114-2023</t>
+          <t>A 2226-2026</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45034.58234953704</v>
+        <v>46036.51820601852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10130,7 +10172,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10167,14 +10209,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 58750-2021</t>
+          <t>A 2438-2026</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44489</v>
+        <v>46036.91210648148</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10187,7 +10229,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10224,14 +10266,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 7947-2024</t>
+          <t>A 11604-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45350</v>
+        <v>45373.39337962963</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10244,7 +10286,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10281,14 +10323,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 32110-2023</t>
+          <t>A 5324-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45119.61902777778</v>
+        <v>45692.5303125</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10301,7 +10343,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10338,14 +10380,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 13581-2023</t>
+          <t>A 61475-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45006.54443287037</v>
+        <v>46001.61959490741</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10357,13 +10399,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10400,14 +10437,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 55991-2022</t>
+          <t>A 61695-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44889</v>
+        <v>46002.52787037037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10420,7 +10457,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10457,14 +10494,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 5834-2026</t>
+          <t>A 5811-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>46052.33366898148</v>
+        <v>45694.7127662037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10476,13 +10513,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>9.9</v>
+        <v>1.1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10515,38 +10547,18 @@
         <v>0</v>
       </c>
       <c r="R160" s="2" t="inlineStr"/>
-      <c r="U160">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/knärot/A 5834-2026 karta knärot.png", "A 5834-2026")</f>
-        <v/>
-      </c>
-      <c r="V160">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 5834-2026 FSC-klagomål.docx", "A 5834-2026")</f>
-        <v/>
-      </c>
-      <c r="W160">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 5834-2026 FSC-klagomål mail.docx", "A 5834-2026")</f>
-        <v/>
-      </c>
-      <c r="X160">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 5834-2026 tillsynsbegäran.docx", "A 5834-2026")</f>
-        <v/>
-      </c>
-      <c r="Y160">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 5834-2026 tillsynsbegäran mail.docx", "A 5834-2026")</f>
-        <v/>
-      </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 54681-2021</t>
+          <t>A 54804-2022</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44473</v>
+        <v>44883</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10559,7 +10571,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>4.1</v>
+        <v>22.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10596,14 +10608,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 11102-2024</t>
+          <t>A 20031-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45371.32438657407</v>
+        <v>45772</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10616,7 +10628,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.8</v>
+        <v>6.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10653,14 +10665,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 5811-2025</t>
+          <t>A 52431-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45694.7127662037</v>
+        <v>45225.33118055556</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10673,7 +10685,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10710,14 +10722,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 47511-2024</t>
+          <t>A 33993-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45587.61174768519</v>
+        <v>45134.92311342592</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10730,7 +10742,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10767,14 +10779,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 43770-2023</t>
+          <t>A 33996-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45187.50803240741</v>
+        <v>45134.92869212963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10787,7 +10799,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10824,14 +10836,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 4881-2024</t>
+          <t>A 63703-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45329.44875</v>
+        <v>46014.60188657408</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10844,7 +10856,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10881,14 +10893,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 46561-2024</t>
+          <t>A 7947-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45582.67883101852</v>
+        <v>45350</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10901,7 +10913,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>12.2</v>
+        <v>1.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10938,14 +10950,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 47509-2024</t>
+          <t>A 55991-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45587.60949074074</v>
+        <v>44889</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10958,7 +10970,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10995,14 +11007,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 9046-2022</t>
+          <t>A 17116-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44615.44694444445</v>
+        <v>45034.58351851852</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11052,14 +11064,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 20031-2025</t>
+          <t>A 15567-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45772</v>
+        <v>44662</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11072,7 +11084,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>6.2</v>
+        <v>1.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11109,14 +11121,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 61435-2024</t>
+          <t>A 21630-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45646.46203703704</v>
+        <v>45442.32711805555</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11129,7 +11141,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.7</v>
+        <v>4.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11166,14 +11178,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 14929-2024</t>
+          <t>A 13382-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45398.64460648148</v>
+        <v>45005.50784722222</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11186,7 +11198,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>5.1</v>
+        <v>3.4</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11223,14 +11235,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 21630-2024</t>
+          <t>A 550-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45442.32711805555</v>
+        <v>45299</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11243,7 +11255,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>4.6</v>
+        <v>2.3</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11280,14 +11292,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 43767-2023</t>
+          <t>A 5834-2026</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45187.50667824074</v>
+        <v>46052.33366898148</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11299,8 +11311,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>2.3</v>
+        <v>9.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11333,18 +11350,38 @@
         <v>0</v>
       </c>
       <c r="R174" s="2" t="inlineStr"/>
+      <c r="U174">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/knärot/A 5834-2026 karta knärot.png", "A 5834-2026")</f>
+        <v/>
+      </c>
+      <c r="V174">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomål/A 5834-2026 FSC-klagomål.docx", "A 5834-2026")</f>
+        <v/>
+      </c>
+      <c r="W174">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/klagomålsmail/A 5834-2026 FSC-klagomål mail.docx", "A 5834-2026")</f>
+        <v/>
+      </c>
+      <c r="X174">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsyn/A 5834-2026 tillsynsbegäran.docx", "A 5834-2026")</f>
+        <v/>
+      </c>
+      <c r="Y174">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1462/tillsynsmail/A 5834-2026 tillsynsbegäran mail.docx", "A 5834-2026")</f>
+        <v/>
+      </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 33991-2023</t>
+          <t>A 13887-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45134.90613425926</v>
+        <v>45391.61759259259</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11357,7 +11394,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.5</v>
+        <v>11.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11394,14 +11431,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 41411-2022</t>
+          <t>A 47509-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44826.63782407407</v>
+        <v>45587.60949074074</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11414,7 +11451,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11451,14 +11488,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 4225-2024</t>
+          <t>A 14929-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45324.41422453704</v>
+        <v>45398.64460648148</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11471,7 +11508,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.3</v>
+        <v>5.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11508,14 +11545,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 4227-2024</t>
+          <t>A 11104-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45324.41612268519</v>
+        <v>45371.32724537037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11528,7 +11565,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11565,14 +11602,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 37508-2023</t>
+          <t>A 28910-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45158.42202546296</v>
+        <v>45480.65789351852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11585,7 +11622,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>6.9</v>
+        <v>1.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11622,14 +11659,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 37509-2023</t>
+          <t>A 1382-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45158.43357638889</v>
+        <v>45303.56011574074</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11642,7 +11679,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11679,14 +11716,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 13382-2023</t>
+          <t>A 17114-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45005.50784722222</v>
+        <v>45034.58234953704</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11699,7 +11736,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11736,14 +11773,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 38093-2022</t>
+          <t>A 43767-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44811.94373842593</v>
+        <v>45187.50667824074</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11756,7 +11793,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11800,7 +11837,7 @@
         <v>45546.56513888889</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11855,14 +11892,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 16473-2022</t>
+          <t>A 13631-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44671</v>
+        <v>45390.41417824074</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11875,7 +11912,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.7</v>
+        <v>16.4</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11912,14 +11949,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 20037-2025</t>
+          <t>A 38383-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45772</v>
+        <v>44812</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11932,7 +11969,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11969,14 +12006,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 40092-2024</t>
+          <t>A 37508-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45554.3884375</v>
+        <v>45158.42202546296</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11989,7 +12026,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.7</v>
+        <v>6.9</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12026,14 +12063,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 57754-2023</t>
+          <t>A 37509-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45246.79032407407</v>
+        <v>45158.43357638889</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12046,7 +12083,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12083,14 +12120,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 48904-2024</t>
+          <t>A 15159-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45594.35560185185</v>
+        <v>45016.58609953704</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12102,8 +12139,13 @@
           <t>LILLA EDET</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>3.9</v>
+        <v>0.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12140,14 +12182,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 28021-2023</t>
+          <t>A 37510-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45098.95337962963</v>
+        <v>45158</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12160,7 +12202,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12197,14 +12239,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 17510-2021</t>
+          <t>A 49879-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44299</v>
+        <v>45213</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12217,7 +12259,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.9</v>
+        <v>5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12261,7 +12303,7 @@
         <v>45189.37668981482</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12311,14 +12353,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 17116-2023</t>
+          <t>A 33991-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45034.58351851852</v>
+        <v>45134.90613425926</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12331,7 +12373,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12368,14 +12410,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 12760-2023</t>
+          <t>A 5328-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45001</v>
+        <v>45692.53454861111</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12425,14 +12467,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 5612-2025</t>
+          <t>A 21304-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45693.60490740741</v>
+        <v>45781.36851851852</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12445,7 +12487,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12482,14 +12524,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 302-2024</t>
+          <t>A 3867-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45295</v>
+        <v>45684</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12501,13 +12543,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12544,14 +12581,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 29066-2024</t>
+          <t>A 21617-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45481.69738425926</v>
+        <v>45441.97630787037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12564,7 +12601,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>7.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12601,14 +12638,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 29067-2024</t>
+          <t>A 22561-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45481.70640046296</v>
+        <v>45789.3449537037</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12621,7 +12658,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>10.4</v>
+        <v>2.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12658,14 +12695,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 29068-2024</t>
+          <t>A 12782-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45481.71290509259</v>
+        <v>45733.59701388889</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12678,7 +12715,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12715,14 +12752,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 38442-2023</t>
+          <t>A 12790-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45162.39668981481</v>
+        <v>45733.60599537037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12735,7 +12772,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12772,14 +12809,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 19079-2025</t>
+          <t>A 12243-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45766.61758101852</v>
+        <v>45729</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12792,7 +12829,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.1</v>
+        <v>10.2</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12829,14 +12866,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 5324-2025</t>
+          <t>A 11329-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45692.5303125</v>
+        <v>45726.47752314815</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12849,7 +12886,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12886,14 +12923,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 13631-2024</t>
+          <t>A 14891-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45390.41417824074</v>
+        <v>45743.47010416666</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12906,7 +12943,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>16.4</v>
+        <v>0.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12943,14 +12980,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 37063-2024</t>
+          <t>A 30724-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45539.45819444444</v>
+        <v>45496</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12963,7 +13000,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>8.800000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13000,14 +13037,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 15159-2023</t>
+          <t>A 23374-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45016.58609953704</v>
+        <v>45791.77096064815</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13019,13 +13056,8 @@
           <t>LILLA EDET</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13062,14 +13094,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 550-2024</t>
+          <t>A 23509-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45299</v>
+        <v>45792.49081018518</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13082,7 +13114,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.3</v>
+        <v>0.3</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13119,14 +13151,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 13975-2023</t>
+          <t>A 5743-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45008</v>
+        <v>45694.52391203704</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13139,7 +13171,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13176,14 +13208,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 33527-2021</t>
+          <t>A 24053-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44377.79693287037</v>
+        <v>45796</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13196,7 +13228,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.3</v>
+        <v>11.1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13233,14 +13265,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 8071-2024</t>
+          <t>A 7819-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45351</v>
+        <v>45706.63945601852</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13253,7 +13285,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.6</v>
+        <v>5.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13290,14 +13322,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 6489-2025</t>
+          <t>A 5740-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45699.62678240741</v>
+        <v>45694.5205324074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13310,7 +13342,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13347,14 +13379,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 45469-2024</t>
+          <t>A 6384-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45576.73229166667</v>
+        <v>45699.42287037037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13367,7 +13399,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>7.2</v>
+        <v>2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13404,14 +13436,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 406-2024</t>
+          <t>A 36984-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45296</v>
+        <v>45539.32334490741</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13424,7 +13456,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>4.8</v>
+        <v>1.7</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13461,14 +13493,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 62730-2023</t>
+          <t>A 27222-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45268</v>
+        <v>45812.42443287037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13481,7 +13513,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13518,14 +13550,14 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 49879-2023</t>
+          <t>A 27620-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45213</v>
+        <v>45813.54954861111</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13538,7 +13570,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>

--- a/Översikt LILLA EDET.xlsx
+++ b/Översikt LILLA EDET.xlsx
@@ -575,7 +575,7 @@
         <v>45295</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45827</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>45295</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45272</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>45139</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>45462</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>45819.48106481481</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>45986.36528935185</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45187</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>45072</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>46044.42456018519</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>45832.45538194444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>46036.9100925926</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>45072</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>45296.57905092592</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>45390</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>45072</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>45072</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>45089</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>45400.8005787037</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>44759</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>45924.31385416666</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>45617.40755787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>45343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>45986.36644675926</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>46052.3075925926</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>44812</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44309.35467592593</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44363</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44251</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>44581</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>44875.56251157408</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>44637</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>44685.67520833333</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44760</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44319.62640046296</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44720.45840277777</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44365.70123842593</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44365.70269675926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>44627</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>44343.5096412037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44298.46679398148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>44280</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44377.80355324074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>44425.45646990741</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>44476.53376157407</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>44467</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>44803.87314814814</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>44812.72657407408</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>44252</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>44363</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>44363</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>44256</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         <v>44826.6478125</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>44337.31774305556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>44462</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>44811.6625462963</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>44565.47288194444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>44760</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>44760</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>44627.32611111111</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>45162.39668981481</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>44377.79693287037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>45378.36106481482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>45594.35560185185</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>44489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>45329.44875</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>45092</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>45187.50803240741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>44473</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>45296</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>45766.61758101852</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>45205</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>45772</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>45587.61174768519</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>45646.46203703704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>45693.60490740741</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>45098.95484953704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>45819.48321759259</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>45539.45819444444</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>45664.58135416666</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>45000</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>45677.67715277777</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44516.53974537037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>44889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>44826.63782407407</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>45000</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>45902.51219907407</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44974</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>45902.50689814815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>45902.51023148148</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>45902.51596064815</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>45902.51922453703</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>45855.41179398148</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>45908.6132175926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>45119.61793981482</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>45915.56895833334</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>45119.61902777778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>45751.58628472222</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>45912.37804398148</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>45918.54886574074</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>45855.40481481481</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>45918.5504050926</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>45855.41025462963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>45918.54420138889</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>45918.54668981482</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>45860.42960648148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>45600.81916666667</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>45371.32438657407</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>45875.64939814815</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44896</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>45936.65984953703</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>45875</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>45936.65829861111</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>45350</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>45733.59857638889</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>45860.4315162037</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>45006.54443287037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8206,7 +8206,7 @@
         <v>45938.40711805555</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>45737</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>45351</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>45974</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>45008</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>45855.4134837963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>44671</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>45653.50980324074</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>44960</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>45554.3884375</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>45246.79032407407</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>45576.73229166667</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>45098.95337962963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>45093</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>45295</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>45481.69738425926</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>45481.70640046296</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45481.71290509259</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>45324.41422453704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>45324.41612268519</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>44811.94373842593</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>45971.33519675926</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>45692.68938657407</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>44869</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45978.49476851852</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>45978.4962962963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
         <v>45699.62678240741</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>44615.44694444445</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
         <v>45582.67883101852</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>44299</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>45480.54913194444</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>44915</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>45001</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10102,7 +10102,7 @@
         <v>45268</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>46036.51820601852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>46036.91210648148</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>45373.39337962963</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>45692.5303125</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>46001.61959490741</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>46002.52787037037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>45694.7127662037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44883</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>45772</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>45225.33118055556</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>45134.92311342592</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>45134.92869212963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>46014.60188657408</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>45350</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>44889</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>45034.58351851852</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>44662</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         <v>45442.32711805555</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>45005.50784722222</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>45299</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>46052.33366898148</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>45391.61759259259</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>45587.60949074074</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>45398.64460648148</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>45371.32724537037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>45480.65789351852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>45303.56011574074</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>45034.58234953704</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>45187.50667824074</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>45546.56513888889</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>45390.41417824074</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11956,7 +11956,7 @@
         <v>44812</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>45158.42202546296</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>45158.43357638889</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>45016.58609953704</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>45158</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>45213</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>45189.37668981482</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12360,7 +12360,7 @@
         <v>45134.90613425926</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12417,7 +12417,7 @@
         <v>45692.53454861111</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12474,7 +12474,7 @@
         <v>45781.36851851852</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12531,7 +12531,7 @@
         <v>45684</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12588,7 +12588,7 @@
         <v>45441.97630787037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         <v>45789.3449537037</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>45733.59701388889</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>45733.60599537037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>45729</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>45726.47752314815</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>45743.47010416666</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12987,7 +12987,7 @@
         <v>45496</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>45791.77096064815</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>45792.49081018518</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>45694.52391203704</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>45796</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>45706.63945601852</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>45694.5205324074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>45699.42287037037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>45539.32334490741</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45812.42443287037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>45813.54954861111</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
